--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046790</v>
+        <v>131046803</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>79000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395416</v>
+        <v>395450</v>
       </c>
       <c r="R2" t="n">
-        <v>6804491</v>
+        <v>6804390</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,12 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046873</v>
+        <v>131046875</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395430</v>
+        <v>395444</v>
       </c>
       <c r="R3" t="n">
-        <v>6804474</v>
+        <v>6804461</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046803</v>
+        <v>131046947</v>
       </c>
       <c r="B4" t="n">
-        <v>78996</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -939,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395450</v>
+        <v>395461</v>
       </c>
       <c r="R4" t="n">
-        <v>6804390</v>
+        <v>6804551</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -974,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -984,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1011,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046747</v>
+        <v>131046896</v>
       </c>
       <c r="B5" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,39 +1012,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395480</v>
+        <v>395423</v>
       </c>
       <c r="R5" t="n">
-        <v>6804496</v>
+        <v>6804458</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1096,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1123,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046896</v>
+        <v>131046995</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395423</v>
+        <v>395491</v>
       </c>
       <c r="R6" t="n">
-        <v>6804458</v>
+        <v>6804522</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1203,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1233,7 +1218,7 @@
         <v>131046872</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1337,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046947</v>
+        <v>131046873</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1372,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395461</v>
+        <v>395430</v>
       </c>
       <c r="R8" t="n">
-        <v>6804551</v>
+        <v>6804474</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046995</v>
+        <v>131046747</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,34 +1440,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395491</v>
+        <v>395480</v>
       </c>
       <c r="R9" t="n">
-        <v>6804522</v>
+        <v>6804496</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046875</v>
+        <v>131046790</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,34 +1552,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395444</v>
+        <v>395416</v>
       </c>
       <c r="R10" t="n">
-        <v>6804461</v>
+        <v>6804491</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1616,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1626,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033342</v>
+        <v>131046884</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395753</v>
+        <v>395489</v>
       </c>
       <c r="R11" t="n">
-        <v>6804557</v>
+        <v>6804292</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,22 +1723,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1768,7 +1768,7 @@
         <v>131046807</v>
       </c>
       <c r="B12" t="n">
-        <v>83202</v>
+        <v>83206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046858</v>
+        <v>131033342</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395570</v>
+        <v>395753</v>
       </c>
       <c r="R13" t="n">
-        <v>6804341</v>
+        <v>6804557</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,22 +1937,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1979,10 +1979,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046749</v>
+        <v>131046858</v>
       </c>
       <c r="B14" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1990,39 +1990,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395449</v>
+        <v>395570</v>
       </c>
       <c r="R14" t="n">
-        <v>6804395</v>
+        <v>6804341</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2054,7 +2049,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2064,7 +2059,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,10 +2086,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046884</v>
+        <v>131046749</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2102,34 +2097,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395489</v>
+        <v>395449</v>
       </c>
       <c r="R15" t="n">
-        <v>6804292</v>
+        <v>6804395</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033331</v>
+        <v>131033283</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79275</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395707</v>
+        <v>395745</v>
       </c>
       <c r="R16" t="n">
-        <v>6804307</v>
+        <v>6804404</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,10 +2305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033348</v>
+        <v>131046901</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395756</v>
+        <v>395395</v>
       </c>
       <c r="R17" t="n">
-        <v>6804343</v>
+        <v>6804547</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,10 +2412,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033283</v>
+        <v>131033348</v>
       </c>
       <c r="B18" t="n">
-        <v>79271</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2423,21 +2423,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395745</v>
+        <v>395756</v>
       </c>
       <c r="R18" t="n">
-        <v>6804404</v>
+        <v>6804343</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,10 +2519,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046868</v>
+        <v>131033331</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395462</v>
+        <v>395707</v>
       </c>
       <c r="R19" t="n">
-        <v>6804496</v>
+        <v>6804307</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,22 +2584,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,10 +2626,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046878</v>
+        <v>131046955</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395478</v>
+        <v>395432</v>
       </c>
       <c r="R20" t="n">
-        <v>6804426</v>
+        <v>6804533</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046955</v>
+        <v>131046878</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395432</v>
+        <v>395478</v>
       </c>
       <c r="R21" t="n">
-        <v>6804533</v>
+        <v>6804426</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,10 +2840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131047009</v>
+        <v>131046868</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2851,42 +2851,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395494</v>
+        <v>395462</v>
       </c>
       <c r="R22" t="n">
-        <v>6804551</v>
+        <v>6804496</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2918,7 +2910,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2928,12 +2920,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2963,7 +2950,7 @@
         <v>131046777</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3077,10 +3064,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046901</v>
+        <v>131047009</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3075,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395395</v>
+        <v>395494</v>
       </c>
       <c r="R24" t="n">
-        <v>6804547</v>
+        <v>6804551</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3147,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3157,7 +3152,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033324</v>
+        <v>131046894</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395676</v>
+        <v>395429</v>
       </c>
       <c r="R25" t="n">
-        <v>6804490</v>
+        <v>6804421</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,22 +3249,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033294</v>
+        <v>131033324</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,39 +3302,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395714</v>
+        <v>395676</v>
       </c>
       <c r="R26" t="n">
-        <v>6804552</v>
+        <v>6804490</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3366,7 +3361,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3376,12 +3371,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3408,10 +3398,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033302</v>
+        <v>131033344</v>
       </c>
       <c r="B27" t="n">
-        <v>78997</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3419,21 +3409,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3443,10 +3433,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395679</v>
+        <v>395753</v>
       </c>
       <c r="R27" t="n">
-        <v>6804524</v>
+        <v>6804482</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3478,7 +3468,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3488,7 +3478,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3515,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033344</v>
+        <v>131033294</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3526,34 +3516,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395753</v>
+        <v>395714</v>
       </c>
       <c r="R28" t="n">
-        <v>6804482</v>
+        <v>6804552</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3585,7 +3580,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3595,7 +3590,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3622,10 +3622,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046894</v>
+        <v>131033302</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3633,21 +3633,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395429</v>
+        <v>395679</v>
       </c>
       <c r="R29" t="n">
-        <v>6804421</v>
+        <v>6804524</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3687,22 +3687,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3841,10 +3841,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046898</v>
+        <v>131046885</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395393</v>
+        <v>395486</v>
       </c>
       <c r="R31" t="n">
-        <v>6804503</v>
+        <v>6804289</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3948,10 +3948,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046892</v>
+        <v>131046956</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395445</v>
+        <v>395418</v>
       </c>
       <c r="R32" t="n">
-        <v>6804404</v>
+        <v>6804552</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4055,10 +4055,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046994</v>
+        <v>131046892</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395484</v>
+        <v>395445</v>
       </c>
       <c r="R33" t="n">
-        <v>6804534</v>
+        <v>6804404</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4162,10 +4162,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046956</v>
+        <v>131046898</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4197,10 +4197,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395418</v>
+        <v>395393</v>
       </c>
       <c r="R34" t="n">
-        <v>6804552</v>
+        <v>6804503</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4272,7 +4272,7 @@
         <v>131046998</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046885</v>
+        <v>131046994</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395486</v>
+        <v>395484</v>
       </c>
       <c r="R36" t="n">
-        <v>6804289</v>
+        <v>6804534</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4483,10 +4483,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046897</v>
+        <v>131046855</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395414</v>
+        <v>395570</v>
       </c>
       <c r="R37" t="n">
-        <v>6804483</v>
+        <v>6804306</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4590,10 +4590,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046855</v>
+        <v>131046897</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4625,10 +4625,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395570</v>
+        <v>395414</v>
       </c>
       <c r="R38" t="n">
-        <v>6804306</v>
+        <v>6804483</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4700,7 +4700,7 @@
         <v>131033347</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131033334</v>
+        <v>131046805</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,21 +4815,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395718</v>
+        <v>395461</v>
       </c>
       <c r="R40" t="n">
-        <v>6804558</v>
+        <v>6804539</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4869,22 +4869,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4914,7 +4914,7 @@
         <v>131033346</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131033288</v>
+        <v>131033334</v>
       </c>
       <c r="B42" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5029,39 +5029,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395651</v>
+        <v>395718</v>
       </c>
       <c r="R42" t="n">
-        <v>6804457</v>
+        <v>6804558</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5093,7 +5088,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5103,12 +5098,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5135,10 +5125,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046859</v>
+        <v>131046881</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5170,10 +5160,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395566</v>
+        <v>395494</v>
       </c>
       <c r="R43" t="n">
-        <v>6804349</v>
+        <v>6804395</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5205,7 +5195,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5215,7 +5205,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5242,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046881</v>
+        <v>131046999</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5277,10 +5267,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395494</v>
+        <v>395485</v>
       </c>
       <c r="R44" t="n">
-        <v>6804395</v>
+        <v>6804561</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5312,7 +5302,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5322,7 +5312,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5349,10 +5339,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046748</v>
+        <v>131046859</v>
       </c>
       <c r="B45" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5360,39 +5350,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395453</v>
+        <v>395566</v>
       </c>
       <c r="R45" t="n">
-        <v>6804322</v>
+        <v>6804349</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5424,7 +5409,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5434,7 +5419,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5461,10 +5446,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046805</v>
+        <v>131046748</v>
       </c>
       <c r="B46" t="n">
-        <v>78996</v>
+        <v>57881</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5472,34 +5457,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395461</v>
+        <v>395453</v>
       </c>
       <c r="R46" t="n">
-        <v>6804539</v>
+        <v>6804322</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5531,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5541,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5568,10 +5558,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046999</v>
+        <v>131033288</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5579,34 +5569,39 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395485</v>
+        <v>395651</v>
       </c>
       <c r="R47" t="n">
-        <v>6804561</v>
+        <v>6804457</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5633,22 +5628,27 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5675,10 +5675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131033323</v>
+        <v>131046712</v>
       </c>
       <c r="B48" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5686,21 +5686,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395680</v>
+        <v>395468</v>
       </c>
       <c r="R48" t="n">
-        <v>6804541</v>
+        <v>6804494</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5740,22 +5740,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131033352</v>
+        <v>131046954</v>
       </c>
       <c r="B49" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395857</v>
+        <v>395446</v>
       </c>
       <c r="R49" t="n">
-        <v>6804292</v>
+        <v>6804531</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5847,22 +5847,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,10 +5889,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046712</v>
+        <v>131046997</v>
       </c>
       <c r="B50" t="n">
-        <v>83219</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5900,21 +5900,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395468</v>
+        <v>395518</v>
       </c>
       <c r="R50" t="n">
-        <v>6804494</v>
+        <v>6804527</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,10 +5996,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046954</v>
+        <v>131046861</v>
       </c>
       <c r="B51" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395446</v>
+        <v>395564</v>
       </c>
       <c r="R51" t="n">
-        <v>6804531</v>
+        <v>6804373</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,10 +6103,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046948</v>
+        <v>131033323</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395462</v>
+        <v>395680</v>
       </c>
       <c r="R52" t="n">
-        <v>6804542</v>
+        <v>6804541</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6168,22 +6168,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,10 +6210,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046997</v>
+        <v>131033352</v>
       </c>
       <c r="B53" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395518</v>
+        <v>395857</v>
       </c>
       <c r="R53" t="n">
-        <v>6804527</v>
+        <v>6804292</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6275,22 +6275,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6320,7 +6320,7 @@
         <v>131046949</v>
       </c>
       <c r="B54" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046866</v>
+        <v>131046948</v>
       </c>
       <c r="B55" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395542</v>
+        <v>395462</v>
       </c>
       <c r="R55" t="n">
-        <v>6804432</v>
+        <v>6804542</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,10 +6531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046861</v>
+        <v>131046866</v>
       </c>
       <c r="B56" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395564</v>
+        <v>395542</v>
       </c>
       <c r="R56" t="n">
-        <v>6804373</v>
+        <v>6804432</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,10 +6638,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046869</v>
+        <v>131046880</v>
       </c>
       <c r="B57" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395456</v>
+        <v>395491</v>
       </c>
       <c r="R57" t="n">
-        <v>6804500</v>
+        <v>6804393</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,10 +6745,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046880</v>
+        <v>131046869</v>
       </c>
       <c r="B58" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395491</v>
+        <v>395456</v>
       </c>
       <c r="R58" t="n">
-        <v>6804393</v>
+        <v>6804500</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6852,10 +6852,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046713</v>
+        <v>131046879</v>
       </c>
       <c r="B59" t="n">
-        <v>83219</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6863,21 +6863,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395454</v>
+        <v>395482</v>
       </c>
       <c r="R59" t="n">
-        <v>6804501</v>
+        <v>6804421</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,10 +6959,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046879</v>
+        <v>131046713</v>
       </c>
       <c r="B60" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395482</v>
+        <v>395454</v>
       </c>
       <c r="R60" t="n">
-        <v>6804421</v>
+        <v>6804501</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7069,7 +7069,7 @@
         <v>131046874</v>
       </c>
       <c r="B61" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>131046888</v>
       </c>
       <c r="B62" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>131033321</v>
       </c>
       <c r="B63" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7387,10 +7387,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131033327</v>
+        <v>131046882</v>
       </c>
       <c r="B64" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7422,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395671</v>
+        <v>395493</v>
       </c>
       <c r="R64" t="n">
-        <v>6804435</v>
+        <v>6804376</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7452,22 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7494,10 +7494,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033326</v>
+        <v>131033327</v>
       </c>
       <c r="B65" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395665</v>
+        <v>395671</v>
       </c>
       <c r="R65" t="n">
-        <v>6804439</v>
+        <v>6804435</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,10 +7601,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046789</v>
+        <v>131033326</v>
       </c>
       <c r="B66" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7612,39 +7612,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395495</v>
+        <v>395665</v>
       </c>
       <c r="R66" t="n">
-        <v>6804385</v>
+        <v>6804439</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7671,27 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7718,10 +7708,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131046882</v>
+        <v>131046789</v>
       </c>
       <c r="B67" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7729,34 +7719,39 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395493</v>
+        <v>395495</v>
       </c>
       <c r="R67" t="n">
-        <v>6804376</v>
+        <v>6804385</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7788,7 +7783,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -7798,7 +7793,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7828,7 +7828,7 @@
         <v>131046996</v>
       </c>
       <c r="B68" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7932,32 +7932,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131033299</v>
+        <v>131046993</v>
       </c>
       <c r="B69" t="n">
-        <v>79263</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395890</v>
+        <v>395472</v>
       </c>
       <c r="R69" t="n">
-        <v>6804464</v>
+        <v>6804550</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,10 +8039,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033295</v>
+        <v>131033353</v>
       </c>
       <c r="B70" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8050,39 +8050,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395744</v>
+        <v>395859</v>
       </c>
       <c r="R70" t="n">
-        <v>6804575</v>
+        <v>6804312</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8114,7 +8109,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8124,12 +8119,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8156,10 +8146,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131033353</v>
+        <v>131046877</v>
       </c>
       <c r="B71" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8191,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395859</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804312</v>
+        <v>6804442</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8221,22 +8211,22 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8263,32 +8253,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046993</v>
+        <v>131033299</v>
       </c>
       <c r="B72" t="n">
-        <v>79239</v>
+        <v>79267</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8298,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395472</v>
+        <v>395890</v>
       </c>
       <c r="R72" t="n">
-        <v>6804550</v>
+        <v>6804464</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8328,22 +8318,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8373,7 +8363,7 @@
         <v>131046856</v>
       </c>
       <c r="B73" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8477,10 +8467,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046877</v>
+        <v>131033295</v>
       </c>
       <c r="B74" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8488,34 +8478,39 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395464</v>
+        <v>395744</v>
       </c>
       <c r="R74" t="n">
-        <v>6804442</v>
+        <v>6804575</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8542,22 +8537,27 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,10 +8584,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131033303</v>
+        <v>131046865</v>
       </c>
       <c r="B75" t="n">
-        <v>78997</v>
+        <v>79243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8595,21 +8595,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395706</v>
+        <v>395546</v>
       </c>
       <c r="R75" t="n">
-        <v>6804535</v>
+        <v>6804405</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8649,22 +8649,22 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8694,7 +8694,7 @@
         <v>131046886</v>
       </c>
       <c r="B76" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>131046862</v>
       </c>
       <c r="B77" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8905,10 +8905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046865</v>
+        <v>131033303</v>
       </c>
       <c r="B78" t="n">
-        <v>79239</v>
+        <v>79001</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8916,21 +8916,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395546</v>
+        <v>395706</v>
       </c>
       <c r="R78" t="n">
-        <v>6804405</v>
+        <v>6804535</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8970,22 +8970,22 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9015,7 +9015,7 @@
         <v>131033330</v>
       </c>
       <c r="B79" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>131033322</v>
       </c>
       <c r="B80" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9226,10 +9226,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046883</v>
+        <v>131046889</v>
       </c>
       <c r="B81" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395494</v>
+        <v>395429</v>
       </c>
       <c r="R81" t="n">
-        <v>6804367</v>
+        <v>6804384</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9336,7 +9336,7 @@
         <v>131046854</v>
       </c>
       <c r="B82" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9440,10 +9440,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046889</v>
+        <v>131046883</v>
       </c>
       <c r="B83" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395429</v>
+        <v>395494</v>
       </c>
       <c r="R83" t="n">
-        <v>6804384</v>
+        <v>6804367</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9550,7 +9550,7 @@
         <v>131046857</v>
       </c>
       <c r="B84" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>131046893</v>
       </c>
       <c r="B85" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>131033333</v>
       </c>
       <c r="B86" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9868,10 +9868,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131033293</v>
+        <v>131046902</v>
       </c>
       <c r="B87" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9879,39 +9879,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395668</v>
+        <v>395389</v>
       </c>
       <c r="R87" t="n">
-        <v>6804432</v>
+        <v>6804555</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9938,27 +9933,22 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:22</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9985,10 +9975,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046902</v>
+        <v>131046860</v>
       </c>
       <c r="B88" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10020,10 +10010,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395389</v>
+        <v>395578</v>
       </c>
       <c r="R88" t="n">
-        <v>6804555</v>
+        <v>6804350</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10055,7 +10045,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10065,7 +10055,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10095,7 +10085,7 @@
         <v>131047018</v>
       </c>
       <c r="B89" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10209,10 +10199,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046860</v>
+        <v>131033293</v>
       </c>
       <c r="B90" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10220,34 +10210,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395578</v>
+        <v>395668</v>
       </c>
       <c r="R90" t="n">
-        <v>6804350</v>
+        <v>6804432</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10274,22 +10269,27 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10316,10 +10316,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131033345</v>
+        <v>131046950</v>
       </c>
       <c r="B91" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395748</v>
+        <v>395470</v>
       </c>
       <c r="R91" t="n">
-        <v>6804429</v>
+        <v>6804530</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10381,22 +10381,22 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10426,7 +10426,7 @@
         <v>131046870</v>
       </c>
       <c r="B92" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10530,10 +10530,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046992</v>
+        <v>131046891</v>
       </c>
       <c r="B93" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395477</v>
+        <v>395453</v>
       </c>
       <c r="R93" t="n">
-        <v>6804563</v>
+        <v>6804400</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,10 +10637,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046950</v>
+        <v>131046992</v>
       </c>
       <c r="B94" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395470</v>
+        <v>395477</v>
       </c>
       <c r="R94" t="n">
-        <v>6804530</v>
+        <v>6804563</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,10 +10744,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046891</v>
+        <v>131033345</v>
       </c>
       <c r="B95" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395453</v>
+        <v>395748</v>
       </c>
       <c r="R95" t="n">
-        <v>6804400</v>
+        <v>6804429</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046780</v>
+        <v>131033362</v>
       </c>
       <c r="B96" t="n">
-        <v>57880</v>
+        <v>78909</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,39 +10862,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395470</v>
+        <v>395883</v>
       </c>
       <c r="R96" t="n">
-        <v>6804530</v>
+        <v>6804433</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10921,27 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10968,10 +10958,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046887</v>
+        <v>131046895</v>
       </c>
       <c r="B97" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11003,10 +10993,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395449</v>
+        <v>395436</v>
       </c>
       <c r="R97" t="n">
-        <v>6804334</v>
+        <v>6804436</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11038,7 +11028,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11048,7 +11038,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11075,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131047019</v>
+        <v>131033332</v>
       </c>
       <c r="B98" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11086,39 +11076,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395446</v>
+        <v>395641</v>
       </c>
       <c r="R98" t="n">
-        <v>6804531</v>
+        <v>6804509</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11145,34 +11130,29 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD98" t="b">
         <v>0</v>
       </c>
       <c r="AE98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG98" t="b">
         <v>0</v>
@@ -11192,10 +11172,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046895</v>
+        <v>131046887</v>
       </c>
       <c r="B99" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11227,10 +11207,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395436</v>
+        <v>395449</v>
       </c>
       <c r="R99" t="n">
-        <v>6804436</v>
+        <v>6804334</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11262,7 +11242,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11272,7 +11252,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11299,10 +11279,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131033362</v>
+        <v>131046780</v>
       </c>
       <c r="B100" t="n">
-        <v>78905</v>
+        <v>57884</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11310,34 +11290,39 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>353</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395883</v>
+        <v>395470</v>
       </c>
       <c r="R100" t="n">
-        <v>6804433</v>
+        <v>6804530</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11364,22 +11349,27 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11406,10 +11396,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131033332</v>
+        <v>131047019</v>
       </c>
       <c r="B101" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11417,34 +11407,39 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395641</v>
+        <v>395446</v>
       </c>
       <c r="R101" t="n">
-        <v>6804509</v>
+        <v>6804531</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,29 +11466,34 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131033349</v>
+        <v>131046890</v>
       </c>
       <c r="B102" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11548,10 +11548,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395757</v>
+        <v>395440</v>
       </c>
       <c r="R102" t="n">
-        <v>6804291</v>
+        <v>6804390</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11578,22 +11578,22 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11620,10 +11620,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046890</v>
+        <v>131046952</v>
       </c>
       <c r="B103" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11655,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395440</v>
+        <v>395461</v>
       </c>
       <c r="R103" t="n">
-        <v>6804390</v>
+        <v>6804521</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11730,7 +11730,7 @@
         <v>131046951</v>
       </c>
       <c r="B104" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>131046876</v>
       </c>
       <c r="B105" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11941,10 +11941,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046952</v>
+        <v>131033349</v>
       </c>
       <c r="B106" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11976,10 +11976,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395461</v>
+        <v>395757</v>
       </c>
       <c r="R106" t="n">
-        <v>6804521</v>
+        <v>6804291</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12006,22 +12006,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12048,10 +12048,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046796</v>
+        <v>131047017</v>
       </c>
       <c r="B107" t="n">
-        <v>78997</v>
+        <v>57884</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12059,34 +12059,39 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395443</v>
+        <v>395448</v>
       </c>
       <c r="R107" t="n">
-        <v>6804347</v>
+        <v>6804508</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12118,7 +12123,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12128,14 +12133,19 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD107" t="b">
         <v>0</v>
       </c>
       <c r="AE107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG107" t="b">
         <v>0</v>
@@ -12155,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131047017</v>
+        <v>131046796</v>
       </c>
       <c r="B108" t="n">
-        <v>57880</v>
+        <v>79001</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12166,39 +12176,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395448</v>
+        <v>395443</v>
       </c>
       <c r="R108" t="n">
-        <v>6804508</v>
+        <v>6804347</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12230,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12240,19 +12245,14 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD108" t="b">
         <v>0</v>
       </c>
       <c r="AE108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG108" t="b">
         <v>0</v>
@@ -12275,7 +12275,7 @@
         <v>131046903</v>
       </c>
       <c r="B109" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>131046957</v>
       </c>
       <c r="B110" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>131033341</v>
       </c>
       <c r="B111" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -3291,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033324</v>
+        <v>131033294</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,34 +3302,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395676</v>
+        <v>395714</v>
       </c>
       <c r="R26" t="n">
-        <v>6804490</v>
+        <v>6804552</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3361,7 +3366,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3371,7 +3376,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3398,7 +3408,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033344</v>
+        <v>131033324</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3433,10 +3443,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395753</v>
+        <v>395676</v>
       </c>
       <c r="R27" t="n">
-        <v>6804482</v>
+        <v>6804490</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3468,7 +3478,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3478,7 +3488,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3505,10 +3515,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033294</v>
+        <v>131033344</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3516,39 +3526,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395714</v>
+        <v>395753</v>
       </c>
       <c r="R28" t="n">
-        <v>6804552</v>
+        <v>6804482</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3580,7 +3585,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3590,12 +3595,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -7708,10 +7708,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131046789</v>
+        <v>131046996</v>
       </c>
       <c r="B67" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7719,39 +7719,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395495</v>
+        <v>395485</v>
       </c>
       <c r="R67" t="n">
-        <v>6804385</v>
+        <v>6804506</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -7793,12 +7788,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7825,10 +7815,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046996</v>
+        <v>131046789</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7836,34 +7826,39 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395485</v>
+        <v>395495</v>
       </c>
       <c r="R68" t="n">
-        <v>6804506</v>
+        <v>6804385</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7895,7 +7890,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7905,7 +7900,12 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD68" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046803</v>
+        <v>131046790</v>
       </c>
       <c r="B2" t="n">
-        <v>79000</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395450</v>
+        <v>395416</v>
       </c>
       <c r="R2" t="n">
-        <v>6804390</v>
+        <v>6804491</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +765,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046875</v>
+        <v>131046747</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,34 +808,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395444</v>
+        <v>395480</v>
       </c>
       <c r="R3" t="n">
-        <v>6804461</v>
+        <v>6804496</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +872,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +882,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046947</v>
+        <v>131046875</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395461</v>
+        <v>395444</v>
       </c>
       <c r="R4" t="n">
-        <v>6804551</v>
+        <v>6804461</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046896</v>
+        <v>131046947</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1051,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395423</v>
+        <v>395461</v>
       </c>
       <c r="R5" t="n">
-        <v>6804458</v>
+        <v>6804551</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1086,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1096,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1123,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046995</v>
+        <v>131046896</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1158,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395491</v>
+        <v>395423</v>
       </c>
       <c r="R6" t="n">
-        <v>6804522</v>
+        <v>6804458</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1193,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1203,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1429,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046747</v>
+        <v>131046995</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,39 +1455,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395480</v>
+        <v>395491</v>
       </c>
       <c r="R9" t="n">
-        <v>6804496</v>
+        <v>6804522</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046790</v>
+        <v>131046803</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,39 +1562,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395416</v>
+        <v>395450</v>
       </c>
       <c r="R10" t="n">
-        <v>6804491</v>
+        <v>6804390</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1616,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1626,12 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046884</v>
+        <v>131046749</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,34 +1669,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395489</v>
+        <v>395449</v>
       </c>
       <c r="R11" t="n">
-        <v>6804292</v>
+        <v>6804395</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1743,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1979,7 +1984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046858</v>
+        <v>131046884</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2014,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395570</v>
+        <v>395489</v>
       </c>
       <c r="R14" t="n">
-        <v>6804341</v>
+        <v>6804292</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,7 +2054,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2059,7 +2064,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2086,10 +2091,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046749</v>
+        <v>131046858</v>
       </c>
       <c r="B15" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2097,39 +2102,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395449</v>
+        <v>395570</v>
       </c>
       <c r="R15" t="n">
-        <v>6804395</v>
+        <v>6804341</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046901</v>
+        <v>131033331</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395395</v>
+        <v>395707</v>
       </c>
       <c r="R17" t="n">
-        <v>6804547</v>
+        <v>6804307</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131033348</v>
+        <v>131046901</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395756</v>
+        <v>395395</v>
       </c>
       <c r="R18" t="n">
-        <v>6804343</v>
+        <v>6804547</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2477,22 +2477,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033331</v>
+        <v>131046955</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395707</v>
+        <v>395432</v>
       </c>
       <c r="R19" t="n">
-        <v>6804307</v>
+        <v>6804533</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,22 +2584,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,7 +2626,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046955</v>
+        <v>131046878</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395432</v>
+        <v>395478</v>
       </c>
       <c r="R20" t="n">
-        <v>6804533</v>
+        <v>6804426</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046878</v>
+        <v>131046868</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395478</v>
+        <v>395462</v>
       </c>
       <c r="R21" t="n">
-        <v>6804426</v>
+        <v>6804496</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,7 +2840,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046868</v>
+        <v>131033348</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395462</v>
+        <v>395756</v>
       </c>
       <c r="R22" t="n">
-        <v>6804496</v>
+        <v>6804343</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046894</v>
+        <v>131033294</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,34 +3195,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395429</v>
+        <v>395714</v>
       </c>
       <c r="R25" t="n">
-        <v>6804421</v>
+        <v>6804552</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,22 +3254,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3301,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033294</v>
+        <v>131033302</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,39 +3312,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395714</v>
+        <v>395679</v>
       </c>
       <c r="R26" t="n">
-        <v>6804552</v>
+        <v>6804524</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3366,7 +3371,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3376,12 +3381,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3515,7 +3515,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033344</v>
+        <v>131046894</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395753</v>
+        <v>395429</v>
       </c>
       <c r="R28" t="n">
-        <v>6804482</v>
+        <v>6804421</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3580,22 +3580,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3622,10 +3622,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131033302</v>
+        <v>131033344</v>
       </c>
       <c r="B29" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3633,21 +3633,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395679</v>
+        <v>395753</v>
       </c>
       <c r="R29" t="n">
-        <v>6804524</v>
+        <v>6804482</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3729,50 +3729,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131047035</v>
+        <v>131046885</v>
       </c>
       <c r="B30" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395505</v>
+        <v>395486</v>
       </c>
       <c r="R30" t="n">
-        <v>6804295</v>
+        <v>6804289</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3804,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3814,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3841,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046885</v>
+        <v>131046998</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3876,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395486</v>
+        <v>395494</v>
       </c>
       <c r="R31" t="n">
-        <v>6804289</v>
+        <v>6804551</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3911,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3921,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4269,7 +4264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046998</v>
+        <v>131046994</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4304,10 +4299,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395494</v>
+        <v>395484</v>
       </c>
       <c r="R35" t="n">
-        <v>6804551</v>
+        <v>6804534</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4339,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4349,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4376,45 +4371,50 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046994</v>
+        <v>131047035</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395484</v>
+        <v>395505</v>
       </c>
       <c r="R36" t="n">
-        <v>6804534</v>
+        <v>6804295</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4911,10 +4911,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131033346</v>
+        <v>131046748</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4922,34 +4922,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395744</v>
+        <v>395453</v>
       </c>
       <c r="R41" t="n">
-        <v>6804417</v>
+        <v>6804322</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4976,22 +4981,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5339,7 +5344,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046859</v>
+        <v>131033346</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5374,10 +5379,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395566</v>
+        <v>395744</v>
       </c>
       <c r="R45" t="n">
-        <v>6804349</v>
+        <v>6804417</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5404,22 +5409,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5446,10 +5451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046748</v>
+        <v>131046859</v>
       </c>
       <c r="B46" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5457,39 +5462,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395453</v>
+        <v>395566</v>
       </c>
       <c r="R46" t="n">
-        <v>6804322</v>
+        <v>6804349</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5675,10 +5675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046712</v>
+        <v>131033323</v>
       </c>
       <c r="B48" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5686,21 +5686,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395468</v>
+        <v>395680</v>
       </c>
       <c r="R48" t="n">
-        <v>6804494</v>
+        <v>6804541</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5740,22 +5740,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046954</v>
+        <v>131046712</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5793,21 +5793,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395446</v>
+        <v>395468</v>
       </c>
       <c r="R49" t="n">
-        <v>6804531</v>
+        <v>6804494</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046997</v>
+        <v>131046954</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395518</v>
+        <v>395446</v>
       </c>
       <c r="R50" t="n">
-        <v>6804527</v>
+        <v>6804531</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046861</v>
+        <v>131046997</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395564</v>
+        <v>395518</v>
       </c>
       <c r="R51" t="n">
-        <v>6804373</v>
+        <v>6804527</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131033323</v>
+        <v>131046861</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395680</v>
+        <v>395564</v>
       </c>
       <c r="R52" t="n">
-        <v>6804541</v>
+        <v>6804373</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6168,22 +6168,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6852,10 +6852,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046879</v>
+        <v>131046713</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6863,21 +6863,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395482</v>
+        <v>395454</v>
       </c>
       <c r="R59" t="n">
-        <v>6804421</v>
+        <v>6804501</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,10 +6959,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046713</v>
+        <v>131046879</v>
       </c>
       <c r="B60" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395454</v>
+        <v>395482</v>
       </c>
       <c r="R60" t="n">
-        <v>6804501</v>
+        <v>6804421</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033321</v>
+        <v>131046789</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7291,34 +7291,39 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395718</v>
+        <v>395495</v>
       </c>
       <c r="R63" t="n">
-        <v>6804573</v>
+        <v>6804385</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7345,22 +7350,27 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,7 +7397,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046882</v>
+        <v>131033321</v>
       </c>
       <c r="B64" t="n">
         <v>79243</v>
@@ -7422,10 +7432,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395493</v>
+        <v>395718</v>
       </c>
       <c r="R64" t="n">
-        <v>6804376</v>
+        <v>6804573</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7452,22 +7462,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7494,7 +7504,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033327</v>
+        <v>131046882</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -7529,10 +7539,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395671</v>
+        <v>395493</v>
       </c>
       <c r="R65" t="n">
-        <v>6804435</v>
+        <v>6804376</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7559,22 +7569,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,7 +7611,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131033326</v>
+        <v>131033327</v>
       </c>
       <c r="B66" t="n">
         <v>79243</v>
@@ -7636,10 +7646,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395665</v>
+        <v>395671</v>
       </c>
       <c r="R66" t="n">
-        <v>6804439</v>
+        <v>6804435</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7671,7 +7681,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7681,7 +7691,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,7 +7718,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131046996</v>
+        <v>131033326</v>
       </c>
       <c r="B67" t="n">
         <v>79243</v>
@@ -7743,10 +7753,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395485</v>
+        <v>395665</v>
       </c>
       <c r="R67" t="n">
-        <v>6804506</v>
+        <v>6804439</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7773,22 +7783,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7815,10 +7825,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046789</v>
+        <v>131046996</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7826,39 +7836,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395495</v>
+        <v>395485</v>
       </c>
       <c r="R68" t="n">
-        <v>6804385</v>
+        <v>6804506</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7890,7 +7895,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7900,12 +7905,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7932,32 +7932,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046993</v>
+        <v>131033299</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>79267</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395472</v>
+        <v>395890</v>
       </c>
       <c r="R69" t="n">
-        <v>6804550</v>
+        <v>6804464</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,10 +8039,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033353</v>
+        <v>131033295</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8050,34 +8050,39 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395859</v>
+        <v>395744</v>
       </c>
       <c r="R70" t="n">
-        <v>6804312</v>
+        <v>6804575</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8109,7 +8114,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8119,7 +8124,12 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8253,32 +8263,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131033299</v>
+        <v>131046993</v>
       </c>
       <c r="B72" t="n">
-        <v>79267</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8288,10 +8298,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395890</v>
+        <v>395472</v>
       </c>
       <c r="R72" t="n">
-        <v>6804464</v>
+        <v>6804550</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8318,22 +8328,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8360,7 +8370,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046856</v>
+        <v>131033353</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8395,10 +8405,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395564</v>
+        <v>395859</v>
       </c>
       <c r="R73" t="n">
-        <v>6804311</v>
+        <v>6804312</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8425,22 +8435,22 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8467,10 +8477,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131033295</v>
+        <v>131046856</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8478,39 +8488,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395744</v>
+        <v>395564</v>
       </c>
       <c r="R74" t="n">
-        <v>6804575</v>
+        <v>6804311</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8537,27 +8542,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,10 +8584,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046865</v>
+        <v>131033303</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8595,21 +8595,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395546</v>
+        <v>395706</v>
       </c>
       <c r="R75" t="n">
-        <v>6804405</v>
+        <v>6804535</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8649,22 +8649,22 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046886</v>
+        <v>131046865</v>
       </c>
       <c r="B76" t="n">
         <v>79243</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395447</v>
+        <v>395546</v>
       </c>
       <c r="R76" t="n">
-        <v>6804315</v>
+        <v>6804405</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046862</v>
+        <v>131046886</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395554</v>
+        <v>395447</v>
       </c>
       <c r="R77" t="n">
-        <v>6804375</v>
+        <v>6804315</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8905,10 +8905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131033303</v>
+        <v>131046862</v>
       </c>
       <c r="B78" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8916,21 +8916,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395706</v>
+        <v>395554</v>
       </c>
       <c r="R78" t="n">
-        <v>6804535</v>
+        <v>6804375</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8970,22 +8970,22 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9012,7 +9012,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131033330</v>
+        <v>131046854</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395702</v>
+        <v>395579</v>
       </c>
       <c r="R79" t="n">
-        <v>6804325</v>
+        <v>6804294</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9077,22 +9077,22 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9119,7 +9119,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131033322</v>
+        <v>131033330</v>
       </c>
       <c r="B80" t="n">
         <v>79243</v>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395692</v>
+        <v>395702</v>
       </c>
       <c r="R80" t="n">
-        <v>6804550</v>
+        <v>6804325</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046889</v>
+        <v>131033322</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395429</v>
+        <v>395692</v>
       </c>
       <c r="R81" t="n">
-        <v>6804384</v>
+        <v>6804550</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9333,7 +9333,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046854</v>
+        <v>131046883</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395579</v>
+        <v>395494</v>
       </c>
       <c r="R82" t="n">
-        <v>6804294</v>
+        <v>6804367</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9440,7 +9440,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046883</v>
+        <v>131046889</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395494</v>
+        <v>395429</v>
       </c>
       <c r="R83" t="n">
-        <v>6804367</v>
+        <v>6804384</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131033362</v>
+        <v>131047019</v>
       </c>
       <c r="B96" t="n">
-        <v>78909</v>
+        <v>57884</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,34 +10862,39 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>353</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395883</v>
+        <v>395446</v>
       </c>
       <c r="R96" t="n">
-        <v>6804433</v>
+        <v>6804531</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10916,29 +10921,34 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD96" t="b">
         <v>0</v>
       </c>
       <c r="AE96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG96" t="b">
         <v>0</v>
@@ -10958,10 +10968,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046895</v>
+        <v>131033362</v>
       </c>
       <c r="B97" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10969,21 +10979,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10993,10 +11003,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395436</v>
+        <v>395883</v>
       </c>
       <c r="R97" t="n">
-        <v>6804436</v>
+        <v>6804433</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11023,22 +11033,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11065,7 +11075,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131033332</v>
+        <v>131046895</v>
       </c>
       <c r="B98" t="n">
         <v>79243</v>
@@ -11100,10 +11110,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395641</v>
+        <v>395436</v>
       </c>
       <c r="R98" t="n">
-        <v>6804509</v>
+        <v>6804436</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11130,22 +11140,22 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,7 +11182,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046887</v>
+        <v>131033332</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11207,10 +11217,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395449</v>
+        <v>395641</v>
       </c>
       <c r="R99" t="n">
-        <v>6804334</v>
+        <v>6804509</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11237,22 +11247,22 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11279,10 +11289,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046780</v>
+        <v>131046887</v>
       </c>
       <c r="B100" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11290,39 +11300,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395470</v>
+        <v>395449</v>
       </c>
       <c r="R100" t="n">
-        <v>6804530</v>
+        <v>6804334</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11354,7 +11359,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11364,12 +11369,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11396,7 +11396,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131047019</v>
+        <v>131046780</v>
       </c>
       <c r="B101" t="n">
         <v>57884</v>
@@ -11427,7 +11427,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -11436,10 +11436,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395446</v>
+        <v>395470</v>
       </c>
       <c r="R101" t="n">
-        <v>6804531</v>
+        <v>6804530</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11481,19 +11481,19 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046890</v>
+        <v>131047017</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,34 +11524,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395440</v>
+        <v>395448</v>
       </c>
       <c r="R102" t="n">
-        <v>6804390</v>
+        <v>6804508</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11593,14 +11598,19 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11620,10 +11630,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046952</v>
+        <v>131046796</v>
       </c>
       <c r="B103" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11631,21 +11641,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11655,10 +11665,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395461</v>
+        <v>395443</v>
       </c>
       <c r="R103" t="n">
-        <v>6804521</v>
+        <v>6804347</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11700,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11710,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11727,7 +11737,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131046951</v>
+        <v>131046952</v>
       </c>
       <c r="B104" t="n">
         <v>79243</v>
@@ -11762,10 +11772,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395463</v>
+        <v>395461</v>
       </c>
       <c r="R104" t="n">
-        <v>6804524</v>
+        <v>6804521</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11834,7 +11844,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131046876</v>
+        <v>131046951</v>
       </c>
       <c r="B105" t="n">
         <v>79243</v>
@@ -11869,10 +11879,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395457</v>
+        <v>395463</v>
       </c>
       <c r="R105" t="n">
-        <v>6804453</v>
+        <v>6804524</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11904,7 +11914,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -11914,7 +11924,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11941,7 +11951,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131033349</v>
+        <v>131046876</v>
       </c>
       <c r="B106" t="n">
         <v>79243</v>
@@ -11976,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395757</v>
+        <v>395457</v>
       </c>
       <c r="R106" t="n">
-        <v>6804291</v>
+        <v>6804453</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12006,22 +12016,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12048,10 +12058,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131047017</v>
+        <v>131033349</v>
       </c>
       <c r="B107" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12059,39 +12069,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395448</v>
+        <v>395757</v>
       </c>
       <c r="R107" t="n">
-        <v>6804508</v>
+        <v>6804291</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12118,34 +12123,29 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC107" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD107" t="b">
         <v>0</v>
       </c>
       <c r="AE107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG107" t="b">
         <v>0</v>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B108" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R108" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12272,7 +12272,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131046903</v>
+        <v>131033341</v>
       </c>
       <c r="B109" t="n">
         <v>79243</v>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395384</v>
+        <v>395797</v>
       </c>
       <c r="R109" t="n">
-        <v>6804564</v>
+        <v>6804591</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12337,22 +12337,22 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046957</v>
+        <v>131046903</v>
       </c>
       <c r="B110" t="n">
         <v>79243</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395414</v>
+        <v>395384</v>
       </c>
       <c r="R110" t="n">
-        <v>6804565</v>
+        <v>6804564</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131033341</v>
+        <v>131046957</v>
       </c>
       <c r="B111" t="n">
         <v>79243</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395797</v>
+        <v>395414</v>
       </c>
       <c r="R111" t="n">
-        <v>6804591</v>
+        <v>6804565</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12551,22 +12551,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046790</v>
+        <v>131046803</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>79000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395416</v>
+        <v>395450</v>
       </c>
       <c r="R2" t="n">
-        <v>6804491</v>
+        <v>6804390</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,12 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046747</v>
+        <v>131046875</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,39 +798,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395480</v>
+        <v>395444</v>
       </c>
       <c r="R3" t="n">
-        <v>6804496</v>
+        <v>6804461</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -882,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046875</v>
+        <v>131046947</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -944,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395444</v>
+        <v>395461</v>
       </c>
       <c r="R4" t="n">
-        <v>6804461</v>
+        <v>6804551</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -979,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046947</v>
+        <v>131046896</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1051,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395461</v>
+        <v>395423</v>
       </c>
       <c r="R5" t="n">
-        <v>6804551</v>
+        <v>6804458</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1096,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1123,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046896</v>
+        <v>131046872</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1158,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395423</v>
+        <v>395434</v>
       </c>
       <c r="R6" t="n">
-        <v>6804458</v>
+        <v>6804484</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1203,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1230,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046872</v>
+        <v>131046873</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1265,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395434</v>
+        <v>395430</v>
       </c>
       <c r="R7" t="n">
-        <v>6804484</v>
+        <v>6804474</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1337,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046873</v>
+        <v>131046995</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1372,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395430</v>
+        <v>395491</v>
       </c>
       <c r="R8" t="n">
-        <v>6804474</v>
+        <v>6804522</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046995</v>
+        <v>131046747</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,34 +1440,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395491</v>
+        <v>395480</v>
       </c>
       <c r="R9" t="n">
-        <v>6804522</v>
+        <v>6804496</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046803</v>
+        <v>131046790</v>
       </c>
       <c r="B10" t="n">
-        <v>79000</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,34 +1552,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395450</v>
+        <v>395416</v>
       </c>
       <c r="R10" t="n">
-        <v>6804390</v>
+        <v>6804491</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1616,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1626,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,50 +1658,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046749</v>
+        <v>131046807</v>
       </c>
       <c r="B11" t="n">
-        <v>57881</v>
+        <v>83206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>6439</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395449</v>
+        <v>395510</v>
       </c>
       <c r="R11" t="n">
-        <v>6804395</v>
+        <v>6804530</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,45 +1765,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046807</v>
+        <v>131046749</v>
       </c>
       <c r="B12" t="n">
-        <v>83206</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6439</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395510</v>
+        <v>395449</v>
       </c>
       <c r="R12" t="n">
-        <v>6804530</v>
+        <v>6804395</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -5023,10 +5023,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131033334</v>
+        <v>131033288</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5034,34 +5034,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395718</v>
+        <v>395651</v>
       </c>
       <c r="R42" t="n">
-        <v>6804558</v>
+        <v>6804457</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5093,7 +5098,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5103,7 +5108,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5130,7 +5140,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046881</v>
+        <v>131033334</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5165,10 +5175,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395494</v>
+        <v>395718</v>
       </c>
       <c r="R43" t="n">
-        <v>6804395</v>
+        <v>6804558</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5195,22 +5205,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5237,7 +5247,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046999</v>
+        <v>131046881</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5272,10 +5282,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395485</v>
+        <v>395494</v>
       </c>
       <c r="R44" t="n">
-        <v>6804561</v>
+        <v>6804395</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5307,7 +5317,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5317,7 +5327,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5344,7 +5354,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131033346</v>
+        <v>131046999</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5379,10 +5389,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395744</v>
+        <v>395485</v>
       </c>
       <c r="R45" t="n">
-        <v>6804417</v>
+        <v>6804561</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5409,22 +5419,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5451,7 +5461,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046859</v>
+        <v>131033346</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5486,10 +5496,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395566</v>
+        <v>395744</v>
       </c>
       <c r="R46" t="n">
-        <v>6804349</v>
+        <v>6804417</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5516,22 +5526,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5558,10 +5568,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131033288</v>
+        <v>131046859</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5569,39 +5579,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395651</v>
+        <v>395566</v>
       </c>
       <c r="R47" t="n">
-        <v>6804457</v>
+        <v>6804349</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5628,27 +5633,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046789</v>
+        <v>131033321</v>
       </c>
       <c r="B63" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7291,39 +7291,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395495</v>
+        <v>395718</v>
       </c>
       <c r="R63" t="n">
-        <v>6804385</v>
+        <v>6804573</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7350,27 +7345,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7397,7 +7387,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131033321</v>
+        <v>131046882</v>
       </c>
       <c r="B64" t="n">
         <v>79243</v>
@@ -7432,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395718</v>
+        <v>395493</v>
       </c>
       <c r="R64" t="n">
-        <v>6804573</v>
+        <v>6804376</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7462,22 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7504,7 +7494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046882</v>
+        <v>131033327</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -7539,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395493</v>
+        <v>395671</v>
       </c>
       <c r="R65" t="n">
-        <v>6804376</v>
+        <v>6804435</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7569,22 +7559,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7611,7 +7601,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131033327</v>
+        <v>131033326</v>
       </c>
       <c r="B66" t="n">
         <v>79243</v>
@@ -7646,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395671</v>
+        <v>395665</v>
       </c>
       <c r="R66" t="n">
-        <v>6804435</v>
+        <v>6804439</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7681,7 +7671,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7691,7 +7681,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7718,7 +7708,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131033326</v>
+        <v>131046996</v>
       </c>
       <c r="B67" t="n">
         <v>79243</v>
@@ -7753,10 +7743,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395665</v>
+        <v>395485</v>
       </c>
       <c r="R67" t="n">
-        <v>6804439</v>
+        <v>6804506</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7783,22 +7773,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7825,10 +7815,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046996</v>
+        <v>131046789</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7836,34 +7826,39 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395485</v>
+        <v>395495</v>
       </c>
       <c r="R68" t="n">
-        <v>6804506</v>
+        <v>6804385</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7895,7 +7890,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7905,7 +7900,12 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131047017</v>
+        <v>131046796</v>
       </c>
       <c r="B102" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,39 +11524,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395448</v>
+        <v>395443</v>
       </c>
       <c r="R102" t="n">
-        <v>6804508</v>
+        <v>6804347</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11588,7 +11583,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11598,19 +11593,14 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11630,10 +11620,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B103" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11641,21 +11631,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11665,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R103" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11700,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11710,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11737,10 +11727,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B104" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11748,34 +11738,39 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R104" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11807,7 +11802,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11817,14 +11812,19 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD104" t="b">
         <v>0</v>
       </c>
       <c r="AE104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG104" t="b">
         <v>0</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131046951</v>
+        <v>131046952</v>
       </c>
       <c r="B105" t="n">
         <v>79243</v>
@@ -11879,10 +11879,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395463</v>
+        <v>395461</v>
       </c>
       <c r="R105" t="n">
-        <v>6804524</v>
+        <v>6804521</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11951,7 +11951,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046876</v>
+        <v>131046951</v>
       </c>
       <c r="B106" t="n">
         <v>79243</v>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395457</v>
+        <v>395463</v>
       </c>
       <c r="R106" t="n">
-        <v>6804453</v>
+        <v>6804524</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12058,7 +12058,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131033349</v>
+        <v>131046876</v>
       </c>
       <c r="B107" t="n">
         <v>79243</v>
@@ -12093,10 +12093,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395757</v>
+        <v>395457</v>
       </c>
       <c r="R107" t="n">
-        <v>6804291</v>
+        <v>6804453</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12123,22 +12123,22 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12165,7 +12165,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046890</v>
+        <v>131033349</v>
       </c>
       <c r="B108" t="n">
         <v>79243</v>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395440</v>
+        <v>395757</v>
       </c>
       <c r="R108" t="n">
-        <v>6804390</v>
+        <v>6804291</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12230,22 +12230,22 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12272,7 +12272,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131033341</v>
+        <v>131046903</v>
       </c>
       <c r="B109" t="n">
         <v>79243</v>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395797</v>
+        <v>395384</v>
       </c>
       <c r="R109" t="n">
-        <v>6804591</v>
+        <v>6804564</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12337,22 +12337,22 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046903</v>
+        <v>131046957</v>
       </c>
       <c r="B110" t="n">
         <v>79243</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395384</v>
+        <v>395414</v>
       </c>
       <c r="R110" t="n">
-        <v>6804564</v>
+        <v>6804565</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131046957</v>
+        <v>131033341</v>
       </c>
       <c r="B111" t="n">
         <v>79243</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395414</v>
+        <v>395797</v>
       </c>
       <c r="R111" t="n">
-        <v>6804565</v>
+        <v>6804591</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12551,22 +12551,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046803</v>
+        <v>131046875</v>
       </c>
       <c r="B2" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395450</v>
+        <v>395444</v>
       </c>
       <c r="R2" t="n">
-        <v>6804390</v>
+        <v>6804461</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046875</v>
+        <v>131046872</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395444</v>
+        <v>395434</v>
       </c>
       <c r="R3" t="n">
-        <v>6804461</v>
+        <v>6804484</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046947</v>
+        <v>131046747</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,34 +905,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395461</v>
+        <v>395480</v>
       </c>
       <c r="R4" t="n">
-        <v>6804551</v>
+        <v>6804496</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1108,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046872</v>
+        <v>131046803</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1119,21 +1124,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1143,10 +1148,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395434</v>
+        <v>395450</v>
       </c>
       <c r="R6" t="n">
-        <v>6804484</v>
+        <v>6804390</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1183,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1193,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1429,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046747</v>
+        <v>131046947</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,39 +1445,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395480</v>
+        <v>395461</v>
       </c>
       <c r="R9" t="n">
-        <v>6804496</v>
+        <v>6804551</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1658,45 +1658,50 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046807</v>
+        <v>131046749</v>
       </c>
       <c r="B11" t="n">
-        <v>83206</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6439</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395510</v>
+        <v>395449</v>
       </c>
       <c r="R11" t="n">
-        <v>6804530</v>
+        <v>6804395</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1743,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,10 +1770,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046749</v>
+        <v>131046884</v>
       </c>
       <c r="B12" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1776,39 +1781,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395449</v>
+        <v>395489</v>
       </c>
       <c r="R12" t="n">
-        <v>6804395</v>
+        <v>6804292</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033342</v>
+        <v>131046858</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395753</v>
+        <v>395570</v>
       </c>
       <c r="R13" t="n">
-        <v>6804557</v>
+        <v>6804341</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,22 +1942,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046884</v>
+        <v>131033342</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395489</v>
+        <v>395753</v>
       </c>
       <c r="R14" t="n">
-        <v>6804292</v>
+        <v>6804557</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,32 +2091,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046858</v>
+        <v>131046807</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>83206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2126,10 +2126,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395570</v>
+        <v>395510</v>
       </c>
       <c r="R15" t="n">
-        <v>6804341</v>
+        <v>6804530</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033283</v>
+        <v>131033331</v>
       </c>
       <c r="B16" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395745</v>
+        <v>395707</v>
       </c>
       <c r="R16" t="n">
-        <v>6804404</v>
+        <v>6804307</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,10 +2305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033331</v>
+        <v>131046777</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2316,34 +2316,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395707</v>
+        <v>395435</v>
       </c>
       <c r="R17" t="n">
-        <v>6804307</v>
+        <v>6804481</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2370,22 +2375,27 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,10 +2422,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046901</v>
+        <v>131047009</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2423,34 +2433,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395395</v>
+        <v>395494</v>
       </c>
       <c r="R18" t="n">
-        <v>6804547</v>
+        <v>6804551</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2500,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2510,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2542,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046955</v>
+        <v>131046878</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2554,10 +2577,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395432</v>
+        <v>395478</v>
       </c>
       <c r="R19" t="n">
-        <v>6804533</v>
+        <v>6804426</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2612,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2622,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,7 +2649,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046878</v>
+        <v>131046868</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2661,10 +2684,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395478</v>
+        <v>395462</v>
       </c>
       <c r="R20" t="n">
-        <v>6804426</v>
+        <v>6804496</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2696,7 +2719,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2706,7 +2729,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,10 +2756,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046868</v>
+        <v>131033283</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2744,21 +2767,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2768,10 +2791,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395462</v>
+        <v>395745</v>
       </c>
       <c r="R21" t="n">
-        <v>6804496</v>
+        <v>6804404</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,22 +2821,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2947,10 +2970,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046777</v>
+        <v>131046901</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2958,39 +2981,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395435</v>
+        <v>395395</v>
       </c>
       <c r="R23" t="n">
-        <v>6804481</v>
+        <v>6804547</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3022,7 +3040,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3032,12 +3050,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3064,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131047009</v>
+        <v>131046955</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,42 +3088,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395494</v>
+        <v>395432</v>
       </c>
       <c r="R24" t="n">
-        <v>6804551</v>
+        <v>6804533</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3147,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,12 +3157,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033294</v>
+        <v>131033344</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,39 +3195,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395714</v>
+        <v>395753</v>
       </c>
       <c r="R25" t="n">
-        <v>6804552</v>
+        <v>6804482</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3259,7 +3254,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3269,12 +3264,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3301,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033302</v>
+        <v>131033324</v>
       </c>
       <c r="B26" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3312,21 +3302,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3336,10 +3326,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395679</v>
+        <v>395676</v>
       </c>
       <c r="R26" t="n">
-        <v>6804524</v>
+        <v>6804490</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3371,7 +3361,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3381,7 +3371,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3408,7 +3398,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033324</v>
+        <v>131046894</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3443,10 +3433,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395676</v>
+        <v>395429</v>
       </c>
       <c r="R27" t="n">
-        <v>6804490</v>
+        <v>6804421</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3473,22 +3463,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3515,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046894</v>
+        <v>131033302</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3526,21 +3516,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3550,10 +3540,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395429</v>
+        <v>395679</v>
       </c>
       <c r="R28" t="n">
-        <v>6804421</v>
+        <v>6804524</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3580,22 +3570,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3622,10 +3612,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131033344</v>
+        <v>131033294</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3633,34 +3623,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395753</v>
+        <v>395714</v>
       </c>
       <c r="R29" t="n">
-        <v>6804482</v>
+        <v>6804552</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3692,7 +3687,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3702,7 +3697,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046885</v>
+        <v>131046956</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395486</v>
+        <v>395418</v>
       </c>
       <c r="R30" t="n">
-        <v>6804289</v>
+        <v>6804552</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046998</v>
+        <v>131046885</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395494</v>
+        <v>395486</v>
       </c>
       <c r="R31" t="n">
-        <v>6804551</v>
+        <v>6804289</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,45 +3943,50 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046956</v>
+        <v>131047035</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395418</v>
+        <v>395505</v>
       </c>
       <c r="R32" t="n">
-        <v>6804552</v>
+        <v>6804295</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4018,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4028,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4264,7 +4269,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046994</v>
+        <v>131046998</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4299,10 +4304,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395484</v>
+        <v>395494</v>
       </c>
       <c r="R35" t="n">
-        <v>6804534</v>
+        <v>6804551</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,7 +4339,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4344,7 +4349,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4371,50 +4376,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131047035</v>
+        <v>131046994</v>
       </c>
       <c r="B36" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395505</v>
+        <v>395484</v>
       </c>
       <c r="R36" t="n">
-        <v>6804295</v>
+        <v>6804534</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046805</v>
+        <v>131046881</v>
       </c>
       <c r="B40" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,21 +4815,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395461</v>
+        <v>395494</v>
       </c>
       <c r="R40" t="n">
-        <v>6804539</v>
+        <v>6804395</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4911,10 +4911,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046748</v>
+        <v>131046999</v>
       </c>
       <c r="B41" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4922,39 +4922,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395453</v>
+        <v>395485</v>
       </c>
       <c r="R41" t="n">
-        <v>6804322</v>
+        <v>6804561</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4986,7 +4981,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4996,7 +4991,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5023,10 +5018,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131033288</v>
+        <v>131046748</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5034,16 +5029,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5063,10 +5058,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395651</v>
+        <v>395453</v>
       </c>
       <c r="R42" t="n">
-        <v>6804457</v>
+        <v>6804322</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5093,27 +5088,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5247,7 +5237,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046881</v>
+        <v>131046859</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5282,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395494</v>
+        <v>395566</v>
       </c>
       <c r="R44" t="n">
-        <v>6804395</v>
+        <v>6804349</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5317,7 +5307,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5327,7 +5317,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5354,10 +5344,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046999</v>
+        <v>131033288</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5365,34 +5355,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395485</v>
+        <v>395651</v>
       </c>
       <c r="R45" t="n">
-        <v>6804561</v>
+        <v>6804457</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5419,22 +5414,27 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5461,10 +5461,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131033346</v>
+        <v>131046805</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5472,21 +5472,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5496,10 +5496,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395744</v>
+        <v>395461</v>
       </c>
       <c r="R46" t="n">
-        <v>6804417</v>
+        <v>6804539</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5526,22 +5526,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5568,7 +5568,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046859</v>
+        <v>131033346</v>
       </c>
       <c r="B47" t="n">
         <v>79243</v>
@@ -5603,10 +5603,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395566</v>
+        <v>395744</v>
       </c>
       <c r="R47" t="n">
-        <v>6804349</v>
+        <v>6804417</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131033323</v>
+        <v>131046949</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395680</v>
+        <v>395463</v>
       </c>
       <c r="R48" t="n">
-        <v>6804541</v>
+        <v>6804534</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5740,22 +5740,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046712</v>
+        <v>131046948</v>
       </c>
       <c r="B49" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5793,21 +5793,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395468</v>
+        <v>395462</v>
       </c>
       <c r="R49" t="n">
-        <v>6804494</v>
+        <v>6804542</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046954</v>
+        <v>131046866</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395446</v>
+        <v>395542</v>
       </c>
       <c r="R50" t="n">
-        <v>6804531</v>
+        <v>6804432</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046997</v>
+        <v>131033352</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395518</v>
+        <v>395857</v>
       </c>
       <c r="R51" t="n">
-        <v>6804527</v>
+        <v>6804292</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046861</v>
+        <v>131046880</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395564</v>
+        <v>395491</v>
       </c>
       <c r="R52" t="n">
-        <v>6804373</v>
+        <v>6804393</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,7 +6210,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131033352</v>
+        <v>131046997</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395857</v>
+        <v>395518</v>
       </c>
       <c r="R53" t="n">
-        <v>6804292</v>
+        <v>6804527</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6275,22 +6275,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,7 +6317,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046949</v>
+        <v>131033323</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395463</v>
+        <v>395680</v>
       </c>
       <c r="R54" t="n">
-        <v>6804534</v>
+        <v>6804541</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6382,22 +6382,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046948</v>
+        <v>131046954</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395462</v>
+        <v>395446</v>
       </c>
       <c r="R55" t="n">
-        <v>6804542</v>
+        <v>6804531</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,7 +6531,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046866</v>
+        <v>131046861</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395542</v>
+        <v>395564</v>
       </c>
       <c r="R56" t="n">
-        <v>6804432</v>
+        <v>6804373</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,10 +6638,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046880</v>
+        <v>131046712</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6649,21 +6649,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395491</v>
+        <v>395468</v>
       </c>
       <c r="R57" t="n">
-        <v>6804393</v>
+        <v>6804494</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6852,10 +6852,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046713</v>
+        <v>131046888</v>
       </c>
       <c r="B59" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6863,21 +6863,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395454</v>
+        <v>395436</v>
       </c>
       <c r="R59" t="n">
-        <v>6804501</v>
+        <v>6804373</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,10 +6959,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046879</v>
+        <v>131046713</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395482</v>
+        <v>395454</v>
       </c>
       <c r="R60" t="n">
-        <v>6804421</v>
+        <v>6804501</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046874</v>
+        <v>131046879</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395433</v>
+        <v>395482</v>
       </c>
       <c r="R61" t="n">
-        <v>6804469</v>
+        <v>6804421</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,7 +7173,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046888</v>
+        <v>131046874</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395436</v>
+        <v>395433</v>
       </c>
       <c r="R62" t="n">
-        <v>6804373</v>
+        <v>6804469</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033321</v>
+        <v>131033327</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395718</v>
+        <v>395671</v>
       </c>
       <c r="R63" t="n">
-        <v>6804573</v>
+        <v>6804435</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7494,7 +7494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033327</v>
+        <v>131033321</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395671</v>
+        <v>395718</v>
       </c>
       <c r="R65" t="n">
-        <v>6804435</v>
+        <v>6804573</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7932,32 +7932,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131033299</v>
+        <v>131046856</v>
       </c>
       <c r="B69" t="n">
-        <v>79267</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395890</v>
+        <v>395564</v>
       </c>
       <c r="R69" t="n">
-        <v>6804464</v>
+        <v>6804311</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,10 +8039,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033295</v>
+        <v>131033353</v>
       </c>
       <c r="B70" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8050,39 +8050,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395744</v>
+        <v>395859</v>
       </c>
       <c r="R70" t="n">
-        <v>6804575</v>
+        <v>6804312</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8114,7 +8109,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8124,12 +8119,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8156,7 +8146,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046877</v>
+        <v>131046993</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8191,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395472</v>
       </c>
       <c r="R71" t="n">
-        <v>6804442</v>
+        <v>6804550</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8226,7 +8216,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8236,7 +8226,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8263,7 +8253,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046993</v>
+        <v>131046877</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8298,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395472</v>
+        <v>395464</v>
       </c>
       <c r="R72" t="n">
-        <v>6804550</v>
+        <v>6804442</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8333,7 +8323,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8343,7 +8333,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8370,32 +8360,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131033353</v>
+        <v>131033299</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>79267</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8405,10 +8395,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395859</v>
+        <v>395890</v>
       </c>
       <c r="R73" t="n">
-        <v>6804312</v>
+        <v>6804464</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8440,7 +8430,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8450,7 +8440,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8477,10 +8467,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046856</v>
+        <v>131033295</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8488,34 +8478,39 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395564</v>
+        <v>395744</v>
       </c>
       <c r="R74" t="n">
-        <v>6804311</v>
+        <v>6804575</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8542,22 +8537,27 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,10 +8584,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131033303</v>
+        <v>131046862</v>
       </c>
       <c r="B75" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8595,21 +8595,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395706</v>
+        <v>395554</v>
       </c>
       <c r="R75" t="n">
-        <v>6804535</v>
+        <v>6804375</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8649,22 +8649,22 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,10 +8691,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046865</v>
+        <v>131033303</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8702,21 +8702,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395546</v>
+        <v>395706</v>
       </c>
       <c r="R76" t="n">
-        <v>6804405</v>
+        <v>6804535</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8756,22 +8756,22 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8905,7 +8905,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046862</v>
+        <v>131046865</v>
       </c>
       <c r="B78" t="n">
         <v>79243</v>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395554</v>
+        <v>395546</v>
       </c>
       <c r="R78" t="n">
-        <v>6804375</v>
+        <v>6804405</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9012,7 +9012,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046854</v>
+        <v>131046857</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395579</v>
+        <v>395560</v>
       </c>
       <c r="R79" t="n">
-        <v>6804294</v>
+        <v>6804326</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131033322</v>
+        <v>131046889</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395692</v>
+        <v>395429</v>
       </c>
       <c r="R81" t="n">
-        <v>6804550</v>
+        <v>6804384</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9333,7 +9333,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046883</v>
+        <v>131033322</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395494</v>
+        <v>395692</v>
       </c>
       <c r="R82" t="n">
-        <v>6804367</v>
+        <v>6804550</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9398,22 +9398,22 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9440,7 +9440,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046889</v>
+        <v>131046883</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395429</v>
+        <v>395494</v>
       </c>
       <c r="R83" t="n">
-        <v>6804384</v>
+        <v>6804367</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9547,7 +9547,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046857</v>
+        <v>131046854</v>
       </c>
       <c r="B84" t="n">
         <v>79243</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395560</v>
+        <v>395579</v>
       </c>
       <c r="R84" t="n">
-        <v>6804326</v>
+        <v>6804294</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9761,7 +9761,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131033333</v>
+        <v>131046860</v>
       </c>
       <c r="B86" t="n">
         <v>79243</v>
@@ -9796,10 +9796,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395717</v>
+        <v>395578</v>
       </c>
       <c r="R86" t="n">
-        <v>6804542</v>
+        <v>6804350</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9826,22 +9826,22 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9975,7 +9975,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046860</v>
+        <v>131033333</v>
       </c>
       <c r="B88" t="n">
         <v>79243</v>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395578</v>
+        <v>395717</v>
       </c>
       <c r="R88" t="n">
-        <v>6804350</v>
+        <v>6804542</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10040,22 +10040,22 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046950</v>
+        <v>131046992</v>
       </c>
       <c r="B91" t="n">
         <v>79243</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395470</v>
+        <v>395477</v>
       </c>
       <c r="R91" t="n">
-        <v>6804530</v>
+        <v>6804563</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046870</v>
+        <v>131046891</v>
       </c>
       <c r="B92" t="n">
         <v>79243</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395450</v>
+        <v>395453</v>
       </c>
       <c r="R92" t="n">
-        <v>6804507</v>
+        <v>6804400</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046891</v>
+        <v>131046950</v>
       </c>
       <c r="B93" t="n">
         <v>79243</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395453</v>
+        <v>395470</v>
       </c>
       <c r="R93" t="n">
-        <v>6804400</v>
+        <v>6804530</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046992</v>
+        <v>131033345</v>
       </c>
       <c r="B94" t="n">
         <v>79243</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395477</v>
+        <v>395748</v>
       </c>
       <c r="R94" t="n">
-        <v>6804563</v>
+        <v>6804429</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10702,22 +10702,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131033345</v>
+        <v>131046870</v>
       </c>
       <c r="B95" t="n">
         <v>79243</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395748</v>
+        <v>395450</v>
       </c>
       <c r="R95" t="n">
-        <v>6804429</v>
+        <v>6804507</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131047019</v>
+        <v>131033332</v>
       </c>
       <c r="B96" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,39 +10862,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395446</v>
+        <v>395641</v>
       </c>
       <c r="R96" t="n">
-        <v>6804531</v>
+        <v>6804509</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10921,34 +10916,29 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD96" t="b">
         <v>0</v>
       </c>
       <c r="AE96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG96" t="b">
         <v>0</v>
@@ -11075,7 +11065,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046895</v>
+        <v>131046887</v>
       </c>
       <c r="B98" t="n">
         <v>79243</v>
@@ -11110,10 +11100,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395436</v>
+        <v>395449</v>
       </c>
       <c r="R98" t="n">
-        <v>6804436</v>
+        <v>6804334</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11145,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11155,7 +11145,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11182,7 +11172,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131033332</v>
+        <v>131046895</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11217,10 +11207,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395641</v>
+        <v>395436</v>
       </c>
       <c r="R99" t="n">
-        <v>6804509</v>
+        <v>6804436</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11247,22 +11237,22 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11289,10 +11279,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046887</v>
+        <v>131046780</v>
       </c>
       <c r="B100" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11300,34 +11290,39 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395449</v>
+        <v>395470</v>
       </c>
       <c r="R100" t="n">
-        <v>6804334</v>
+        <v>6804530</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11359,7 +11354,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11369,7 +11364,12 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11396,7 +11396,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046780</v>
+        <v>131047019</v>
       </c>
       <c r="B101" t="n">
         <v>57884</v>
@@ -11427,7 +11427,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -11436,10 +11436,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395470</v>
+        <v>395446</v>
       </c>
       <c r="R101" t="n">
-        <v>6804530</v>
+        <v>6804531</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11481,19 +11481,19 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046796</v>
+        <v>131046876</v>
       </c>
       <c r="B102" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,21 +11524,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11548,10 +11548,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395443</v>
+        <v>395457</v>
       </c>
       <c r="R102" t="n">
-        <v>6804347</v>
+        <v>6804453</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11620,7 +11620,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046890</v>
+        <v>131046951</v>
       </c>
       <c r="B103" t="n">
         <v>79243</v>
@@ -11655,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395440</v>
+        <v>395463</v>
       </c>
       <c r="R103" t="n">
-        <v>6804390</v>
+        <v>6804524</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11727,10 +11727,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131047017</v>
+        <v>131033349</v>
       </c>
       <c r="B104" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11738,39 +11738,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P104" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395448</v>
+        <v>395757</v>
       </c>
       <c r="R104" t="n">
-        <v>6804508</v>
+        <v>6804291</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11797,34 +11792,29 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD104" t="b">
         <v>0</v>
       </c>
       <c r="AE104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG104" t="b">
         <v>0</v>
@@ -11844,10 +11834,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B105" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11855,34 +11845,39 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R105" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11914,7 +11909,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -11924,14 +11919,19 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD105" t="b">
         <v>0</v>
       </c>
       <c r="AE105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG105" t="b">
         <v>0</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046951</v>
+        <v>131046796</v>
       </c>
       <c r="B106" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11962,21 +11962,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395463</v>
+        <v>395443</v>
       </c>
       <c r="R106" t="n">
-        <v>6804524</v>
+        <v>6804347</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12058,7 +12058,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046876</v>
+        <v>131046952</v>
       </c>
       <c r="B107" t="n">
         <v>79243</v>
@@ -12093,10 +12093,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395457</v>
+        <v>395461</v>
       </c>
       <c r="R107" t="n">
-        <v>6804453</v>
+        <v>6804521</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12165,7 +12165,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131033349</v>
+        <v>131046890</v>
       </c>
       <c r="B108" t="n">
         <v>79243</v>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395757</v>
+        <v>395440</v>
       </c>
       <c r="R108" t="n">
-        <v>6804291</v>
+        <v>6804390</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12230,22 +12230,22 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12272,7 +12272,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131046903</v>
+        <v>131046957</v>
       </c>
       <c r="B109" t="n">
         <v>79243</v>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395384</v>
+        <v>395414</v>
       </c>
       <c r="R109" t="n">
-        <v>6804564</v>
+        <v>6804565</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046957</v>
+        <v>131046903</v>
       </c>
       <c r="B110" t="n">
         <v>79243</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395414</v>
+        <v>395384</v>
       </c>
       <c r="R110" t="n">
-        <v>6804565</v>
+        <v>6804564</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD110" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046872</v>
+        <v>131046947</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395434</v>
+        <v>395461</v>
       </c>
       <c r="R3" t="n">
-        <v>6804484</v>
+        <v>6804551</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046747</v>
+        <v>131046872</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,39 +905,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395480</v>
+        <v>395434</v>
       </c>
       <c r="R4" t="n">
-        <v>6804496</v>
+        <v>6804484</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1006,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046896</v>
+        <v>131046803</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,21 +1012,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1041,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395423</v>
+        <v>395450</v>
       </c>
       <c r="R5" t="n">
-        <v>6804458</v>
+        <v>6804390</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1076,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1086,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1113,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046803</v>
+        <v>131046896</v>
       </c>
       <c r="B6" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1124,21 +1119,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1148,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395450</v>
+        <v>395423</v>
       </c>
       <c r="R6" t="n">
-        <v>6804390</v>
+        <v>6804458</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1183,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1193,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1434,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046947</v>
+        <v>131046747</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1445,34 +1440,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395461</v>
+        <v>395480</v>
       </c>
       <c r="R9" t="n">
-        <v>6804551</v>
+        <v>6804496</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046749</v>
+        <v>131033342</v>
       </c>
       <c r="B11" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,39 +1669,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395449</v>
+        <v>395753</v>
       </c>
       <c r="R11" t="n">
-        <v>6804395</v>
+        <v>6804557</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,22 +1723,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,7 +1765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046884</v>
+        <v>131046858</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1805,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395489</v>
+        <v>395570</v>
       </c>
       <c r="R12" t="n">
-        <v>6804292</v>
+        <v>6804341</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1835,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,7 +1845,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,10 +1872,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046858</v>
+        <v>131046749</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1888,34 +1883,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395570</v>
+        <v>395449</v>
       </c>
       <c r="R13" t="n">
-        <v>6804341</v>
+        <v>6804395</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,32 +1984,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033342</v>
+        <v>131046807</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>83206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395753</v>
+        <v>395510</v>
       </c>
       <c r="R14" t="n">
-        <v>6804557</v>
+        <v>6804530</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,32 +2091,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046807</v>
+        <v>131046884</v>
       </c>
       <c r="B15" t="n">
-        <v>83206</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2126,10 +2126,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395510</v>
+        <v>395489</v>
       </c>
       <c r="R15" t="n">
-        <v>6804530</v>
+        <v>6804292</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2305,10 +2305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046777</v>
+        <v>131046901</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2316,39 +2316,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395435</v>
+        <v>395395</v>
       </c>
       <c r="R17" t="n">
-        <v>6804481</v>
+        <v>6804547</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2380,7 +2375,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2390,12 +2385,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2422,10 +2412,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131047009</v>
+        <v>131046955</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2433,42 +2423,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395494</v>
+        <v>395432</v>
       </c>
       <c r="R18" t="n">
-        <v>6804551</v>
+        <v>6804533</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2500,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2510,12 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2756,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131033283</v>
+        <v>131033348</v>
       </c>
       <c r="B21" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2767,21 +2744,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2791,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395745</v>
+        <v>395756</v>
       </c>
       <c r="R21" t="n">
-        <v>6804404</v>
+        <v>6804343</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2826,7 +2803,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2836,7 +2813,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2863,10 +2840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131033348</v>
+        <v>131033283</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2874,21 +2851,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2898,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395756</v>
+        <v>395745</v>
       </c>
       <c r="R22" t="n">
-        <v>6804343</v>
+        <v>6804404</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2933,7 +2910,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2943,7 +2920,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2970,10 +2947,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046901</v>
+        <v>131047009</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2981,34 +2958,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395395</v>
+        <v>395494</v>
       </c>
       <c r="R23" t="n">
-        <v>6804547</v>
+        <v>6804551</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3040,7 +3025,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3050,7 +3035,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3077,10 +3067,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046955</v>
+        <v>131046777</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3078,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395432</v>
+        <v>395435</v>
       </c>
       <c r="R24" t="n">
-        <v>6804533</v>
+        <v>6804481</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3147,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3157,7 +3152,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,7 +3184,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033344</v>
+        <v>131033324</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395753</v>
+        <v>395676</v>
       </c>
       <c r="R25" t="n">
-        <v>6804482</v>
+        <v>6804490</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,7 +3291,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033324</v>
+        <v>131046894</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395676</v>
+        <v>395429</v>
       </c>
       <c r="R26" t="n">
-        <v>6804490</v>
+        <v>6804421</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,22 +3356,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3398,7 +3398,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046894</v>
+        <v>131033344</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395429</v>
+        <v>395753</v>
       </c>
       <c r="R27" t="n">
-        <v>6804421</v>
+        <v>6804482</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,22 +3463,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3505,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033302</v>
+        <v>131033294</v>
       </c>
       <c r="B28" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3516,34 +3516,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395679</v>
+        <v>395714</v>
       </c>
       <c r="R28" t="n">
-        <v>6804524</v>
+        <v>6804552</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3575,7 +3580,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3585,7 +3590,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3612,10 +3622,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131033294</v>
+        <v>131033302</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3623,39 +3633,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395714</v>
+        <v>395679</v>
       </c>
       <c r="R29" t="n">
-        <v>6804552</v>
+        <v>6804524</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3687,7 +3692,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3697,12 +3702,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046956</v>
+        <v>131046885</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395418</v>
+        <v>395486</v>
       </c>
       <c r="R30" t="n">
-        <v>6804552</v>
+        <v>6804289</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046885</v>
+        <v>131046956</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395486</v>
+        <v>395418</v>
       </c>
       <c r="R31" t="n">
-        <v>6804289</v>
+        <v>6804552</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,50 +3943,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131047035</v>
+        <v>131046892</v>
       </c>
       <c r="B32" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395505</v>
+        <v>395445</v>
       </c>
       <c r="R32" t="n">
-        <v>6804295</v>
+        <v>6804404</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4018,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4028,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4055,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046892</v>
+        <v>131046898</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4090,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395445</v>
+        <v>395393</v>
       </c>
       <c r="R33" t="n">
-        <v>6804404</v>
+        <v>6804503</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4125,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4135,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4162,7 +4157,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046898</v>
+        <v>131046998</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4197,10 +4192,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395393</v>
+        <v>395494</v>
       </c>
       <c r="R34" t="n">
-        <v>6804503</v>
+        <v>6804551</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4232,7 +4227,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4242,7 +4237,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4269,7 +4264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046998</v>
+        <v>131046994</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4304,10 +4299,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395494</v>
+        <v>395484</v>
       </c>
       <c r="R35" t="n">
-        <v>6804551</v>
+        <v>6804534</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4339,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4349,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4376,45 +4371,50 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046994</v>
+        <v>131047035</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395484</v>
+        <v>395505</v>
       </c>
       <c r="R36" t="n">
-        <v>6804534</v>
+        <v>6804295</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046881</v>
+        <v>131033288</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,34 +4815,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395494</v>
+        <v>395651</v>
       </c>
       <c r="R40" t="n">
-        <v>6804395</v>
+        <v>6804457</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4869,22 +4874,27 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4911,7 +4921,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046999</v>
+        <v>131033334</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4946,10 +4956,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395485</v>
+        <v>395718</v>
       </c>
       <c r="R41" t="n">
-        <v>6804561</v>
+        <v>6804558</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4976,22 +4986,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5018,10 +5028,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046748</v>
+        <v>131046881</v>
       </c>
       <c r="B42" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5029,39 +5039,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395453</v>
+        <v>395494</v>
       </c>
       <c r="R42" t="n">
-        <v>6804322</v>
+        <v>6804395</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5093,7 +5098,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5103,7 +5108,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5130,7 +5135,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131033334</v>
+        <v>131046999</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5165,10 +5170,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395718</v>
+        <v>395485</v>
       </c>
       <c r="R43" t="n">
-        <v>6804558</v>
+        <v>6804561</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5195,22 +5200,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5237,7 +5242,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046859</v>
+        <v>131033346</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5272,10 +5277,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395566</v>
+        <v>395744</v>
       </c>
       <c r="R44" t="n">
-        <v>6804349</v>
+        <v>6804417</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5302,22 +5307,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5344,10 +5349,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131033288</v>
+        <v>131046859</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5355,39 +5360,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395651</v>
+        <v>395566</v>
       </c>
       <c r="R45" t="n">
-        <v>6804457</v>
+        <v>6804349</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5414,27 +5414,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5461,10 +5456,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046805</v>
+        <v>131046748</v>
       </c>
       <c r="B46" t="n">
-        <v>79000</v>
+        <v>57881</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5472,34 +5467,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395461</v>
+        <v>395453</v>
       </c>
       <c r="R46" t="n">
-        <v>6804539</v>
+        <v>6804322</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5568,10 +5568,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131033346</v>
+        <v>131046805</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5579,21 +5579,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5603,10 +5603,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395744</v>
+        <v>395461</v>
       </c>
       <c r="R47" t="n">
-        <v>6804417</v>
+        <v>6804539</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046949</v>
+        <v>131046954</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395463</v>
+        <v>395446</v>
       </c>
       <c r="R48" t="n">
-        <v>6804534</v>
+        <v>6804531</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,7 +5782,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046948</v>
+        <v>131046997</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395462</v>
+        <v>395518</v>
       </c>
       <c r="R49" t="n">
-        <v>6804542</v>
+        <v>6804527</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046866</v>
+        <v>131046861</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395542</v>
+        <v>395564</v>
       </c>
       <c r="R50" t="n">
-        <v>6804432</v>
+        <v>6804373</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131033352</v>
+        <v>131033323</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395857</v>
+        <v>395680</v>
       </c>
       <c r="R51" t="n">
-        <v>6804292</v>
+        <v>6804541</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046880</v>
+        <v>131033352</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395491</v>
+        <v>395857</v>
       </c>
       <c r="R52" t="n">
-        <v>6804393</v>
+        <v>6804292</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6168,22 +6168,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,7 +6210,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046997</v>
+        <v>131046949</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395518</v>
+        <v>395463</v>
       </c>
       <c r="R53" t="n">
-        <v>6804527</v>
+        <v>6804534</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,7 +6317,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131033323</v>
+        <v>131046948</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395680</v>
+        <v>395462</v>
       </c>
       <c r="R54" t="n">
-        <v>6804541</v>
+        <v>6804542</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6382,22 +6382,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046954</v>
+        <v>131046866</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395446</v>
+        <v>395542</v>
       </c>
       <c r="R55" t="n">
-        <v>6804531</v>
+        <v>6804432</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,7 +6531,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046861</v>
+        <v>131046880</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395564</v>
+        <v>395491</v>
       </c>
       <c r="R56" t="n">
-        <v>6804373</v>
+        <v>6804393</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,10 +6638,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046712</v>
+        <v>131046869</v>
       </c>
       <c r="B57" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6649,21 +6649,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395468</v>
+        <v>395456</v>
       </c>
       <c r="R57" t="n">
-        <v>6804494</v>
+        <v>6804500</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6745,10 +6745,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046869</v>
+        <v>131046712</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6756,21 +6756,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395456</v>
+        <v>395468</v>
       </c>
       <c r="R58" t="n">
-        <v>6804500</v>
+        <v>6804494</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046888</v>
+        <v>131046879</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395436</v>
+        <v>395482</v>
       </c>
       <c r="R59" t="n">
-        <v>6804373</v>
+        <v>6804421</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,10 +6959,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046713</v>
+        <v>131046888</v>
       </c>
       <c r="B60" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395454</v>
+        <v>395436</v>
       </c>
       <c r="R60" t="n">
-        <v>6804501</v>
+        <v>6804373</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046879</v>
+        <v>131046874</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395482</v>
+        <v>395433</v>
       </c>
       <c r="R61" t="n">
-        <v>6804421</v>
+        <v>6804469</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,10 +7173,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046874</v>
+        <v>131046713</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7184,21 +7184,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395433</v>
+        <v>395454</v>
       </c>
       <c r="R62" t="n">
-        <v>6804469</v>
+        <v>6804501</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033327</v>
+        <v>131033321</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395671</v>
+        <v>395718</v>
       </c>
       <c r="R63" t="n">
-        <v>6804435</v>
+        <v>6804573</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7494,7 +7494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033321</v>
+        <v>131033326</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395718</v>
+        <v>395665</v>
       </c>
       <c r="R65" t="n">
-        <v>6804573</v>
+        <v>6804439</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131033326</v>
+        <v>131046996</v>
       </c>
       <c r="B66" t="n">
         <v>79243</v>
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395665</v>
+        <v>395485</v>
       </c>
       <c r="R66" t="n">
-        <v>6804439</v>
+        <v>6804506</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7666,22 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,7 +7708,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131046996</v>
+        <v>131033327</v>
       </c>
       <c r="B67" t="n">
         <v>79243</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395485</v>
+        <v>395671</v>
       </c>
       <c r="R67" t="n">
-        <v>6804506</v>
+        <v>6804435</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7773,22 +7773,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7932,7 +7932,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046856</v>
+        <v>131046993</v>
       </c>
       <c r="B69" t="n">
         <v>79243</v>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395564</v>
+        <v>395472</v>
       </c>
       <c r="R69" t="n">
-        <v>6804311</v>
+        <v>6804550</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8146,7 +8146,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046993</v>
+        <v>131046856</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8181,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395472</v>
+        <v>395564</v>
       </c>
       <c r="R71" t="n">
-        <v>6804550</v>
+        <v>6804311</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8691,10 +8691,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131033303</v>
+        <v>131046886</v>
       </c>
       <c r="B76" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8702,21 +8702,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395706</v>
+        <v>395447</v>
       </c>
       <c r="R76" t="n">
-        <v>6804535</v>
+        <v>6804315</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8756,22 +8756,22 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046886</v>
+        <v>131046865</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395447</v>
+        <v>395546</v>
       </c>
       <c r="R77" t="n">
-        <v>6804315</v>
+        <v>6804405</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8905,10 +8905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046865</v>
+        <v>131033303</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8916,21 +8916,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395546</v>
+        <v>395706</v>
       </c>
       <c r="R78" t="n">
-        <v>6804405</v>
+        <v>6804535</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8970,22 +8970,22 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9012,7 +9012,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046857</v>
+        <v>131046854</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395560</v>
+        <v>395579</v>
       </c>
       <c r="R79" t="n">
-        <v>6804326</v>
+        <v>6804294</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046889</v>
+        <v>131033322</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395429</v>
+        <v>395692</v>
       </c>
       <c r="R81" t="n">
-        <v>6804384</v>
+        <v>6804550</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9333,7 +9333,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131033322</v>
+        <v>131046883</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395692</v>
+        <v>395494</v>
       </c>
       <c r="R82" t="n">
-        <v>6804550</v>
+        <v>6804367</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9398,22 +9398,22 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9440,7 +9440,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046883</v>
+        <v>131046889</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395494</v>
+        <v>395429</v>
       </c>
       <c r="R83" t="n">
-        <v>6804367</v>
+        <v>6804384</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9547,7 +9547,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046854</v>
+        <v>131046857</v>
       </c>
       <c r="B84" t="n">
         <v>79243</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395579</v>
+        <v>395560</v>
       </c>
       <c r="R84" t="n">
-        <v>6804294</v>
+        <v>6804326</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9761,7 +9761,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046860</v>
+        <v>131046902</v>
       </c>
       <c r="B86" t="n">
         <v>79243</v>
@@ -9796,10 +9796,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395578</v>
+        <v>395389</v>
       </c>
       <c r="R86" t="n">
-        <v>6804350</v>
+        <v>6804555</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9868,7 +9868,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046902</v>
+        <v>131046860</v>
       </c>
       <c r="B87" t="n">
         <v>79243</v>
@@ -9903,10 +9903,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395389</v>
+        <v>395578</v>
       </c>
       <c r="R87" t="n">
-        <v>6804555</v>
+        <v>6804350</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046992</v>
+        <v>131046950</v>
       </c>
       <c r="B91" t="n">
         <v>79243</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395477</v>
+        <v>395470</v>
       </c>
       <c r="R91" t="n">
-        <v>6804563</v>
+        <v>6804530</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046891</v>
+        <v>131046870</v>
       </c>
       <c r="B92" t="n">
         <v>79243</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395453</v>
+        <v>395450</v>
       </c>
       <c r="R92" t="n">
-        <v>6804400</v>
+        <v>6804507</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046950</v>
+        <v>131046891</v>
       </c>
       <c r="B93" t="n">
         <v>79243</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395470</v>
+        <v>395453</v>
       </c>
       <c r="R93" t="n">
-        <v>6804530</v>
+        <v>6804400</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131033345</v>
+        <v>131046992</v>
       </c>
       <c r="B94" t="n">
         <v>79243</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395748</v>
+        <v>395477</v>
       </c>
       <c r="R94" t="n">
-        <v>6804429</v>
+        <v>6804563</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10702,22 +10702,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046870</v>
+        <v>131033345</v>
       </c>
       <c r="B95" t="n">
         <v>79243</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395450</v>
+        <v>395748</v>
       </c>
       <c r="R95" t="n">
-        <v>6804507</v>
+        <v>6804429</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,7 +10851,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131033332</v>
+        <v>131046895</v>
       </c>
       <c r="B96" t="n">
         <v>79243</v>
@@ -10886,10 +10886,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395641</v>
+        <v>395436</v>
       </c>
       <c r="R96" t="n">
-        <v>6804509</v>
+        <v>6804436</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10916,22 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10958,10 +10958,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131033362</v>
+        <v>131046887</v>
       </c>
       <c r="B97" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10969,21 +10969,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10993,10 +10993,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395883</v>
+        <v>395449</v>
       </c>
       <c r="R97" t="n">
-        <v>6804433</v>
+        <v>6804334</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11023,22 +11023,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11065,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046887</v>
+        <v>131033362</v>
       </c>
       <c r="B98" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11076,21 +11076,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11100,10 +11100,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395449</v>
+        <v>395883</v>
       </c>
       <c r="R98" t="n">
-        <v>6804334</v>
+        <v>6804433</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11130,22 +11130,22 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,7 +11172,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046895</v>
+        <v>131033332</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11207,10 +11207,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395436</v>
+        <v>395641</v>
       </c>
       <c r="R99" t="n">
-        <v>6804436</v>
+        <v>6804509</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11237,22 +11237,22 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11279,7 +11279,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046780</v>
+        <v>131047019</v>
       </c>
       <c r="B100" t="n">
         <v>57884</v>
@@ -11310,7 +11310,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -11319,10 +11319,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395470</v>
+        <v>395446</v>
       </c>
       <c r="R100" t="n">
-        <v>6804530</v>
+        <v>6804531</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11364,19 +11364,19 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG100" t="b">
         <v>0</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131047019</v>
+        <v>131046780</v>
       </c>
       <c r="B101" t="n">
         <v>57884</v>
@@ -11427,7 +11427,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -11436,10 +11436,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395446</v>
+        <v>395470</v>
       </c>
       <c r="R101" t="n">
-        <v>6804531</v>
+        <v>6804530</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11481,19 +11481,19 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046876</v>
+        <v>131046952</v>
       </c>
       <c r="B102" t="n">
         <v>79243</v>
@@ -11548,10 +11548,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395457</v>
+        <v>395461</v>
       </c>
       <c r="R102" t="n">
-        <v>6804453</v>
+        <v>6804521</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11727,7 +11727,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131033349</v>
+        <v>131046876</v>
       </c>
       <c r="B104" t="n">
         <v>79243</v>
@@ -11762,10 +11762,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395757</v>
+        <v>395457</v>
       </c>
       <c r="R104" t="n">
-        <v>6804291</v>
+        <v>6804453</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11792,22 +11792,22 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11834,10 +11834,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131047017</v>
+        <v>131046890</v>
       </c>
       <c r="B105" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11845,39 +11845,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395448</v>
+        <v>395440</v>
       </c>
       <c r="R105" t="n">
-        <v>6804508</v>
+        <v>6804390</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11909,7 +11904,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -11919,19 +11914,14 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD105" t="b">
         <v>0</v>
       </c>
       <c r="AE105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG105" t="b">
         <v>0</v>
@@ -11951,10 +11941,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046796</v>
+        <v>131033349</v>
       </c>
       <c r="B106" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11962,21 +11952,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -11986,10 +11976,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395443</v>
+        <v>395757</v>
       </c>
       <c r="R106" t="n">
-        <v>6804347</v>
+        <v>6804291</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12016,22 +12006,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12058,10 +12048,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B107" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12069,34 +12059,39 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R107" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12128,7 +12123,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12138,14 +12133,19 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD107" t="b">
         <v>0</v>
       </c>
       <c r="AE107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG107" t="b">
         <v>0</v>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046890</v>
+        <v>131046796</v>
       </c>
       <c r="B108" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395440</v>
+        <v>395443</v>
       </c>
       <c r="R108" t="n">
-        <v>6804390</v>
+        <v>6804347</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046903</v>
+        <v>131033341</v>
       </c>
       <c r="B110" t="n">
         <v>79243</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395384</v>
+        <v>395797</v>
       </c>
       <c r="R110" t="n">
-        <v>6804564</v>
+        <v>6804591</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131033341</v>
+        <v>131046903</v>
       </c>
       <c r="B111" t="n">
         <v>79243</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395797</v>
+        <v>395384</v>
       </c>
       <c r="R111" t="n">
-        <v>6804591</v>
+        <v>6804564</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12551,22 +12551,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046872</v>
+        <v>131046896</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395434</v>
+        <v>395423</v>
       </c>
       <c r="R4" t="n">
-        <v>6804484</v>
+        <v>6804458</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046803</v>
+        <v>131046872</v>
       </c>
       <c r="B5" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,21 +1012,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395450</v>
+        <v>395434</v>
       </c>
       <c r="R5" t="n">
-        <v>6804390</v>
+        <v>6804484</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046896</v>
+        <v>131046873</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395423</v>
+        <v>395430</v>
       </c>
       <c r="R6" t="n">
-        <v>6804458</v>
+        <v>6804474</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046873</v>
+        <v>131046995</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395430</v>
+        <v>395491</v>
       </c>
       <c r="R7" t="n">
-        <v>6804474</v>
+        <v>6804522</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046995</v>
+        <v>131046790</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,34 +1333,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395491</v>
+        <v>395416</v>
       </c>
       <c r="R8" t="n">
-        <v>6804522</v>
+        <v>6804491</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1397,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1407,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1429,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046747</v>
+        <v>131046803</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>79000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,39 +1450,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395480</v>
+        <v>395450</v>
       </c>
       <c r="R9" t="n">
-        <v>6804496</v>
+        <v>6804390</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,10 +1546,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046790</v>
+        <v>131046747</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,16 +1557,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1572,7 +1577,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1581,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395416</v>
+        <v>395480</v>
       </c>
       <c r="R10" t="n">
-        <v>6804491</v>
+        <v>6804496</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1616,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1626,12 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046858</v>
+        <v>131046884</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395570</v>
+        <v>395489</v>
       </c>
       <c r="R12" t="n">
-        <v>6804341</v>
+        <v>6804292</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1872,10 +1872,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046749</v>
+        <v>131046858</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,39 +1883,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395449</v>
+        <v>395570</v>
       </c>
       <c r="R13" t="n">
-        <v>6804395</v>
+        <v>6804341</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1947,7 +1942,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1957,7 +1952,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2091,10 +2086,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046884</v>
+        <v>131046749</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2102,34 +2097,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395489</v>
+        <v>395449</v>
       </c>
       <c r="R15" t="n">
-        <v>6804292</v>
+        <v>6804395</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033331</v>
+        <v>131033283</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395707</v>
+        <v>395745</v>
       </c>
       <c r="R16" t="n">
-        <v>6804307</v>
+        <v>6804404</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046901</v>
+        <v>131033331</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395395</v>
+        <v>395707</v>
       </c>
       <c r="R17" t="n">
-        <v>6804547</v>
+        <v>6804307</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046955</v>
+        <v>131046901</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395432</v>
+        <v>395395</v>
       </c>
       <c r="R18" t="n">
-        <v>6804533</v>
+        <v>6804547</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046878</v>
+        <v>131046868</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395478</v>
+        <v>395462</v>
       </c>
       <c r="R19" t="n">
-        <v>6804426</v>
+        <v>6804496</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,7 +2626,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046868</v>
+        <v>131033348</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395462</v>
+        <v>395756</v>
       </c>
       <c r="R20" t="n">
-        <v>6804496</v>
+        <v>6804343</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131033348</v>
+        <v>131046777</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2744,34 +2744,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395756</v>
+        <v>395435</v>
       </c>
       <c r="R21" t="n">
-        <v>6804343</v>
+        <v>6804481</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,22 +2803,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,10 +2850,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131033283</v>
+        <v>131047009</v>
       </c>
       <c r="B22" t="n">
-        <v>79275</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2851,34 +2861,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395745</v>
+        <v>395494</v>
       </c>
       <c r="R22" t="n">
-        <v>6804404</v>
+        <v>6804551</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,22 +2923,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2947,10 +2970,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047009</v>
+        <v>131046955</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2958,42 +2981,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395494</v>
+        <v>395432</v>
       </c>
       <c r="R23" t="n">
-        <v>6804551</v>
+        <v>6804533</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3025,7 +3040,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3035,12 +3050,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3067,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046777</v>
+        <v>131046878</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3078,39 +3088,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395435</v>
+        <v>395478</v>
       </c>
       <c r="R24" t="n">
-        <v>6804481</v>
+        <v>6804426</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3147,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,12 +3157,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033324</v>
+        <v>131033294</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,34 +3195,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395676</v>
+        <v>395714</v>
       </c>
       <c r="R25" t="n">
-        <v>6804490</v>
+        <v>6804552</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3254,7 +3259,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3264,7 +3269,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3301,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046894</v>
+        <v>131033302</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,21 +3312,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3326,10 +3336,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395429</v>
+        <v>395679</v>
       </c>
       <c r="R26" t="n">
-        <v>6804421</v>
+        <v>6804524</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,22 +3366,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3398,7 +3408,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033344</v>
+        <v>131033324</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3433,10 +3443,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395753</v>
+        <v>395676</v>
       </c>
       <c r="R27" t="n">
-        <v>6804482</v>
+        <v>6804490</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3468,7 +3478,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3478,7 +3488,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3505,10 +3515,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033294</v>
+        <v>131046894</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3516,39 +3526,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395714</v>
+        <v>395429</v>
       </c>
       <c r="R28" t="n">
-        <v>6804552</v>
+        <v>6804421</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3575,27 +3580,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3622,10 +3622,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131033302</v>
+        <v>131033344</v>
       </c>
       <c r="B29" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3633,21 +3633,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395679</v>
+        <v>395753</v>
       </c>
       <c r="R29" t="n">
-        <v>6804524</v>
+        <v>6804482</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046885</v>
+        <v>131046994</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395486</v>
+        <v>395484</v>
       </c>
       <c r="R30" t="n">
-        <v>6804289</v>
+        <v>6804534</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046956</v>
+        <v>131046885</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395418</v>
+        <v>395486</v>
       </c>
       <c r="R31" t="n">
-        <v>6804552</v>
+        <v>6804289</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046892</v>
+        <v>131046956</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395445</v>
+        <v>395418</v>
       </c>
       <c r="R32" t="n">
-        <v>6804404</v>
+        <v>6804552</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4050,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046898</v>
+        <v>131046892</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395393</v>
+        <v>395445</v>
       </c>
       <c r="R33" t="n">
-        <v>6804503</v>
+        <v>6804404</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046998</v>
+        <v>131046898</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395494</v>
+        <v>395393</v>
       </c>
       <c r="R34" t="n">
-        <v>6804551</v>
+        <v>6804503</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,7 +4264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046994</v>
+        <v>131046998</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4299,10 +4299,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395484</v>
+        <v>395494</v>
       </c>
       <c r="R35" t="n">
-        <v>6804534</v>
+        <v>6804551</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131033288</v>
+        <v>131046748</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4844,10 +4844,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395651</v>
+        <v>395453</v>
       </c>
       <c r="R40" t="n">
-        <v>6804457</v>
+        <v>6804322</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4874,27 +4874,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5028,7 +5023,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046881</v>
+        <v>131046999</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5063,10 +5058,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395494</v>
+        <v>395485</v>
       </c>
       <c r="R42" t="n">
-        <v>6804395</v>
+        <v>6804561</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5098,7 +5093,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5108,7 +5103,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5135,7 +5130,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046999</v>
+        <v>131033346</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5170,10 +5165,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395485</v>
+        <v>395744</v>
       </c>
       <c r="R43" t="n">
-        <v>6804561</v>
+        <v>6804417</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5200,22 +5195,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5242,7 +5237,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131033346</v>
+        <v>131046859</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5277,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395744</v>
+        <v>395566</v>
       </c>
       <c r="R44" t="n">
-        <v>6804417</v>
+        <v>6804349</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5307,22 +5302,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5349,7 +5344,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046859</v>
+        <v>131046881</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5384,10 +5379,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395566</v>
+        <v>395494</v>
       </c>
       <c r="R45" t="n">
-        <v>6804349</v>
+        <v>6804395</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5419,7 +5414,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5429,7 +5424,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5456,10 +5451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046748</v>
+        <v>131046805</v>
       </c>
       <c r="B46" t="n">
-        <v>57881</v>
+        <v>79000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5467,39 +5462,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395453</v>
+        <v>395461</v>
       </c>
       <c r="R46" t="n">
-        <v>6804322</v>
+        <v>6804539</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5531,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5541,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5568,10 +5558,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046805</v>
+        <v>131033288</v>
       </c>
       <c r="B47" t="n">
-        <v>79000</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5579,34 +5569,39 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395461</v>
+        <v>395651</v>
       </c>
       <c r="R47" t="n">
-        <v>6804539</v>
+        <v>6804457</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5633,22 +5628,27 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046866</v>
+        <v>131046880</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395542</v>
+        <v>395491</v>
       </c>
       <c r="R55" t="n">
-        <v>6804432</v>
+        <v>6804393</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,10 +6531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046880</v>
+        <v>131046712</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6542,21 +6542,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395491</v>
+        <v>395468</v>
       </c>
       <c r="R56" t="n">
-        <v>6804393</v>
+        <v>6804494</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046869</v>
+        <v>131046866</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395456</v>
+        <v>395542</v>
       </c>
       <c r="R57" t="n">
-        <v>6804500</v>
+        <v>6804432</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,10 +6745,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046712</v>
+        <v>131046869</v>
       </c>
       <c r="B58" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6756,21 +6756,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395468</v>
+        <v>395456</v>
       </c>
       <c r="R58" t="n">
-        <v>6804494</v>
+        <v>6804500</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046879</v>
+        <v>131046874</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395482</v>
+        <v>395433</v>
       </c>
       <c r="R59" t="n">
-        <v>6804421</v>
+        <v>6804469</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046874</v>
+        <v>131046879</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395433</v>
+        <v>395482</v>
       </c>
       <c r="R61" t="n">
-        <v>6804469</v>
+        <v>6804421</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046882</v>
+        <v>131046996</v>
       </c>
       <c r="B64" t="n">
         <v>79243</v>
@@ -7422,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395493</v>
+        <v>395485</v>
       </c>
       <c r="R64" t="n">
-        <v>6804376</v>
+        <v>6804506</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7494,7 +7494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033326</v>
+        <v>131046882</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395665</v>
+        <v>395493</v>
       </c>
       <c r="R65" t="n">
-        <v>6804439</v>
+        <v>6804376</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7559,22 +7559,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046996</v>
+        <v>131033327</v>
       </c>
       <c r="B66" t="n">
         <v>79243</v>
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395485</v>
+        <v>395671</v>
       </c>
       <c r="R66" t="n">
-        <v>6804506</v>
+        <v>6804435</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7666,22 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,7 +7708,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131033327</v>
+        <v>131033326</v>
       </c>
       <c r="B67" t="n">
         <v>79243</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395671</v>
+        <v>395665</v>
       </c>
       <c r="R67" t="n">
-        <v>6804435</v>
+        <v>6804439</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7932,10 +7932,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046993</v>
+        <v>131033295</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7943,34 +7943,39 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395472</v>
+        <v>395744</v>
       </c>
       <c r="R69" t="n">
-        <v>6804550</v>
+        <v>6804575</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +8002,27 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8253,32 +8263,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046877</v>
+        <v>131033299</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>79267</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8288,10 +8298,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395464</v>
+        <v>395890</v>
       </c>
       <c r="R72" t="n">
-        <v>6804442</v>
+        <v>6804464</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8318,22 +8328,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8360,32 +8370,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131033299</v>
+        <v>131046993</v>
       </c>
       <c r="B73" t="n">
-        <v>79267</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8395,10 +8405,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395890</v>
+        <v>395472</v>
       </c>
       <c r="R73" t="n">
-        <v>6804464</v>
+        <v>6804550</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8425,22 +8435,22 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8467,10 +8477,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131033295</v>
+        <v>131046877</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8478,39 +8488,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395744</v>
+        <v>395464</v>
       </c>
       <c r="R74" t="n">
-        <v>6804575</v>
+        <v>6804442</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8537,27 +8542,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,7 +8584,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046862</v>
+        <v>131046865</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395554</v>
+        <v>395546</v>
       </c>
       <c r="R75" t="n">
-        <v>6804375</v>
+        <v>6804405</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046865</v>
+        <v>131046862</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395546</v>
+        <v>395554</v>
       </c>
       <c r="R77" t="n">
-        <v>6804405</v>
+        <v>6804375</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9761,7 +9761,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046902</v>
+        <v>131033333</v>
       </c>
       <c r="B86" t="n">
         <v>79243</v>
@@ -9796,10 +9796,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395389</v>
+        <v>395717</v>
       </c>
       <c r="R86" t="n">
-        <v>6804555</v>
+        <v>6804542</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9826,22 +9826,22 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9868,10 +9868,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046860</v>
+        <v>131047018</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9879,34 +9879,39 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395578</v>
+        <v>395509</v>
       </c>
       <c r="R87" t="n">
-        <v>6804350</v>
+        <v>6804287</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9938,7 +9943,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9948,14 +9953,19 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
       <c r="AE87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG87" t="b">
         <v>0</v>
@@ -9975,7 +9985,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131033333</v>
+        <v>131046902</v>
       </c>
       <c r="B88" t="n">
         <v>79243</v>
@@ -10010,10 +10020,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395717</v>
+        <v>395389</v>
       </c>
       <c r="R88" t="n">
-        <v>6804542</v>
+        <v>6804555</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10040,22 +10050,22 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10082,10 +10092,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131047018</v>
+        <v>131046860</v>
       </c>
       <c r="B89" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10093,39 +10103,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395509</v>
+        <v>395578</v>
       </c>
       <c r="R89" t="n">
-        <v>6804287</v>
+        <v>6804350</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10157,7 +10162,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10167,19 +10172,14 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="b">
         <v>0</v>
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046950</v>
+        <v>131046870</v>
       </c>
       <c r="B91" t="n">
         <v>79243</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395470</v>
+        <v>395450</v>
       </c>
       <c r="R91" t="n">
-        <v>6804530</v>
+        <v>6804507</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046870</v>
+        <v>131046992</v>
       </c>
       <c r="B92" t="n">
         <v>79243</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395450</v>
+        <v>395477</v>
       </c>
       <c r="R92" t="n">
-        <v>6804507</v>
+        <v>6804563</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046891</v>
+        <v>131033345</v>
       </c>
       <c r="B93" t="n">
         <v>79243</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395453</v>
+        <v>395748</v>
       </c>
       <c r="R93" t="n">
-        <v>6804400</v>
+        <v>6804429</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10595,22 +10595,22 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046992</v>
+        <v>131046950</v>
       </c>
       <c r="B94" t="n">
         <v>79243</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395477</v>
+        <v>395470</v>
       </c>
       <c r="R94" t="n">
-        <v>6804563</v>
+        <v>6804530</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131033345</v>
+        <v>131046891</v>
       </c>
       <c r="B95" t="n">
         <v>79243</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395748</v>
+        <v>395453</v>
       </c>
       <c r="R95" t="n">
-        <v>6804429</v>
+        <v>6804400</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046895</v>
+        <v>131033362</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,21 +10862,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10886,10 +10886,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395436</v>
+        <v>395883</v>
       </c>
       <c r="R96" t="n">
-        <v>6804436</v>
+        <v>6804433</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10916,22 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10958,7 +10958,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046887</v>
+        <v>131046895</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -10993,10 +10993,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395449</v>
+        <v>395436</v>
       </c>
       <c r="R97" t="n">
-        <v>6804334</v>
+        <v>6804436</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11065,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131033362</v>
+        <v>131033332</v>
       </c>
       <c r="B98" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11076,21 +11076,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11100,10 +11100,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395883</v>
+        <v>395641</v>
       </c>
       <c r="R98" t="n">
-        <v>6804433</v>
+        <v>6804509</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,7 +11172,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131033332</v>
+        <v>131046887</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11207,10 +11207,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395641</v>
+        <v>395449</v>
       </c>
       <c r="R99" t="n">
-        <v>6804509</v>
+        <v>6804334</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11237,22 +11237,22 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11279,7 +11279,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131047019</v>
+        <v>131046780</v>
       </c>
       <c r="B100" t="n">
         <v>57884</v>
@@ -11310,7 +11310,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -11319,10 +11319,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395446</v>
+        <v>395470</v>
       </c>
       <c r="R100" t="n">
-        <v>6804531</v>
+        <v>6804530</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11364,19 +11364,19 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG100" t="b">
         <v>0</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046780</v>
+        <v>131047019</v>
       </c>
       <c r="B101" t="n">
         <v>57884</v>
@@ -11427,7 +11427,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -11436,10 +11436,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395470</v>
+        <v>395446</v>
       </c>
       <c r="R101" t="n">
-        <v>6804530</v>
+        <v>6804531</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11481,19 +11481,19 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046951</v>
+        <v>131046876</v>
       </c>
       <c r="B103" t="n">
         <v>79243</v>
@@ -11655,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395463</v>
+        <v>395457</v>
       </c>
       <c r="R103" t="n">
-        <v>6804524</v>
+        <v>6804453</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11727,7 +11727,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131046876</v>
+        <v>131046890</v>
       </c>
       <c r="B104" t="n">
         <v>79243</v>
@@ -11762,10 +11762,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395457</v>
+        <v>395440</v>
       </c>
       <c r="R104" t="n">
-        <v>6804453</v>
+        <v>6804390</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11834,7 +11834,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131046890</v>
+        <v>131033349</v>
       </c>
       <c r="B105" t="n">
         <v>79243</v>
@@ -11869,10 +11869,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395440</v>
+        <v>395757</v>
       </c>
       <c r="R105" t="n">
-        <v>6804390</v>
+        <v>6804291</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11899,22 +11899,22 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11941,10 +11941,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131033349</v>
+        <v>131047017</v>
       </c>
       <c r="B106" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11952,34 +11952,39 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395757</v>
+        <v>395448</v>
       </c>
       <c r="R106" t="n">
-        <v>6804291</v>
+        <v>6804508</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12006,29 +12011,34 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD106" t="b">
         <v>0</v>
       </c>
       <c r="AE106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG106" t="b">
         <v>0</v>
@@ -12048,10 +12058,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131047017</v>
+        <v>131046796</v>
       </c>
       <c r="B107" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12059,39 +12069,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395448</v>
+        <v>395443</v>
       </c>
       <c r="R107" t="n">
-        <v>6804508</v>
+        <v>6804347</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12123,7 +12128,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12133,19 +12138,14 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC107" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD107" t="b">
         <v>0</v>
       </c>
       <c r="AE107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG107" t="b">
         <v>0</v>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046796</v>
+        <v>131046951</v>
       </c>
       <c r="B108" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395443</v>
+        <v>395463</v>
       </c>
       <c r="R108" t="n">
-        <v>6804347</v>
+        <v>6804524</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12272,7 +12272,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131046957</v>
+        <v>131046903</v>
       </c>
       <c r="B109" t="n">
         <v>79243</v>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395414</v>
+        <v>395384</v>
       </c>
       <c r="R109" t="n">
-        <v>6804565</v>
+        <v>6804564</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131033341</v>
+        <v>131046957</v>
       </c>
       <c r="B110" t="n">
         <v>79243</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395797</v>
+        <v>395414</v>
       </c>
       <c r="R110" t="n">
-        <v>6804591</v>
+        <v>6804565</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131046903</v>
+        <v>131033341</v>
       </c>
       <c r="B111" t="n">
         <v>79243</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395384</v>
+        <v>395797</v>
       </c>
       <c r="R111" t="n">
-        <v>6804564</v>
+        <v>6804591</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12551,22 +12551,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046873</v>
+        <v>131046995</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395430</v>
+        <v>395491</v>
       </c>
       <c r="R6" t="n">
-        <v>6804474</v>
+        <v>6804522</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046995</v>
+        <v>131046873</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395491</v>
+        <v>395430</v>
       </c>
       <c r="R7" t="n">
-        <v>6804522</v>
+        <v>6804474</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046790</v>
+        <v>131046747</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,16 +1333,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1353,7 +1353,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395416</v>
+        <v>395480</v>
       </c>
       <c r="R8" t="n">
-        <v>6804491</v>
+        <v>6804496</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1407,12 +1407,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046803</v>
+        <v>131046790</v>
       </c>
       <c r="B9" t="n">
-        <v>79000</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,34 +1445,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395450</v>
+        <v>395416</v>
       </c>
       <c r="R9" t="n">
-        <v>6804390</v>
+        <v>6804491</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1546,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046747</v>
+        <v>131046803</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>79000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1557,39 +1562,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395480</v>
+        <v>395450</v>
       </c>
       <c r="R10" t="n">
-        <v>6804496</v>
+        <v>6804390</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033342</v>
+        <v>131046749</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,34 +1669,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395753</v>
+        <v>395449</v>
       </c>
       <c r="R11" t="n">
-        <v>6804557</v>
+        <v>6804395</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,22 +1728,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,7 +1770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046884</v>
+        <v>131033342</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1800,10 +1805,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395489</v>
+        <v>395753</v>
       </c>
       <c r="R12" t="n">
-        <v>6804292</v>
+        <v>6804557</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,22 +1835,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1872,7 +1877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046858</v>
+        <v>131046884</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1907,10 +1912,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395570</v>
+        <v>395489</v>
       </c>
       <c r="R13" t="n">
-        <v>6804341</v>
+        <v>6804292</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,7 +1947,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1952,7 +1957,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1979,32 +1984,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046807</v>
+        <v>131046858</v>
       </c>
       <c r="B14" t="n">
-        <v>83206</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2014,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395510</v>
+        <v>395570</v>
       </c>
       <c r="R14" t="n">
-        <v>6804530</v>
+        <v>6804341</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,7 +2054,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2059,7 +2064,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2086,50 +2091,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046749</v>
+        <v>131046807</v>
       </c>
       <c r="B15" t="n">
-        <v>57881</v>
+        <v>83206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6439</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395449</v>
+        <v>395510</v>
       </c>
       <c r="R15" t="n">
-        <v>6804395</v>
+        <v>6804530</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033283</v>
+        <v>131033331</v>
       </c>
       <c r="B16" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395745</v>
+        <v>395707</v>
       </c>
       <c r="R16" t="n">
-        <v>6804404</v>
+        <v>6804307</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033331</v>
+        <v>131046901</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395707</v>
+        <v>395395</v>
       </c>
       <c r="R17" t="n">
-        <v>6804307</v>
+        <v>6804547</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046901</v>
+        <v>131046955</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395395</v>
+        <v>395432</v>
       </c>
       <c r="R18" t="n">
-        <v>6804547</v>
+        <v>6804533</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2733,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046777</v>
+        <v>131033283</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79275</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2744,39 +2744,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395435</v>
+        <v>395745</v>
       </c>
       <c r="R21" t="n">
-        <v>6804481</v>
+        <v>6804404</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,27 +2798,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2850,10 +2840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131047009</v>
+        <v>131046878</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2861,42 +2851,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395494</v>
+        <v>395478</v>
       </c>
       <c r="R22" t="n">
-        <v>6804551</v>
+        <v>6804426</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2928,7 +2910,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2938,12 +2920,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2970,10 +2947,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046955</v>
+        <v>131046777</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2981,34 +2958,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395432</v>
+        <v>395435</v>
       </c>
       <c r="R23" t="n">
-        <v>6804533</v>
+        <v>6804481</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3040,7 +3022,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3050,7 +3032,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3077,10 +3064,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046878</v>
+        <v>131047009</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3075,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395478</v>
+        <v>395494</v>
       </c>
       <c r="R24" t="n">
-        <v>6804426</v>
+        <v>6804551</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3147,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3157,7 +3152,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046994</v>
+        <v>131046885</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395484</v>
+        <v>395486</v>
       </c>
       <c r="R30" t="n">
-        <v>6804534</v>
+        <v>6804289</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046885</v>
+        <v>131046956</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395486</v>
+        <v>395418</v>
       </c>
       <c r="R31" t="n">
-        <v>6804289</v>
+        <v>6804552</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046956</v>
+        <v>131046892</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395418</v>
+        <v>395445</v>
       </c>
       <c r="R32" t="n">
-        <v>6804552</v>
+        <v>6804404</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4050,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046892</v>
+        <v>131046898</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395445</v>
+        <v>395393</v>
       </c>
       <c r="R33" t="n">
-        <v>6804404</v>
+        <v>6804503</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046898</v>
+        <v>131046998</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395393</v>
+        <v>395494</v>
       </c>
       <c r="R34" t="n">
-        <v>6804503</v>
+        <v>6804551</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,7 +4264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046998</v>
+        <v>131046994</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4299,10 +4299,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395494</v>
+        <v>395484</v>
       </c>
       <c r="R35" t="n">
-        <v>6804551</v>
+        <v>6804534</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046748</v>
+        <v>131046999</v>
       </c>
       <c r="B40" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,39 +4815,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395453</v>
+        <v>395485</v>
       </c>
       <c r="R40" t="n">
-        <v>6804322</v>
+        <v>6804561</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4879,7 +4874,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4889,7 +4884,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4916,7 +4911,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131033334</v>
+        <v>131033346</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4951,10 +4946,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395718</v>
+        <v>395744</v>
       </c>
       <c r="R41" t="n">
-        <v>6804558</v>
+        <v>6804417</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4986,7 +4981,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4996,7 +4991,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5023,7 +5018,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046999</v>
+        <v>131046859</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5058,10 +5053,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395485</v>
+        <v>395566</v>
       </c>
       <c r="R42" t="n">
-        <v>6804561</v>
+        <v>6804349</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5093,7 +5088,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5103,7 +5098,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5130,7 +5125,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131033346</v>
+        <v>131033334</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5165,10 +5160,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395744</v>
+        <v>395718</v>
       </c>
       <c r="R43" t="n">
-        <v>6804417</v>
+        <v>6804558</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5200,7 +5195,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5210,7 +5205,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5237,7 +5232,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046859</v>
+        <v>131046881</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5272,10 +5267,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395566</v>
+        <v>395494</v>
       </c>
       <c r="R44" t="n">
-        <v>6804349</v>
+        <v>6804395</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5307,7 +5302,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5317,7 +5312,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5344,10 +5339,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046881</v>
+        <v>131046805</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5355,21 +5350,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5379,10 +5374,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395494</v>
+        <v>395461</v>
       </c>
       <c r="R45" t="n">
-        <v>6804395</v>
+        <v>6804539</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5414,7 +5409,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5424,7 +5419,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5451,10 +5446,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046805</v>
+        <v>131046748</v>
       </c>
       <c r="B46" t="n">
-        <v>79000</v>
+        <v>57881</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5462,34 +5457,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395461</v>
+        <v>395453</v>
       </c>
       <c r="R46" t="n">
-        <v>6804539</v>
+        <v>6804322</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5782,7 +5782,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046997</v>
+        <v>131046861</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395518</v>
+        <v>395564</v>
       </c>
       <c r="R49" t="n">
-        <v>6804527</v>
+        <v>6804373</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046861</v>
+        <v>131033323</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395564</v>
+        <v>395680</v>
       </c>
       <c r="R50" t="n">
-        <v>6804373</v>
+        <v>6804541</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5954,22 +5954,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131033323</v>
+        <v>131033352</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395680</v>
+        <v>395857</v>
       </c>
       <c r="R51" t="n">
-        <v>6804541</v>
+        <v>6804292</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131033352</v>
+        <v>131046949</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395857</v>
+        <v>395463</v>
       </c>
       <c r="R52" t="n">
-        <v>6804292</v>
+        <v>6804534</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6168,22 +6168,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,7 +6210,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046949</v>
+        <v>131046948</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395463</v>
+        <v>395462</v>
       </c>
       <c r="R53" t="n">
-        <v>6804534</v>
+        <v>6804542</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,7 +6317,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046948</v>
+        <v>131046866</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395462</v>
+        <v>395542</v>
       </c>
       <c r="R54" t="n">
-        <v>6804542</v>
+        <v>6804432</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046880</v>
+        <v>131046869</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395491</v>
+        <v>395456</v>
       </c>
       <c r="R55" t="n">
-        <v>6804393</v>
+        <v>6804500</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046866</v>
+        <v>131046997</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395542</v>
+        <v>395518</v>
       </c>
       <c r="R57" t="n">
-        <v>6804432</v>
+        <v>6804527</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046869</v>
+        <v>131046880</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395456</v>
+        <v>395491</v>
       </c>
       <c r="R58" t="n">
-        <v>6804500</v>
+        <v>6804393</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6852,7 +6852,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046874</v>
+        <v>131046879</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395433</v>
+        <v>395482</v>
       </c>
       <c r="R59" t="n">
-        <v>6804469</v>
+        <v>6804421</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046879</v>
+        <v>131046874</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395482</v>
+        <v>395433</v>
       </c>
       <c r="R61" t="n">
-        <v>6804421</v>
+        <v>6804469</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7932,10 +7932,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131033295</v>
+        <v>131046993</v>
       </c>
       <c r="B69" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7943,39 +7943,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395744</v>
+        <v>395472</v>
       </c>
       <c r="R69" t="n">
-        <v>6804575</v>
+        <v>6804550</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8002,27 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8049,7 +8039,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033353</v>
+        <v>131046856</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8084,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395859</v>
+        <v>395564</v>
       </c>
       <c r="R70" t="n">
-        <v>6804312</v>
+        <v>6804311</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8114,22 +8104,22 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8156,7 +8146,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046856</v>
+        <v>131046877</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8191,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395564</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804311</v>
+        <v>6804442</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8226,7 +8216,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8236,7 +8226,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8263,32 +8253,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131033299</v>
+        <v>131033353</v>
       </c>
       <c r="B72" t="n">
-        <v>79267</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8298,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395890</v>
+        <v>395859</v>
       </c>
       <c r="R72" t="n">
-        <v>6804464</v>
+        <v>6804312</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8333,7 +8323,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8343,7 +8333,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8370,32 +8360,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046993</v>
+        <v>131033299</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>79267</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8405,10 +8395,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395472</v>
+        <v>395890</v>
       </c>
       <c r="R73" t="n">
-        <v>6804550</v>
+        <v>6804464</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8435,22 +8425,22 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8477,10 +8467,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046877</v>
+        <v>131033295</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8488,34 +8478,39 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395464</v>
+        <v>395744</v>
       </c>
       <c r="R74" t="n">
-        <v>6804442</v>
+        <v>6804575</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8542,22 +8537,27 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9761,10 +9761,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131033333</v>
+        <v>131047018</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9772,34 +9772,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395717</v>
+        <v>395509</v>
       </c>
       <c r="R86" t="n">
-        <v>6804542</v>
+        <v>6804287</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9826,29 +9831,34 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
       <c r="AE86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86" t="b">
         <v>0</v>
@@ -9868,7 +9878,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131047018</v>
+        <v>131033293</v>
       </c>
       <c r="B87" t="n">
         <v>57884</v>
@@ -9908,10 +9918,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395509</v>
+        <v>395668</v>
       </c>
       <c r="R87" t="n">
-        <v>6804287</v>
+        <v>6804432</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9938,34 +9948,34 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
       <c r="AE87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG87" t="b">
         <v>0</v>
@@ -10199,10 +10209,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131033293</v>
+        <v>131033333</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10210,39 +10220,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395668</v>
+        <v>395717</v>
       </c>
       <c r="R90" t="n">
-        <v>6804432</v>
+        <v>6804542</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10274,7 +10279,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10284,12 +10289,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>12:22</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046992</v>
+        <v>131046891</v>
       </c>
       <c r="B92" t="n">
         <v>79243</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395477</v>
+        <v>395453</v>
       </c>
       <c r="R92" t="n">
-        <v>6804563</v>
+        <v>6804400</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131033345</v>
+        <v>131046992</v>
       </c>
       <c r="B93" t="n">
         <v>79243</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395748</v>
+        <v>395477</v>
       </c>
       <c r="R93" t="n">
-        <v>6804429</v>
+        <v>6804563</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10595,22 +10595,22 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046950</v>
+        <v>131033345</v>
       </c>
       <c r="B94" t="n">
         <v>79243</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395470</v>
+        <v>395748</v>
       </c>
       <c r="R94" t="n">
-        <v>6804530</v>
+        <v>6804429</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10702,22 +10702,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046891</v>
+        <v>131046950</v>
       </c>
       <c r="B95" t="n">
         <v>79243</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395453</v>
+        <v>395470</v>
       </c>
       <c r="R95" t="n">
-        <v>6804400</v>
+        <v>6804530</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131033362</v>
+        <v>131046895</v>
       </c>
       <c r="B96" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,21 +10862,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10886,10 +10886,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395883</v>
+        <v>395436</v>
       </c>
       <c r="R96" t="n">
-        <v>6804433</v>
+        <v>6804436</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10916,22 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10958,7 +10958,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046895</v>
+        <v>131033332</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -10993,10 +10993,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395436</v>
+        <v>395641</v>
       </c>
       <c r="R97" t="n">
-        <v>6804436</v>
+        <v>6804509</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11023,22 +11023,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11065,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131033332</v>
+        <v>131033362</v>
       </c>
       <c r="B98" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11076,21 +11076,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11100,10 +11100,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395641</v>
+        <v>395883</v>
       </c>
       <c r="R98" t="n">
-        <v>6804509</v>
+        <v>6804433</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,34 +11524,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R102" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11593,14 +11598,19 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11620,10 +11630,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046876</v>
+        <v>131046796</v>
       </c>
       <c r="B103" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11631,21 +11641,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11655,10 +11665,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395457</v>
+        <v>395443</v>
       </c>
       <c r="R103" t="n">
-        <v>6804453</v>
+        <v>6804347</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11700,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11710,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11727,7 +11737,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131046890</v>
+        <v>131033349</v>
       </c>
       <c r="B104" t="n">
         <v>79243</v>
@@ -11762,10 +11772,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395440</v>
+        <v>395757</v>
       </c>
       <c r="R104" t="n">
-        <v>6804390</v>
+        <v>6804291</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11792,22 +11802,22 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11834,7 +11844,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131033349</v>
+        <v>131046952</v>
       </c>
       <c r="B105" t="n">
         <v>79243</v>
@@ -11869,10 +11879,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395757</v>
+        <v>395461</v>
       </c>
       <c r="R105" t="n">
-        <v>6804291</v>
+        <v>6804521</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11899,22 +11909,22 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11941,10 +11951,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131047017</v>
+        <v>131046951</v>
       </c>
       <c r="B106" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11952,39 +11962,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395448</v>
+        <v>395463</v>
       </c>
       <c r="R106" t="n">
-        <v>6804508</v>
+        <v>6804524</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12016,7 +12021,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12026,19 +12031,14 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD106" t="b">
         <v>0</v>
       </c>
       <c r="AE106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG106" t="b">
         <v>0</v>
@@ -12058,10 +12058,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046796</v>
+        <v>131046876</v>
       </c>
       <c r="B107" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12069,21 +12069,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12093,10 +12093,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395443</v>
+        <v>395457</v>
       </c>
       <c r="R107" t="n">
-        <v>6804347</v>
+        <v>6804453</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12165,7 +12165,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046951</v>
+        <v>131046890</v>
       </c>
       <c r="B108" t="n">
         <v>79243</v>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395463</v>
+        <v>395440</v>
       </c>
       <c r="R108" t="n">
-        <v>6804524</v>
+        <v>6804390</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD108" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046896</v>
+        <v>131046873</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395423</v>
+        <v>395430</v>
       </c>
       <c r="R4" t="n">
-        <v>6804458</v>
+        <v>6804474</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046872</v>
+        <v>131046803</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,21 +1012,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395434</v>
+        <v>395450</v>
       </c>
       <c r="R5" t="n">
-        <v>6804484</v>
+        <v>6804390</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046995</v>
+        <v>131046747</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1119,34 +1119,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395491</v>
+        <v>395480</v>
       </c>
       <c r="R6" t="n">
-        <v>6804522</v>
+        <v>6804496</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1183,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1193,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1220,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046873</v>
+        <v>131046790</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,34 +1231,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395430</v>
+        <v>395416</v>
       </c>
       <c r="R7" t="n">
-        <v>6804474</v>
+        <v>6804491</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1295,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1305,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1337,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046747</v>
+        <v>131046896</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,39 +1348,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395480</v>
+        <v>395423</v>
       </c>
       <c r="R8" t="n">
-        <v>6804496</v>
+        <v>6804458</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1407,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046790</v>
+        <v>131046872</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1445,39 +1455,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395416</v>
+        <v>395434</v>
       </c>
       <c r="R9" t="n">
-        <v>6804491</v>
+        <v>6804484</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,12 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046803</v>
+        <v>131046995</v>
       </c>
       <c r="B10" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,21 +1562,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395450</v>
+        <v>395491</v>
       </c>
       <c r="R10" t="n">
-        <v>6804390</v>
+        <v>6804522</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046749</v>
+        <v>131033342</v>
       </c>
       <c r="B11" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,39 +1669,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395449</v>
+        <v>395753</v>
       </c>
       <c r="R11" t="n">
-        <v>6804395</v>
+        <v>6804557</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,22 +1723,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,7 +1765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033342</v>
+        <v>131046884</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1805,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395753</v>
+        <v>395489</v>
       </c>
       <c r="R12" t="n">
-        <v>6804557</v>
+        <v>6804292</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1835,22 +1830,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,7 +1872,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046884</v>
+        <v>131046858</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1912,10 +1907,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395489</v>
+        <v>395570</v>
       </c>
       <c r="R13" t="n">
-        <v>6804292</v>
+        <v>6804341</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1947,7 +1942,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1957,7 +1952,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,32 +1979,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046858</v>
+        <v>131046807</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>83206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2019,10 +2014,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395570</v>
+        <v>395510</v>
       </c>
       <c r="R14" t="n">
-        <v>6804341</v>
+        <v>6804530</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2054,7 +2049,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2064,7 +2059,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,45 +2086,50 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046807</v>
+        <v>131046749</v>
       </c>
       <c r="B15" t="n">
-        <v>83206</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6439</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395510</v>
+        <v>395449</v>
       </c>
       <c r="R15" t="n">
-        <v>6804530</v>
+        <v>6804395</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046901</v>
+        <v>131046878</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395395</v>
+        <v>395478</v>
       </c>
       <c r="R17" t="n">
-        <v>6804547</v>
+        <v>6804426</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046955</v>
+        <v>131046868</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395432</v>
+        <v>395462</v>
       </c>
       <c r="R18" t="n">
-        <v>6804533</v>
+        <v>6804496</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,10 +2519,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046868</v>
+        <v>131033283</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2530,21 +2530,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395462</v>
+        <v>395745</v>
       </c>
       <c r="R19" t="n">
-        <v>6804496</v>
+        <v>6804404</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,22 +2584,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,7 +2626,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131033348</v>
+        <v>131046901</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395756</v>
+        <v>395395</v>
       </c>
       <c r="R20" t="n">
-        <v>6804343</v>
+        <v>6804547</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131033283</v>
+        <v>131046955</v>
       </c>
       <c r="B21" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2744,21 +2744,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395745</v>
+        <v>395432</v>
       </c>
       <c r="R21" t="n">
-        <v>6804404</v>
+        <v>6804533</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,22 +2798,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,7 +2840,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046878</v>
+        <v>131033348</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395478</v>
+        <v>395756</v>
       </c>
       <c r="R22" t="n">
-        <v>6804426</v>
+        <v>6804343</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033294</v>
+        <v>131033324</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,39 +3195,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395714</v>
+        <v>395676</v>
       </c>
       <c r="R25" t="n">
-        <v>6804552</v>
+        <v>6804490</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3259,7 +3254,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3269,12 +3264,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3301,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033302</v>
+        <v>131033294</v>
       </c>
       <c r="B26" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3312,34 +3302,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395679</v>
+        <v>395714</v>
       </c>
       <c r="R26" t="n">
-        <v>6804524</v>
+        <v>6804552</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3371,7 +3366,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3381,7 +3376,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3408,7 +3408,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033324</v>
+        <v>131033344</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395676</v>
+        <v>395753</v>
       </c>
       <c r="R27" t="n">
-        <v>6804490</v>
+        <v>6804482</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3622,10 +3622,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131033344</v>
+        <v>131033302</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3633,21 +3633,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395753</v>
+        <v>395679</v>
       </c>
       <c r="R29" t="n">
-        <v>6804482</v>
+        <v>6804524</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046885</v>
+        <v>131046956</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395486</v>
+        <v>395418</v>
       </c>
       <c r="R30" t="n">
-        <v>6804289</v>
+        <v>6804552</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046956</v>
+        <v>131046994</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395418</v>
+        <v>395484</v>
       </c>
       <c r="R31" t="n">
-        <v>6804552</v>
+        <v>6804534</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046892</v>
+        <v>131046885</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395445</v>
+        <v>395486</v>
       </c>
       <c r="R32" t="n">
-        <v>6804404</v>
+        <v>6804289</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4050,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046898</v>
+        <v>131046892</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395393</v>
+        <v>395445</v>
       </c>
       <c r="R33" t="n">
-        <v>6804503</v>
+        <v>6804404</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046998</v>
+        <v>131046898</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395494</v>
+        <v>395393</v>
       </c>
       <c r="R34" t="n">
-        <v>6804551</v>
+        <v>6804503</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,7 +4264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046994</v>
+        <v>131046998</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4299,10 +4299,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395484</v>
+        <v>395494</v>
       </c>
       <c r="R35" t="n">
-        <v>6804534</v>
+        <v>6804551</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4911,7 +4911,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131033346</v>
+        <v>131033334</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395744</v>
+        <v>395718</v>
       </c>
       <c r="R41" t="n">
-        <v>6804417</v>
+        <v>6804558</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5018,7 +5018,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046859</v>
+        <v>131046881</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5053,10 +5053,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395566</v>
+        <v>395494</v>
       </c>
       <c r="R42" t="n">
-        <v>6804349</v>
+        <v>6804395</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5125,7 +5125,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131033334</v>
+        <v>131033346</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5160,10 +5160,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395718</v>
+        <v>395744</v>
       </c>
       <c r="R43" t="n">
-        <v>6804558</v>
+        <v>6804417</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5232,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046881</v>
+        <v>131046805</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5243,21 +5243,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5267,10 +5267,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395494</v>
+        <v>395461</v>
       </c>
       <c r="R44" t="n">
-        <v>6804395</v>
+        <v>6804539</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5339,10 +5339,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046805</v>
+        <v>131046748</v>
       </c>
       <c r="B45" t="n">
-        <v>79000</v>
+        <v>57881</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5350,34 +5350,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395461</v>
+        <v>395453</v>
       </c>
       <c r="R45" t="n">
-        <v>6804539</v>
+        <v>6804322</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5409,7 +5414,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5419,7 +5424,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5446,10 +5451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046748</v>
+        <v>131046859</v>
       </c>
       <c r="B46" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5457,39 +5462,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395453</v>
+        <v>395566</v>
       </c>
       <c r="R46" t="n">
-        <v>6804322</v>
+        <v>6804349</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5782,7 +5782,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046861</v>
+        <v>131046997</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395564</v>
+        <v>395518</v>
       </c>
       <c r="R49" t="n">
-        <v>6804373</v>
+        <v>6804527</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131033323</v>
+        <v>131046861</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395680</v>
+        <v>395564</v>
       </c>
       <c r="R50" t="n">
-        <v>6804541</v>
+        <v>6804373</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5954,22 +5954,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,10 +5996,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131033352</v>
+        <v>131046712</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6007,21 +6007,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395857</v>
+        <v>395468</v>
       </c>
       <c r="R51" t="n">
-        <v>6804292</v>
+        <v>6804494</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046869</v>
+        <v>131046880</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395456</v>
+        <v>395491</v>
       </c>
       <c r="R55" t="n">
-        <v>6804500</v>
+        <v>6804393</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,10 +6531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046712</v>
+        <v>131046869</v>
       </c>
       <c r="B56" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6542,21 +6542,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395468</v>
+        <v>395456</v>
       </c>
       <c r="R56" t="n">
-        <v>6804494</v>
+        <v>6804500</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046997</v>
+        <v>131033323</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395518</v>
+        <v>395680</v>
       </c>
       <c r="R57" t="n">
-        <v>6804527</v>
+        <v>6804541</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6703,22 +6703,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046880</v>
+        <v>131033352</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395491</v>
+        <v>395857</v>
       </c>
       <c r="R58" t="n">
-        <v>6804393</v>
+        <v>6804292</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6810,22 +6810,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6959,7 +6959,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046888</v>
+        <v>131046874</v>
       </c>
       <c r="B60" t="n">
         <v>79243</v>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395436</v>
+        <v>395433</v>
       </c>
       <c r="R60" t="n">
-        <v>6804373</v>
+        <v>6804469</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046874</v>
+        <v>131046888</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395433</v>
+        <v>395436</v>
       </c>
       <c r="R61" t="n">
-        <v>6804469</v>
+        <v>6804373</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033321</v>
+        <v>131046789</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7291,34 +7291,39 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395718</v>
+        <v>395495</v>
       </c>
       <c r="R63" t="n">
-        <v>6804573</v>
+        <v>6804385</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7345,22 +7350,27 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,7 +7397,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046996</v>
+        <v>131033321</v>
       </c>
       <c r="B64" t="n">
         <v>79243</v>
@@ -7422,10 +7432,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395485</v>
+        <v>395718</v>
       </c>
       <c r="R64" t="n">
-        <v>6804506</v>
+        <v>6804573</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7452,22 +7462,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7815,10 +7825,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046789</v>
+        <v>131046996</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7826,39 +7836,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395495</v>
+        <v>395485</v>
       </c>
       <c r="R68" t="n">
-        <v>6804385</v>
+        <v>6804506</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7890,7 +7895,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7900,12 +7905,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7932,32 +7932,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046993</v>
+        <v>131033299</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>79267</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395472</v>
+        <v>395890</v>
       </c>
       <c r="R69" t="n">
-        <v>6804550</v>
+        <v>6804464</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,7 +8039,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046856</v>
+        <v>131046993</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8074,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395564</v>
+        <v>395472</v>
       </c>
       <c r="R70" t="n">
-        <v>6804311</v>
+        <v>6804550</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8146,7 +8146,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046877</v>
+        <v>131046856</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8181,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395564</v>
       </c>
       <c r="R71" t="n">
-        <v>6804442</v>
+        <v>6804311</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8253,7 +8253,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131033353</v>
+        <v>131046877</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8288,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395859</v>
+        <v>395464</v>
       </c>
       <c r="R72" t="n">
-        <v>6804312</v>
+        <v>6804442</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8318,22 +8318,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8360,45 +8360,50 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131033299</v>
+        <v>131033295</v>
       </c>
       <c r="B73" t="n">
-        <v>79267</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6434</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395890</v>
+        <v>395744</v>
       </c>
       <c r="R73" t="n">
-        <v>6804464</v>
+        <v>6804575</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8430,7 +8435,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8440,7 +8445,12 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8467,10 +8477,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131033295</v>
+        <v>131033353</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8478,39 +8488,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395744</v>
+        <v>395859</v>
       </c>
       <c r="R74" t="n">
-        <v>6804575</v>
+        <v>6804312</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8542,7 +8547,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8552,12 +8557,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,10 +8584,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046865</v>
+        <v>131033303</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8595,21 +8595,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395546</v>
+        <v>395706</v>
       </c>
       <c r="R75" t="n">
-        <v>6804405</v>
+        <v>6804535</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8649,22 +8649,22 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046886</v>
+        <v>131046865</v>
       </c>
       <c r="B76" t="n">
         <v>79243</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395447</v>
+        <v>395546</v>
       </c>
       <c r="R76" t="n">
-        <v>6804315</v>
+        <v>6804405</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046862</v>
+        <v>131046886</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395554</v>
+        <v>395447</v>
       </c>
       <c r="R77" t="n">
-        <v>6804375</v>
+        <v>6804315</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8905,10 +8905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131033303</v>
+        <v>131046862</v>
       </c>
       <c r="B78" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8916,21 +8916,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395706</v>
+        <v>395554</v>
       </c>
       <c r="R78" t="n">
-        <v>6804535</v>
+        <v>6804375</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8970,22 +8970,22 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9012,7 +9012,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046854</v>
+        <v>131033330</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395579</v>
+        <v>395702</v>
       </c>
       <c r="R79" t="n">
-        <v>6804294</v>
+        <v>6804325</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9077,22 +9077,22 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9119,7 +9119,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131033330</v>
+        <v>131033322</v>
       </c>
       <c r="B80" t="n">
         <v>79243</v>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395702</v>
+        <v>395692</v>
       </c>
       <c r="R80" t="n">
-        <v>6804325</v>
+        <v>6804550</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131033322</v>
+        <v>131046854</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395692</v>
+        <v>395579</v>
       </c>
       <c r="R81" t="n">
-        <v>6804550</v>
+        <v>6804294</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9761,10 +9761,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131047018</v>
+        <v>131033333</v>
       </c>
       <c r="B86" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9772,39 +9772,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395509</v>
+        <v>395717</v>
       </c>
       <c r="R86" t="n">
-        <v>6804287</v>
+        <v>6804542</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9831,34 +9826,29 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
       <c r="AE86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG86" t="b">
         <v>0</v>
@@ -9878,10 +9868,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131033293</v>
+        <v>131046860</v>
       </c>
       <c r="B87" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9889,39 +9879,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395668</v>
+        <v>395578</v>
       </c>
       <c r="R87" t="n">
-        <v>6804432</v>
+        <v>6804350</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9948,27 +9933,22 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:22</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9995,10 +9975,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046902</v>
+        <v>131047018</v>
       </c>
       <c r="B88" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10006,34 +9986,39 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395389</v>
+        <v>395509</v>
       </c>
       <c r="R88" t="n">
-        <v>6804555</v>
+        <v>6804287</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10065,7 +10050,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10075,14 +10060,19 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
       <c r="AE88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG88" t="b">
         <v>0</v>
@@ -10102,10 +10092,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046860</v>
+        <v>131033293</v>
       </c>
       <c r="B89" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10113,34 +10103,39 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395578</v>
+        <v>395668</v>
       </c>
       <c r="R89" t="n">
-        <v>6804350</v>
+        <v>6804432</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10167,22 +10162,27 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10209,7 +10209,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131033333</v>
+        <v>131046902</v>
       </c>
       <c r="B90" t="n">
         <v>79243</v>
@@ -10244,10 +10244,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395717</v>
+        <v>395389</v>
       </c>
       <c r="R90" t="n">
-        <v>6804542</v>
+        <v>6804555</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10274,22 +10274,22 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046870</v>
+        <v>131046950</v>
       </c>
       <c r="B91" t="n">
         <v>79243</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395450</v>
+        <v>395470</v>
       </c>
       <c r="R91" t="n">
-        <v>6804507</v>
+        <v>6804530</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046891</v>
+        <v>131046870</v>
       </c>
       <c r="B92" t="n">
         <v>79243</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395453</v>
+        <v>395450</v>
       </c>
       <c r="R92" t="n">
-        <v>6804400</v>
+        <v>6804507</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046992</v>
+        <v>131046891</v>
       </c>
       <c r="B93" t="n">
         <v>79243</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395477</v>
+        <v>395453</v>
       </c>
       <c r="R93" t="n">
-        <v>6804563</v>
+        <v>6804400</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131033345</v>
+        <v>131046992</v>
       </c>
       <c r="B94" t="n">
         <v>79243</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395748</v>
+        <v>395477</v>
       </c>
       <c r="R94" t="n">
-        <v>6804429</v>
+        <v>6804563</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10702,22 +10702,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046950</v>
+        <v>131033345</v>
       </c>
       <c r="B95" t="n">
         <v>79243</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395470</v>
+        <v>395748</v>
       </c>
       <c r="R95" t="n">
-        <v>6804530</v>
+        <v>6804429</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046895</v>
+        <v>131033362</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,21 +10862,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10886,10 +10886,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395436</v>
+        <v>395883</v>
       </c>
       <c r="R96" t="n">
-        <v>6804436</v>
+        <v>6804433</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10916,22 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11065,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131033362</v>
+        <v>131046780</v>
       </c>
       <c r="B98" t="n">
-        <v>78909</v>
+        <v>57884</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11076,34 +11076,39 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>353</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395883</v>
+        <v>395470</v>
       </c>
       <c r="R98" t="n">
-        <v>6804433</v>
+        <v>6804530</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11130,22 +11135,27 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,10 +11182,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046887</v>
+        <v>131047019</v>
       </c>
       <c r="B99" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11183,34 +11193,39 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395449</v>
+        <v>395446</v>
       </c>
       <c r="R99" t="n">
-        <v>6804334</v>
+        <v>6804531</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11242,7 +11257,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11252,14 +11267,19 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG99" t="b">
         <v>0</v>
@@ -11279,10 +11299,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046780</v>
+        <v>131046895</v>
       </c>
       <c r="B100" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11290,39 +11310,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395470</v>
+        <v>395436</v>
       </c>
       <c r="R100" t="n">
-        <v>6804530</v>
+        <v>6804436</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11354,7 +11369,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11364,12 +11379,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11396,10 +11406,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131047019</v>
+        <v>131046887</v>
       </c>
       <c r="B101" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11407,39 +11417,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395446</v>
+        <v>395449</v>
       </c>
       <c r="R101" t="n">
-        <v>6804531</v>
+        <v>6804334</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,7 +11476,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11481,19 +11486,14 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131047017</v>
+        <v>131046952</v>
       </c>
       <c r="B102" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,39 +11524,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395448</v>
+        <v>395461</v>
       </c>
       <c r="R102" t="n">
-        <v>6804508</v>
+        <v>6804521</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11588,7 +11583,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11598,19 +11593,14 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11630,10 +11620,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B103" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11641,21 +11631,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11665,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R103" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11700,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11710,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11844,10 +11834,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B105" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11855,34 +11845,39 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R105" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11914,7 +11909,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -11924,14 +11919,19 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD105" t="b">
         <v>0</v>
       </c>
       <c r="AE105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG105" t="b">
         <v>0</v>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046890</v>
+        <v>131046796</v>
       </c>
       <c r="B108" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395440</v>
+        <v>395443</v>
       </c>
       <c r="R108" t="n">
-        <v>6804390</v>
+        <v>6804347</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD108" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046875</v>
+        <v>131046947</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395444</v>
+        <v>395461</v>
       </c>
       <c r="R2" t="n">
-        <v>6804461</v>
+        <v>6804551</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046947</v>
+        <v>131046873</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395461</v>
+        <v>395430</v>
       </c>
       <c r="R3" t="n">
-        <v>6804551</v>
+        <v>6804474</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046873</v>
+        <v>131046995</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395430</v>
+        <v>395491</v>
       </c>
       <c r="R4" t="n">
-        <v>6804474</v>
+        <v>6804522</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,7 +1004,7 @@
         <v>131046803</v>
       </c>
       <c r="B5" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046747</v>
+        <v>131046875</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1119,39 +1119,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395480</v>
+        <v>395444</v>
       </c>
       <c r="R6" t="n">
-        <v>6804496</v>
+        <v>6804461</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1183,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1193,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1220,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046790</v>
+        <v>131046896</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,39 +1226,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395416</v>
+        <v>395423</v>
       </c>
       <c r="R7" t="n">
-        <v>6804491</v>
+        <v>6804458</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1295,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1305,12 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1337,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046896</v>
+        <v>131046747</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1348,34 +1333,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395423</v>
+        <v>395480</v>
       </c>
       <c r="R8" t="n">
-        <v>6804458</v>
+        <v>6804496</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1397,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1407,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046872</v>
+        <v>131046790</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,34 +1445,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395434</v>
+        <v>395416</v>
       </c>
       <c r="R9" t="n">
-        <v>6804484</v>
+        <v>6804491</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1519,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046995</v>
+        <v>131046872</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395491</v>
+        <v>395434</v>
       </c>
       <c r="R10" t="n">
-        <v>6804522</v>
+        <v>6804484</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033342</v>
+        <v>131046884</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395753</v>
+        <v>395489</v>
       </c>
       <c r="R11" t="n">
-        <v>6804557</v>
+        <v>6804292</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,22 +1723,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,10 +1765,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046884</v>
+        <v>131033342</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395489</v>
+        <v>395753</v>
       </c>
       <c r="R12" t="n">
-        <v>6804292</v>
+        <v>6804557</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,22 +1830,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1875,7 +1875,7 @@
         <v>131046858</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>131046807</v>
       </c>
       <c r="B14" t="n">
-        <v>83206</v>
+        <v>83207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033331</v>
+        <v>131046955</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395707</v>
+        <v>395432</v>
       </c>
       <c r="R16" t="n">
-        <v>6804307</v>
+        <v>6804533</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2263,22 +2263,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2308,7 +2308,7 @@
         <v>131046878</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>131046868</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033283</v>
+        <v>131033348</v>
       </c>
       <c r="B19" t="n">
-        <v>79275</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2530,21 +2530,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395745</v>
+        <v>395756</v>
       </c>
       <c r="R19" t="n">
-        <v>6804404</v>
+        <v>6804343</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,10 +2626,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046901</v>
+        <v>131033331</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395395</v>
+        <v>395707</v>
       </c>
       <c r="R20" t="n">
-        <v>6804547</v>
+        <v>6804307</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,10 +2733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046955</v>
+        <v>131046901</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395432</v>
+        <v>395395</v>
       </c>
       <c r="R21" t="n">
-        <v>6804533</v>
+        <v>6804547</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,10 +2840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131033348</v>
+        <v>131046777</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2851,34 +2851,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395756</v>
+        <v>395435</v>
       </c>
       <c r="R22" t="n">
-        <v>6804343</v>
+        <v>6804481</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,22 +2910,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2947,7 +2957,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046777</v>
+        <v>131047009</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2976,21 +2986,24 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395435</v>
+        <v>395494</v>
       </c>
       <c r="R23" t="n">
-        <v>6804481</v>
+        <v>6804551</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3022,7 +3035,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3032,12 +3045,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3064,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131047009</v>
+        <v>131033283</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79276</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,42 +3088,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395494</v>
+        <v>395745</v>
       </c>
       <c r="R24" t="n">
-        <v>6804551</v>
+        <v>6804404</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3137,27 +3142,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033324</v>
+        <v>131046894</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395676</v>
+        <v>395429</v>
       </c>
       <c r="R25" t="n">
-        <v>6804490</v>
+        <v>6804421</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,22 +3249,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033294</v>
+        <v>131033344</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,39 +3302,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395714</v>
+        <v>395753</v>
       </c>
       <c r="R26" t="n">
-        <v>6804552</v>
+        <v>6804482</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3366,7 +3361,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3376,12 +3371,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3408,10 +3398,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033344</v>
+        <v>131033324</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3443,10 +3433,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395753</v>
+        <v>395676</v>
       </c>
       <c r="R27" t="n">
-        <v>6804482</v>
+        <v>6804490</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3478,7 +3468,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3488,7 +3478,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3515,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046894</v>
+        <v>131033294</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3526,34 +3516,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395429</v>
+        <v>395714</v>
       </c>
       <c r="R28" t="n">
-        <v>6804421</v>
+        <v>6804552</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3580,22 +3575,27 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3625,7 +3625,7 @@
         <v>131033302</v>
       </c>
       <c r="B29" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046956</v>
+        <v>131046994</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395418</v>
+        <v>395484</v>
       </c>
       <c r="R30" t="n">
-        <v>6804552</v>
+        <v>6804534</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,10 +3836,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046994</v>
+        <v>131046885</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395484</v>
+        <v>395486</v>
       </c>
       <c r="R31" t="n">
-        <v>6804534</v>
+        <v>6804289</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,10 +3943,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046885</v>
+        <v>131046956</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395486</v>
+        <v>395418</v>
       </c>
       <c r="R32" t="n">
-        <v>6804289</v>
+        <v>6804552</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4053,7 +4053,7 @@
         <v>131046892</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>131046898</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>131046998</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>131046855</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>131046897</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>131033347</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046999</v>
+        <v>131033334</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395485</v>
+        <v>395718</v>
       </c>
       <c r="R40" t="n">
-        <v>6804561</v>
+        <v>6804558</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4869,22 +4869,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4911,10 +4911,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131033334</v>
+        <v>131046881</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395718</v>
+        <v>395494</v>
       </c>
       <c r="R41" t="n">
-        <v>6804558</v>
+        <v>6804395</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4976,22 +4976,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5018,10 +5018,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046881</v>
+        <v>131046999</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5053,10 +5053,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395494</v>
+        <v>395485</v>
       </c>
       <c r="R42" t="n">
-        <v>6804395</v>
+        <v>6804561</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5128,7 +5128,7 @@
         <v>131033346</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046805</v>
+        <v>131046859</v>
       </c>
       <c r="B44" t="n">
-        <v>79000</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5243,21 +5243,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5267,10 +5267,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395461</v>
+        <v>395566</v>
       </c>
       <c r="R44" t="n">
-        <v>6804539</v>
+        <v>6804349</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5339,10 +5339,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046748</v>
+        <v>131033288</v>
       </c>
       <c r="B45" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5350,16 +5350,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395453</v>
+        <v>395651</v>
       </c>
       <c r="R45" t="n">
-        <v>6804322</v>
+        <v>6804457</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5409,22 +5409,27 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5451,10 +5456,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046859</v>
+        <v>131046805</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5462,21 +5467,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5486,10 +5491,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395566</v>
+        <v>395461</v>
       </c>
       <c r="R46" t="n">
-        <v>6804349</v>
+        <v>6804539</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5521,7 +5526,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5531,7 +5536,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5558,10 +5563,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131033288</v>
+        <v>131046748</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5569,16 +5574,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5598,10 +5603,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395651</v>
+        <v>395453</v>
       </c>
       <c r="R47" t="n">
-        <v>6804457</v>
+        <v>6804322</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5628,27 +5633,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5675,10 +5675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046954</v>
+        <v>131046997</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395446</v>
+        <v>395518</v>
       </c>
       <c r="R48" t="n">
-        <v>6804531</v>
+        <v>6804527</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046997</v>
+        <v>131046954</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395518</v>
+        <v>395446</v>
       </c>
       <c r="R49" t="n">
-        <v>6804527</v>
+        <v>6804531</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5892,7 +5892,7 @@
         <v>131046861</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5996,10 +5996,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046712</v>
+        <v>131033352</v>
       </c>
       <c r="B51" t="n">
-        <v>83223</v>
+        <v>79244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6007,21 +6007,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395468</v>
+        <v>395857</v>
       </c>
       <c r="R51" t="n">
-        <v>6804494</v>
+        <v>6804292</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,10 +6103,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046949</v>
+        <v>131046948</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395463</v>
+        <v>395462</v>
       </c>
       <c r="R52" t="n">
-        <v>6804534</v>
+        <v>6804542</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,10 +6210,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046948</v>
+        <v>131046866</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395462</v>
+        <v>395542</v>
       </c>
       <c r="R53" t="n">
-        <v>6804542</v>
+        <v>6804432</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,10 +6317,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046866</v>
+        <v>131046869</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395542</v>
+        <v>395456</v>
       </c>
       <c r="R54" t="n">
-        <v>6804432</v>
+        <v>6804500</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,10 +6424,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046880</v>
+        <v>131033323</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395491</v>
+        <v>395680</v>
       </c>
       <c r="R55" t="n">
-        <v>6804393</v>
+        <v>6804541</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6489,22 +6489,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,10 +6531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046869</v>
+        <v>131046712</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>83224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6542,21 +6542,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395456</v>
+        <v>395468</v>
       </c>
       <c r="R56" t="n">
-        <v>6804500</v>
+        <v>6804494</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131033323</v>
+        <v>131046949</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395680</v>
+        <v>395463</v>
       </c>
       <c r="R57" t="n">
-        <v>6804541</v>
+        <v>6804534</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6703,22 +6703,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,10 +6745,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131033352</v>
+        <v>131046880</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395857</v>
+        <v>395491</v>
       </c>
       <c r="R58" t="n">
-        <v>6804292</v>
+        <v>6804393</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6810,22 +6810,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6855,7 +6855,7 @@
         <v>131046879</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>131046874</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7066,10 +7066,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046888</v>
+        <v>131046713</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>83224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7077,21 +7077,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395436</v>
+        <v>395454</v>
       </c>
       <c r="R61" t="n">
-        <v>6804373</v>
+        <v>6804501</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,10 +7173,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046713</v>
+        <v>131046888</v>
       </c>
       <c r="B62" t="n">
-        <v>83223</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7184,21 +7184,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395454</v>
+        <v>395436</v>
       </c>
       <c r="R62" t="n">
-        <v>6804501</v>
+        <v>6804373</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046789</v>
+        <v>131033321</v>
       </c>
       <c r="B63" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7291,39 +7291,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395495</v>
+        <v>395718</v>
       </c>
       <c r="R63" t="n">
-        <v>6804385</v>
+        <v>6804573</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7350,27 +7345,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7397,10 +7387,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131033321</v>
+        <v>131046882</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7432,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395718</v>
+        <v>395493</v>
       </c>
       <c r="R64" t="n">
-        <v>6804573</v>
+        <v>6804376</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7462,22 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7504,10 +7494,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046882</v>
+        <v>131033327</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7539,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395493</v>
+        <v>395671</v>
       </c>
       <c r="R65" t="n">
-        <v>6804376</v>
+        <v>6804435</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7569,22 +7559,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7611,10 +7601,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131033327</v>
+        <v>131046996</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7646,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395671</v>
+        <v>395485</v>
       </c>
       <c r="R66" t="n">
-        <v>6804435</v>
+        <v>6804506</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7676,22 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7721,7 +7711,7 @@
         <v>131033326</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7825,10 +7815,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046996</v>
+        <v>131046789</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7836,34 +7826,39 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395485</v>
+        <v>395495</v>
       </c>
       <c r="R68" t="n">
-        <v>6804506</v>
+        <v>6804385</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7895,7 +7890,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7905,7 +7900,12 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7932,32 +7932,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131033299</v>
+        <v>131046993</v>
       </c>
       <c r="B69" t="n">
-        <v>79267</v>
+        <v>79244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395890</v>
+        <v>395472</v>
       </c>
       <c r="R69" t="n">
-        <v>6804464</v>
+        <v>6804550</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,10 +8039,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046993</v>
+        <v>131033353</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8074,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395472</v>
+        <v>395859</v>
       </c>
       <c r="R70" t="n">
-        <v>6804550</v>
+        <v>6804312</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8104,22 +8104,22 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8146,10 +8146,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046856</v>
+        <v>131046877</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8181,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395564</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804311</v>
+        <v>6804442</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8253,32 +8253,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046877</v>
+        <v>131033299</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>79268</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8288,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395464</v>
+        <v>395890</v>
       </c>
       <c r="R72" t="n">
-        <v>6804442</v>
+        <v>6804464</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8318,22 +8318,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8360,10 +8360,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131033295</v>
+        <v>131046856</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8371,39 +8371,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395744</v>
+        <v>395564</v>
       </c>
       <c r="R73" t="n">
-        <v>6804575</v>
+        <v>6804311</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8430,27 +8425,22 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8477,10 +8467,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131033353</v>
+        <v>131033295</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8488,34 +8478,39 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395859</v>
+        <v>395744</v>
       </c>
       <c r="R74" t="n">
-        <v>6804312</v>
+        <v>6804575</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8547,7 +8542,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8557,7 +8552,12 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,10 +8584,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131033303</v>
+        <v>131046886</v>
       </c>
       <c r="B75" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8595,21 +8595,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395706</v>
+        <v>395447</v>
       </c>
       <c r="R75" t="n">
-        <v>6804535</v>
+        <v>6804315</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8649,22 +8649,22 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,10 +8691,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046865</v>
+        <v>131046862</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395546</v>
+        <v>395554</v>
       </c>
       <c r="R76" t="n">
-        <v>6804405</v>
+        <v>6804375</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,10 +8798,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046886</v>
+        <v>131046865</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395447</v>
+        <v>395546</v>
       </c>
       <c r="R77" t="n">
-        <v>6804315</v>
+        <v>6804405</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8905,10 +8905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046862</v>
+        <v>131033303</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>79002</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8916,21 +8916,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395554</v>
+        <v>395706</v>
       </c>
       <c r="R78" t="n">
-        <v>6804375</v>
+        <v>6804535</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8970,22 +8970,22 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9012,10 +9012,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131033330</v>
+        <v>131046854</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395702</v>
+        <v>395579</v>
       </c>
       <c r="R79" t="n">
-        <v>6804325</v>
+        <v>6804294</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9077,22 +9077,22 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9119,10 +9119,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131033322</v>
+        <v>131033330</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395692</v>
+        <v>395702</v>
       </c>
       <c r="R80" t="n">
-        <v>6804550</v>
+        <v>6804325</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,10 +9226,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046854</v>
+        <v>131033322</v>
       </c>
       <c r="B81" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395579</v>
+        <v>395692</v>
       </c>
       <c r="R81" t="n">
-        <v>6804294</v>
+        <v>6804550</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9336,7 +9336,7 @@
         <v>131046883</v>
       </c>
       <c r="B82" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>131046889</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>131046857</v>
       </c>
       <c r="B84" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>131046893</v>
       </c>
       <c r="B85" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9761,10 +9761,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131033333</v>
+        <v>131046860</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9796,10 +9796,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395717</v>
+        <v>395578</v>
       </c>
       <c r="R86" t="n">
-        <v>6804542</v>
+        <v>6804350</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9826,22 +9826,22 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9868,10 +9868,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046860</v>
+        <v>131033333</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9903,10 +9903,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395578</v>
+        <v>395717</v>
       </c>
       <c r="R87" t="n">
-        <v>6804350</v>
+        <v>6804542</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9933,22 +9933,22 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9975,10 +9975,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131047018</v>
+        <v>131046902</v>
       </c>
       <c r="B88" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9986,39 +9986,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395509</v>
+        <v>395389</v>
       </c>
       <c r="R88" t="n">
-        <v>6804287</v>
+        <v>6804555</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10050,7 +10045,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10060,19 +10055,14 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
       <c r="AE88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG88" t="b">
         <v>0</v>
@@ -10092,7 +10082,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131033293</v>
+        <v>131047018</v>
       </c>
       <c r="B89" t="n">
         <v>57884</v>
@@ -10132,10 +10122,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395668</v>
+        <v>395509</v>
       </c>
       <c r="R89" t="n">
-        <v>6804432</v>
+        <v>6804287</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10162,34 +10152,34 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG89" t="b">
         <v>0</v>
@@ -10209,10 +10199,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046902</v>
+        <v>131033293</v>
       </c>
       <c r="B90" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10220,34 +10210,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395389</v>
+        <v>395668</v>
       </c>
       <c r="R90" t="n">
-        <v>6804555</v>
+        <v>6804432</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10274,22 +10269,27 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10319,7 +10319,7 @@
         <v>131046950</v>
       </c>
       <c r="B91" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046870</v>
+        <v>131046891</v>
       </c>
       <c r="B92" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395450</v>
+        <v>395453</v>
       </c>
       <c r="R92" t="n">
-        <v>6804507</v>
+        <v>6804400</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,10 +10530,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046891</v>
+        <v>131033345</v>
       </c>
       <c r="B93" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395453</v>
+        <v>395748</v>
       </c>
       <c r="R93" t="n">
-        <v>6804400</v>
+        <v>6804429</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10595,22 +10595,22 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,10 +10637,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046992</v>
+        <v>131046870</v>
       </c>
       <c r="B94" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395477</v>
+        <v>395450</v>
       </c>
       <c r="R94" t="n">
-        <v>6804563</v>
+        <v>6804507</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,10 +10744,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131033345</v>
+        <v>131046992</v>
       </c>
       <c r="B95" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395748</v>
+        <v>395477</v>
       </c>
       <c r="R95" t="n">
-        <v>6804429</v>
+        <v>6804563</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10854,7 +10854,7 @@
         <v>131033362</v>
       </c>
       <c r="B96" t="n">
-        <v>78909</v>
+        <v>78910</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>131033332</v>
       </c>
       <c r="B97" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11065,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046780</v>
+        <v>131046895</v>
       </c>
       <c r="B98" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11076,39 +11076,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395470</v>
+        <v>395436</v>
       </c>
       <c r="R98" t="n">
-        <v>6804530</v>
+        <v>6804436</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11140,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11150,12 +11145,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11182,10 +11172,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131047019</v>
+        <v>131046887</v>
       </c>
       <c r="B99" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11193,39 +11183,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395446</v>
+        <v>395449</v>
       </c>
       <c r="R99" t="n">
-        <v>6804531</v>
+        <v>6804334</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11257,7 +11242,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11267,19 +11252,14 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG99" t="b">
         <v>0</v>
@@ -11299,10 +11279,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046895</v>
+        <v>131046780</v>
       </c>
       <c r="B100" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11310,34 +11290,39 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395436</v>
+        <v>395470</v>
       </c>
       <c r="R100" t="n">
-        <v>6804436</v>
+        <v>6804530</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11369,7 +11354,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11379,7 +11364,12 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11406,10 +11396,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046887</v>
+        <v>131047019</v>
       </c>
       <c r="B101" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11417,34 +11407,39 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395449</v>
+        <v>395446</v>
       </c>
       <c r="R101" t="n">
-        <v>6804334</v>
+        <v>6804531</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11476,7 +11471,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11486,14 +11481,19 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,34 +11524,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R102" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11593,14 +11598,19 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11620,10 +11630,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046890</v>
+        <v>131046796</v>
       </c>
       <c r="B103" t="n">
-        <v>79243</v>
+        <v>79002</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11631,21 +11641,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11655,10 +11665,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395440</v>
+        <v>395443</v>
       </c>
       <c r="R103" t="n">
-        <v>6804390</v>
+        <v>6804347</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11700,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11710,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11727,10 +11737,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131033349</v>
+        <v>131046951</v>
       </c>
       <c r="B104" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11762,10 +11772,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395757</v>
+        <v>395463</v>
       </c>
       <c r="R104" t="n">
-        <v>6804291</v>
+        <v>6804524</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11792,22 +11802,22 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11834,10 +11844,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131047017</v>
+        <v>131033349</v>
       </c>
       <c r="B105" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11845,39 +11855,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395448</v>
+        <v>395757</v>
       </c>
       <c r="R105" t="n">
-        <v>6804508</v>
+        <v>6804291</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11904,34 +11909,29 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD105" t="b">
         <v>0</v>
       </c>
       <c r="AE105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG105" t="b">
         <v>0</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046951</v>
+        <v>131046952</v>
       </c>
       <c r="B106" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395463</v>
+        <v>395461</v>
       </c>
       <c r="R106" t="n">
-        <v>6804524</v>
+        <v>6804521</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12061,7 +12061,7 @@
         <v>131046876</v>
       </c>
       <c r="B107" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B108" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R108" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12275,7 +12275,7 @@
         <v>131046903</v>
       </c>
       <c r="B109" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12379,10 +12379,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046957</v>
+        <v>131033341</v>
       </c>
       <c r="B110" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395414</v>
+        <v>395797</v>
       </c>
       <c r="R110" t="n">
-        <v>6804565</v>
+        <v>6804591</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,10 +12486,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131033341</v>
+        <v>131046957</v>
       </c>
       <c r="B111" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395797</v>
+        <v>395414</v>
       </c>
       <c r="R111" t="n">
-        <v>6804591</v>
+        <v>6804565</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12551,22 +12551,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046947</v>
+        <v>131046803</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395461</v>
+        <v>395450</v>
       </c>
       <c r="R2" t="n">
-        <v>6804551</v>
+        <v>6804390</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046873</v>
+        <v>131046747</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,34 +798,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395430</v>
+        <v>395480</v>
       </c>
       <c r="R3" t="n">
-        <v>6804474</v>
+        <v>6804496</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +899,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046995</v>
+        <v>131046873</v>
       </c>
       <c r="B4" t="n">
         <v>79244</v>
@@ -929,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395491</v>
+        <v>395430</v>
       </c>
       <c r="R4" t="n">
-        <v>6804522</v>
+        <v>6804474</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046803</v>
+        <v>131046872</v>
       </c>
       <c r="B5" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,21 +1017,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1036,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395450</v>
+        <v>395434</v>
       </c>
       <c r="R5" t="n">
-        <v>6804390</v>
+        <v>6804484</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1076,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1086,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1113,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046875</v>
+        <v>131046947</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1143,10 +1148,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395444</v>
+        <v>395461</v>
       </c>
       <c r="R6" t="n">
-        <v>6804461</v>
+        <v>6804551</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1183,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1193,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1220,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046896</v>
+        <v>131046995</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1250,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395423</v>
+        <v>395491</v>
       </c>
       <c r="R7" t="n">
-        <v>6804458</v>
+        <v>6804522</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046747</v>
+        <v>131046875</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,39 +1338,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395480</v>
+        <v>395444</v>
       </c>
       <c r="R8" t="n">
-        <v>6804496</v>
+        <v>6804461</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046790</v>
+        <v>131046896</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1445,39 +1445,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395416</v>
+        <v>395423</v>
       </c>
       <c r="R9" t="n">
-        <v>6804491</v>
+        <v>6804458</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,12 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046872</v>
+        <v>131046790</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,34 +1552,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395434</v>
+        <v>395416</v>
       </c>
       <c r="R10" t="n">
-        <v>6804484</v>
+        <v>6804491</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1616,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1626,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046884</v>
+        <v>131046749</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,34 +1669,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395489</v>
+        <v>395449</v>
       </c>
       <c r="R11" t="n">
-        <v>6804292</v>
+        <v>6804395</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1743,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,32 +1770,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033342</v>
+        <v>131046807</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>83207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1800,10 +1805,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395753</v>
+        <v>395510</v>
       </c>
       <c r="R12" t="n">
-        <v>6804557</v>
+        <v>6804530</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,22 +1835,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1872,7 +1877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046858</v>
+        <v>131046884</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1907,10 +1912,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395570</v>
+        <v>395489</v>
       </c>
       <c r="R13" t="n">
-        <v>6804341</v>
+        <v>6804292</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,7 +1947,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1952,7 +1957,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1979,32 +1984,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046807</v>
+        <v>131033342</v>
       </c>
       <c r="B14" t="n">
-        <v>83207</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2014,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395510</v>
+        <v>395753</v>
       </c>
       <c r="R14" t="n">
-        <v>6804530</v>
+        <v>6804557</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,22 +2049,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2086,10 +2091,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046749</v>
+        <v>131046858</v>
       </c>
       <c r="B15" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2097,39 +2102,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395449</v>
+        <v>395570</v>
       </c>
       <c r="R15" t="n">
-        <v>6804395</v>
+        <v>6804341</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046955</v>
+        <v>131033283</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79276</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395432</v>
+        <v>395745</v>
       </c>
       <c r="R16" t="n">
-        <v>6804533</v>
+        <v>6804404</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2263,22 +2263,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046878</v>
+        <v>131046868</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395478</v>
+        <v>395462</v>
       </c>
       <c r="R17" t="n">
-        <v>6804426</v>
+        <v>6804496</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046868</v>
+        <v>131046878</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395462</v>
+        <v>395478</v>
       </c>
       <c r="R18" t="n">
-        <v>6804496</v>
+        <v>6804426</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033348</v>
+        <v>131033331</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395756</v>
+        <v>395707</v>
       </c>
       <c r="R19" t="n">
-        <v>6804343</v>
+        <v>6804307</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,7 +2626,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131033331</v>
+        <v>131046901</v>
       </c>
       <c r="B20" t="n">
         <v>79244</v>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395707</v>
+        <v>395395</v>
       </c>
       <c r="R20" t="n">
-        <v>6804307</v>
+        <v>6804547</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046901</v>
+        <v>131046955</v>
       </c>
       <c r="B21" t="n">
         <v>79244</v>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395395</v>
+        <v>395432</v>
       </c>
       <c r="R21" t="n">
-        <v>6804547</v>
+        <v>6804533</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,10 +2840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046777</v>
+        <v>131033348</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2851,39 +2851,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395435</v>
+        <v>395756</v>
       </c>
       <c r="R22" t="n">
-        <v>6804481</v>
+        <v>6804343</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2910,27 +2905,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2957,7 +2947,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047009</v>
+        <v>131046777</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2986,24 +2976,21 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395494</v>
+        <v>395435</v>
       </c>
       <c r="R23" t="n">
-        <v>6804551</v>
+        <v>6804481</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3035,7 +3022,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3045,12 +3032,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3077,10 +3064,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131033283</v>
+        <v>131047009</v>
       </c>
       <c r="B24" t="n">
-        <v>79276</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3075,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395745</v>
+        <v>395494</v>
       </c>
       <c r="R24" t="n">
-        <v>6804404</v>
+        <v>6804551</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,22 +3137,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,7 +3184,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046894</v>
+        <v>131033344</v>
       </c>
       <c r="B25" t="n">
         <v>79244</v>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395429</v>
+        <v>395753</v>
       </c>
       <c r="R25" t="n">
-        <v>6804421</v>
+        <v>6804482</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,22 +3249,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033344</v>
+        <v>131033302</v>
       </c>
       <c r="B26" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,21 +3302,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395753</v>
+        <v>395679</v>
       </c>
       <c r="R26" t="n">
-        <v>6804482</v>
+        <v>6804524</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3505,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033294</v>
+        <v>131046894</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3516,39 +3516,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395714</v>
+        <v>395429</v>
       </c>
       <c r="R28" t="n">
-        <v>6804552</v>
+        <v>6804421</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3575,27 +3570,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3622,10 +3612,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131033302</v>
+        <v>131033294</v>
       </c>
       <c r="B29" t="n">
-        <v>79002</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3633,34 +3623,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395679</v>
+        <v>395714</v>
       </c>
       <c r="R29" t="n">
-        <v>6804524</v>
+        <v>6804552</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3692,7 +3687,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3702,7 +3697,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3729,45 +3729,50 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046994</v>
+        <v>131047035</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>5177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395484</v>
+        <v>395505</v>
       </c>
       <c r="R30" t="n">
-        <v>6804534</v>
+        <v>6804295</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3804,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3814,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,7 +3841,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046885</v>
+        <v>131046994</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3871,10 +3876,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395486</v>
+        <v>395484</v>
       </c>
       <c r="R31" t="n">
-        <v>6804289</v>
+        <v>6804534</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3911,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3921,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,7 +3948,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046956</v>
+        <v>131046885</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3978,10 +3983,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395418</v>
+        <v>395486</v>
       </c>
       <c r="R32" t="n">
-        <v>6804552</v>
+        <v>6804289</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4018,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4028,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4050,7 +4055,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046892</v>
+        <v>131046956</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4085,10 +4090,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395445</v>
+        <v>395418</v>
       </c>
       <c r="R33" t="n">
-        <v>6804404</v>
+        <v>6804552</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4120,7 +4125,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4130,7 +4135,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4157,7 +4162,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046898</v>
+        <v>131046892</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4192,10 +4197,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395393</v>
+        <v>395445</v>
       </c>
       <c r="R34" t="n">
-        <v>6804503</v>
+        <v>6804404</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4227,7 +4232,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4237,7 +4242,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,7 +4269,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046998</v>
+        <v>131046898</v>
       </c>
       <c r="B35" t="n">
         <v>79244</v>
@@ -4299,10 +4304,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395494</v>
+        <v>395393</v>
       </c>
       <c r="R35" t="n">
-        <v>6804551</v>
+        <v>6804503</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,7 +4339,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4344,7 +4349,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4371,50 +4376,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131047035</v>
+        <v>131046998</v>
       </c>
       <c r="B36" t="n">
-        <v>5177</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395505</v>
+        <v>395494</v>
       </c>
       <c r="R36" t="n">
-        <v>6804295</v>
+        <v>6804551</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131033334</v>
+        <v>131046805</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,21 +4815,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395718</v>
+        <v>395461</v>
       </c>
       <c r="R40" t="n">
-        <v>6804558</v>
+        <v>6804539</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4869,22 +4869,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4911,10 +4911,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046881</v>
+        <v>131046748</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4922,34 +4922,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395494</v>
+        <v>395453</v>
       </c>
       <c r="R41" t="n">
-        <v>6804395</v>
+        <v>6804322</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4981,7 +4986,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4991,7 +4996,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5018,7 +5023,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046999</v>
+        <v>131033334</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -5053,10 +5058,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395485</v>
+        <v>395718</v>
       </c>
       <c r="R42" t="n">
-        <v>6804561</v>
+        <v>6804558</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5083,22 +5088,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5125,7 +5130,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131033346</v>
+        <v>131046881</v>
       </c>
       <c r="B43" t="n">
         <v>79244</v>
@@ -5160,10 +5165,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395744</v>
+        <v>395494</v>
       </c>
       <c r="R43" t="n">
-        <v>6804417</v>
+        <v>6804395</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5190,22 +5195,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5232,7 +5237,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046859</v>
+        <v>131046999</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5267,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395566</v>
+        <v>395485</v>
       </c>
       <c r="R44" t="n">
-        <v>6804349</v>
+        <v>6804561</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5302,7 +5307,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5312,7 +5317,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5339,10 +5344,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131033288</v>
+        <v>131033346</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5350,39 +5355,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395651</v>
+        <v>395744</v>
       </c>
       <c r="R45" t="n">
-        <v>6804457</v>
+        <v>6804417</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5424,12 +5424,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5456,10 +5451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046805</v>
+        <v>131046859</v>
       </c>
       <c r="B46" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5467,21 +5462,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5491,10 +5486,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395461</v>
+        <v>395566</v>
       </c>
       <c r="R46" t="n">
-        <v>6804539</v>
+        <v>6804349</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5526,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5536,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5563,10 +5558,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046748</v>
+        <v>131033288</v>
       </c>
       <c r="B47" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5574,16 +5569,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5603,10 +5598,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395453</v>
+        <v>395651</v>
       </c>
       <c r="R47" t="n">
-        <v>6804322</v>
+        <v>6804457</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5633,22 +5628,27 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046997</v>
+        <v>131033323</v>
       </c>
       <c r="B48" t="n">
         <v>79244</v>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395518</v>
+        <v>395680</v>
       </c>
       <c r="R48" t="n">
-        <v>6804527</v>
+        <v>6804541</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5740,22 +5740,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,7 +5782,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046954</v>
+        <v>131033352</v>
       </c>
       <c r="B49" t="n">
         <v>79244</v>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395446</v>
+        <v>395857</v>
       </c>
       <c r="R49" t="n">
-        <v>6804531</v>
+        <v>6804292</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5847,22 +5847,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046861</v>
+        <v>131046949</v>
       </c>
       <c r="B50" t="n">
         <v>79244</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395564</v>
+        <v>395463</v>
       </c>
       <c r="R50" t="n">
-        <v>6804373</v>
+        <v>6804534</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131033352</v>
+        <v>131046880</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395857</v>
+        <v>395491</v>
       </c>
       <c r="R51" t="n">
-        <v>6804292</v>
+        <v>6804393</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046948</v>
+        <v>131046869</v>
       </c>
       <c r="B52" t="n">
         <v>79244</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395462</v>
+        <v>395456</v>
       </c>
       <c r="R52" t="n">
-        <v>6804542</v>
+        <v>6804500</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,10 +6210,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046866</v>
+        <v>131046712</v>
       </c>
       <c r="B53" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6221,21 +6221,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395542</v>
+        <v>395468</v>
       </c>
       <c r="R53" t="n">
-        <v>6804432</v>
+        <v>6804494</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,7 +6317,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046869</v>
+        <v>131046954</v>
       </c>
       <c r="B54" t="n">
         <v>79244</v>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395456</v>
+        <v>395446</v>
       </c>
       <c r="R54" t="n">
-        <v>6804500</v>
+        <v>6804531</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131033323</v>
+        <v>131046948</v>
       </c>
       <c r="B55" t="n">
         <v>79244</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395680</v>
+        <v>395462</v>
       </c>
       <c r="R55" t="n">
-        <v>6804541</v>
+        <v>6804542</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6489,22 +6489,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,10 +6531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046712</v>
+        <v>131046997</v>
       </c>
       <c r="B56" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6542,21 +6542,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395468</v>
+        <v>395518</v>
       </c>
       <c r="R56" t="n">
-        <v>6804494</v>
+        <v>6804527</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046949</v>
+        <v>131046866</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395463</v>
+        <v>395542</v>
       </c>
       <c r="R57" t="n">
-        <v>6804534</v>
+        <v>6804432</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046880</v>
+        <v>131046861</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395491</v>
+        <v>395564</v>
       </c>
       <c r="R58" t="n">
-        <v>6804393</v>
+        <v>6804373</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6852,10 +6852,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046879</v>
+        <v>131046713</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6863,21 +6863,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395482</v>
+        <v>395454</v>
       </c>
       <c r="R59" t="n">
-        <v>6804421</v>
+        <v>6804501</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,7 +6959,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046874</v>
+        <v>131046888</v>
       </c>
       <c r="B60" t="n">
         <v>79244</v>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395433</v>
+        <v>395436</v>
       </c>
       <c r="R60" t="n">
-        <v>6804469</v>
+        <v>6804373</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,10 +7066,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046713</v>
+        <v>131046879</v>
       </c>
       <c r="B61" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7077,21 +7077,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395454</v>
+        <v>395482</v>
       </c>
       <c r="R61" t="n">
-        <v>6804501</v>
+        <v>6804421</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,7 +7173,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046888</v>
+        <v>131046874</v>
       </c>
       <c r="B62" t="n">
         <v>79244</v>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395436</v>
+        <v>395433</v>
       </c>
       <c r="R62" t="n">
-        <v>6804373</v>
+        <v>6804469</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033321</v>
+        <v>131033326</v>
       </c>
       <c r="B63" t="n">
         <v>79244</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395718</v>
+        <v>395665</v>
       </c>
       <c r="R63" t="n">
-        <v>6804573</v>
+        <v>6804439</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046882</v>
+        <v>131033321</v>
       </c>
       <c r="B64" t="n">
         <v>79244</v>
@@ -7422,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395493</v>
+        <v>395718</v>
       </c>
       <c r="R64" t="n">
-        <v>6804376</v>
+        <v>6804573</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7452,22 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7494,7 +7494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033327</v>
+        <v>131046882</v>
       </c>
       <c r="B65" t="n">
         <v>79244</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395671</v>
+        <v>395493</v>
       </c>
       <c r="R65" t="n">
-        <v>6804435</v>
+        <v>6804376</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7559,22 +7559,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046996</v>
+        <v>131033327</v>
       </c>
       <c r="B66" t="n">
         <v>79244</v>
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395485</v>
+        <v>395671</v>
       </c>
       <c r="R66" t="n">
-        <v>6804506</v>
+        <v>6804435</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7666,22 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,7 +7708,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131033326</v>
+        <v>131046996</v>
       </c>
       <c r="B67" t="n">
         <v>79244</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395665</v>
+        <v>395485</v>
       </c>
       <c r="R67" t="n">
-        <v>6804439</v>
+        <v>6804506</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7773,22 +7773,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7932,10 +7932,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046993</v>
+        <v>131033295</v>
       </c>
       <c r="B69" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7943,34 +7943,39 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395472</v>
+        <v>395744</v>
       </c>
       <c r="R69" t="n">
-        <v>6804550</v>
+        <v>6804575</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +8002,27 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,32 +8049,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033353</v>
+        <v>131033299</v>
       </c>
       <c r="B70" t="n">
-        <v>79244</v>
+        <v>79268</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8074,10 +8084,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395859</v>
+        <v>395890</v>
       </c>
       <c r="R70" t="n">
-        <v>6804312</v>
+        <v>6804464</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8109,7 +8119,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8119,7 +8129,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8146,7 +8156,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046877</v>
+        <v>131033353</v>
       </c>
       <c r="B71" t="n">
         <v>79244</v>
@@ -8181,10 +8191,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395859</v>
       </c>
       <c r="R71" t="n">
-        <v>6804442</v>
+        <v>6804312</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8211,22 +8221,22 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8253,32 +8263,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131033299</v>
+        <v>131046993</v>
       </c>
       <c r="B72" t="n">
-        <v>79268</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8288,10 +8298,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395890</v>
+        <v>395472</v>
       </c>
       <c r="R72" t="n">
-        <v>6804464</v>
+        <v>6804550</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8318,22 +8328,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8467,10 +8477,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131033295</v>
+        <v>131046877</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8478,39 +8488,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395744</v>
+        <v>395464</v>
       </c>
       <c r="R74" t="n">
-        <v>6804575</v>
+        <v>6804442</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8537,27 +8542,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,7 +8584,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046886</v>
+        <v>131046865</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395447</v>
+        <v>395546</v>
       </c>
       <c r="R75" t="n">
-        <v>6804315</v>
+        <v>6804405</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046862</v>
+        <v>131046886</v>
       </c>
       <c r="B76" t="n">
         <v>79244</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395554</v>
+        <v>395447</v>
       </c>
       <c r="R76" t="n">
-        <v>6804375</v>
+        <v>6804315</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046865</v>
+        <v>131046862</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395546</v>
+        <v>395554</v>
       </c>
       <c r="R77" t="n">
-        <v>6804405</v>
+        <v>6804375</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9012,7 +9012,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046854</v>
+        <v>131046883</v>
       </c>
       <c r="B79" t="n">
         <v>79244</v>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395579</v>
+        <v>395494</v>
       </c>
       <c r="R79" t="n">
-        <v>6804294</v>
+        <v>6804367</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9119,7 +9119,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131033330</v>
+        <v>131046854</v>
       </c>
       <c r="B80" t="n">
         <v>79244</v>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395702</v>
+        <v>395579</v>
       </c>
       <c r="R80" t="n">
-        <v>6804325</v>
+        <v>6804294</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9184,22 +9184,22 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131033322</v>
+        <v>131033330</v>
       </c>
       <c r="B81" t="n">
         <v>79244</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395692</v>
+        <v>395702</v>
       </c>
       <c r="R81" t="n">
-        <v>6804550</v>
+        <v>6804325</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9333,7 +9333,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046883</v>
+        <v>131033322</v>
       </c>
       <c r="B82" t="n">
         <v>79244</v>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395494</v>
+        <v>395692</v>
       </c>
       <c r="R82" t="n">
-        <v>6804367</v>
+        <v>6804550</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9398,22 +9398,22 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9761,10 +9761,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046860</v>
+        <v>131047018</v>
       </c>
       <c r="B86" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9772,34 +9772,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395578</v>
+        <v>395509</v>
       </c>
       <c r="R86" t="n">
-        <v>6804350</v>
+        <v>6804287</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9831,7 +9836,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9841,14 +9846,19 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
       <c r="AE86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86" t="b">
         <v>0</v>
@@ -9868,10 +9878,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131033333</v>
+        <v>131033293</v>
       </c>
       <c r="B87" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9879,34 +9889,39 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395717</v>
+        <v>395668</v>
       </c>
       <c r="R87" t="n">
-        <v>6804542</v>
+        <v>6804432</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9938,7 +9953,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9948,7 +9963,12 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10082,10 +10102,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131047018</v>
+        <v>131033333</v>
       </c>
       <c r="B89" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10093,39 +10113,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395509</v>
+        <v>395717</v>
       </c>
       <c r="R89" t="n">
-        <v>6804287</v>
+        <v>6804542</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10152,34 +10167,29 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="b">
         <v>0</v>
@@ -10199,10 +10209,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131033293</v>
+        <v>131046860</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10210,39 +10220,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395668</v>
+        <v>395578</v>
       </c>
       <c r="R90" t="n">
-        <v>6804432</v>
+        <v>6804350</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10269,27 +10274,22 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>12:22</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046950</v>
+        <v>131046870</v>
       </c>
       <c r="B91" t="n">
         <v>79244</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395470</v>
+        <v>395450</v>
       </c>
       <c r="R91" t="n">
-        <v>6804530</v>
+        <v>6804507</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046891</v>
+        <v>131046992</v>
       </c>
       <c r="B92" t="n">
         <v>79244</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395453</v>
+        <v>395477</v>
       </c>
       <c r="R92" t="n">
-        <v>6804400</v>
+        <v>6804563</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131033345</v>
+        <v>131046950</v>
       </c>
       <c r="B93" t="n">
         <v>79244</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395748</v>
+        <v>395470</v>
       </c>
       <c r="R93" t="n">
-        <v>6804429</v>
+        <v>6804530</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10595,22 +10595,22 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046870</v>
+        <v>131033345</v>
       </c>
       <c r="B94" t="n">
         <v>79244</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395450</v>
+        <v>395748</v>
       </c>
       <c r="R94" t="n">
-        <v>6804507</v>
+        <v>6804429</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10702,22 +10702,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046992</v>
+        <v>131046891</v>
       </c>
       <c r="B95" t="n">
         <v>79244</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395477</v>
+        <v>395453</v>
       </c>
       <c r="R95" t="n">
-        <v>6804563</v>
+        <v>6804400</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10958,7 +10958,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131033332</v>
+        <v>131046895</v>
       </c>
       <c r="B97" t="n">
         <v>79244</v>
@@ -10993,10 +10993,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395641</v>
+        <v>395436</v>
       </c>
       <c r="R97" t="n">
-        <v>6804509</v>
+        <v>6804436</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11023,22 +11023,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11065,7 +11065,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046895</v>
+        <v>131046887</v>
       </c>
       <c r="B98" t="n">
         <v>79244</v>
@@ -11100,10 +11100,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395436</v>
+        <v>395449</v>
       </c>
       <c r="R98" t="n">
-        <v>6804436</v>
+        <v>6804334</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,10 +11172,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046887</v>
+        <v>131046780</v>
       </c>
       <c r="B99" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11183,34 +11183,39 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395449</v>
+        <v>395470</v>
       </c>
       <c r="R99" t="n">
-        <v>6804334</v>
+        <v>6804530</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11242,7 +11247,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11252,7 +11257,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11279,7 +11289,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046780</v>
+        <v>131047019</v>
       </c>
       <c r="B100" t="n">
         <v>57884</v>
@@ -11310,7 +11320,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -11319,10 +11329,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395470</v>
+        <v>395446</v>
       </c>
       <c r="R100" t="n">
-        <v>6804530</v>
+        <v>6804531</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11354,7 +11364,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11364,19 +11374,19 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG100" t="b">
         <v>0</v>
@@ -11396,10 +11406,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131047019</v>
+        <v>131033332</v>
       </c>
       <c r="B101" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11407,39 +11417,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395446</v>
+        <v>395641</v>
       </c>
       <c r="R101" t="n">
-        <v>6804531</v>
+        <v>6804509</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11466,34 +11471,29 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131047017</v>
+        <v>131046952</v>
       </c>
       <c r="B102" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,39 +11524,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395448</v>
+        <v>395461</v>
       </c>
       <c r="R102" t="n">
-        <v>6804508</v>
+        <v>6804521</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11588,7 +11583,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11598,19 +11593,14 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11630,10 +11620,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046796</v>
+        <v>131046951</v>
       </c>
       <c r="B103" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11641,21 +11631,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11665,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395443</v>
+        <v>395463</v>
       </c>
       <c r="R103" t="n">
-        <v>6804347</v>
+        <v>6804524</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11700,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11710,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11737,7 +11727,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131046951</v>
+        <v>131046876</v>
       </c>
       <c r="B104" t="n">
         <v>79244</v>
@@ -11772,10 +11762,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395463</v>
+        <v>395457</v>
       </c>
       <c r="R104" t="n">
-        <v>6804524</v>
+        <v>6804453</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11807,7 +11797,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -11817,7 +11807,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11844,7 +11834,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131033349</v>
+        <v>131046890</v>
       </c>
       <c r="B105" t="n">
         <v>79244</v>
@@ -11879,10 +11869,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395757</v>
+        <v>395440</v>
       </c>
       <c r="R105" t="n">
-        <v>6804291</v>
+        <v>6804390</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11909,22 +11899,22 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11951,7 +11941,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046952</v>
+        <v>131033349</v>
       </c>
       <c r="B106" t="n">
         <v>79244</v>
@@ -11986,10 +11976,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395461</v>
+        <v>395757</v>
       </c>
       <c r="R106" t="n">
-        <v>6804521</v>
+        <v>6804291</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12016,22 +12006,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12058,10 +12048,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046876</v>
+        <v>131047017</v>
       </c>
       <c r="B107" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12069,34 +12059,39 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395457</v>
+        <v>395448</v>
       </c>
       <c r="R107" t="n">
-        <v>6804453</v>
+        <v>6804508</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12128,7 +12123,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12138,14 +12133,19 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD107" t="b">
         <v>0</v>
       </c>
       <c r="AE107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG107" t="b">
         <v>0</v>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046890</v>
+        <v>131046796</v>
       </c>
       <c r="B108" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395440</v>
+        <v>395443</v>
       </c>
       <c r="R108" t="n">
-        <v>6804390</v>
+        <v>6804347</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12272,7 +12272,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131046903</v>
+        <v>131033341</v>
       </c>
       <c r="B109" t="n">
         <v>79244</v>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395384</v>
+        <v>395797</v>
       </c>
       <c r="R109" t="n">
-        <v>6804564</v>
+        <v>6804591</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12337,22 +12337,22 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131033341</v>
+        <v>131046957</v>
       </c>
       <c r="B110" t="n">
         <v>79244</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395797</v>
+        <v>395414</v>
       </c>
       <c r="R110" t="n">
-        <v>6804591</v>
+        <v>6804565</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131046957</v>
+        <v>131046903</v>
       </c>
       <c r="B111" t="n">
         <v>79244</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395414</v>
+        <v>395384</v>
       </c>
       <c r="R111" t="n">
-        <v>6804565</v>
+        <v>6804564</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046803</v>
+        <v>131046875</v>
       </c>
       <c r="B2" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395450</v>
+        <v>395444</v>
       </c>
       <c r="R2" t="n">
-        <v>6804390</v>
+        <v>6804461</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046747</v>
+        <v>131046896</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,39 +798,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395480</v>
+        <v>395423</v>
       </c>
       <c r="R3" t="n">
-        <v>6804496</v>
+        <v>6804458</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046873</v>
+        <v>131046803</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395430</v>
+        <v>395450</v>
       </c>
       <c r="R4" t="n">
-        <v>6804474</v>
+        <v>6804390</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1006,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046872</v>
+        <v>131046747</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,34 +1012,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395434</v>
+        <v>395480</v>
       </c>
       <c r="R5" t="n">
-        <v>6804484</v>
+        <v>6804496</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1220,7 +1220,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046995</v>
+        <v>131046872</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395491</v>
+        <v>395434</v>
       </c>
       <c r="R7" t="n">
-        <v>6804522</v>
+        <v>6804484</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,7 +1327,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046875</v>
+        <v>131046873</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395444</v>
+        <v>395430</v>
       </c>
       <c r="R8" t="n">
-        <v>6804461</v>
+        <v>6804474</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046896</v>
+        <v>131046995</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395423</v>
+        <v>395491</v>
       </c>
       <c r="R9" t="n">
-        <v>6804458</v>
+        <v>6804522</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046749</v>
+        <v>131046884</v>
       </c>
       <c r="B11" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,39 +1669,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395449</v>
+        <v>395489</v>
       </c>
       <c r="R11" t="n">
-        <v>6804395</v>
+        <v>6804292</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,32 +1765,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046807</v>
+        <v>131033342</v>
       </c>
       <c r="B12" t="n">
-        <v>83207</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1805,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395510</v>
+        <v>395753</v>
       </c>
       <c r="R12" t="n">
-        <v>6804530</v>
+        <v>6804557</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1835,22 +1830,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,7 +1872,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046884</v>
+        <v>131046858</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1912,10 +1907,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395489</v>
+        <v>395570</v>
       </c>
       <c r="R13" t="n">
-        <v>6804292</v>
+        <v>6804341</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1947,7 +1942,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1957,7 +1952,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,32 +1979,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033342</v>
+        <v>131046807</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>83207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2019,10 +2014,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395753</v>
+        <v>395510</v>
       </c>
       <c r="R14" t="n">
-        <v>6804557</v>
+        <v>6804530</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,22 +2044,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,10 +2086,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046858</v>
+        <v>131046749</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2102,34 +2097,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395570</v>
+        <v>395449</v>
       </c>
       <c r="R15" t="n">
-        <v>6804341</v>
+        <v>6804395</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033283</v>
+        <v>131046955</v>
       </c>
       <c r="B16" t="n">
-        <v>79276</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395745</v>
+        <v>395432</v>
       </c>
       <c r="R16" t="n">
-        <v>6804404</v>
+        <v>6804533</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2263,22 +2263,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046868</v>
+        <v>131046878</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395462</v>
+        <v>395478</v>
       </c>
       <c r="R17" t="n">
-        <v>6804496</v>
+        <v>6804426</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046878</v>
+        <v>131046868</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395478</v>
+        <v>395462</v>
       </c>
       <c r="R18" t="n">
-        <v>6804426</v>
+        <v>6804496</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033331</v>
+        <v>131033348</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395707</v>
+        <v>395756</v>
       </c>
       <c r="R19" t="n">
-        <v>6804307</v>
+        <v>6804343</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,10 +2626,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046901</v>
+        <v>131033283</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79276</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2637,21 +2637,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395395</v>
+        <v>395745</v>
       </c>
       <c r="R20" t="n">
-        <v>6804547</v>
+        <v>6804404</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046955</v>
+        <v>131033331</v>
       </c>
       <c r="B21" t="n">
         <v>79244</v>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395432</v>
+        <v>395707</v>
       </c>
       <c r="R21" t="n">
-        <v>6804533</v>
+        <v>6804307</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,22 +2798,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,7 +2840,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131033348</v>
+        <v>131046901</v>
       </c>
       <c r="B22" t="n">
         <v>79244</v>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395756</v>
+        <v>395395</v>
       </c>
       <c r="R22" t="n">
-        <v>6804343</v>
+        <v>6804547</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3184,7 +3184,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033344</v>
+        <v>131033324</v>
       </c>
       <c r="B25" t="n">
         <v>79244</v>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395753</v>
+        <v>395676</v>
       </c>
       <c r="R25" t="n">
-        <v>6804482</v>
+        <v>6804490</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033302</v>
+        <v>131033294</v>
       </c>
       <c r="B26" t="n">
-        <v>79002</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,34 +3302,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395679</v>
+        <v>395714</v>
       </c>
       <c r="R26" t="n">
-        <v>6804524</v>
+        <v>6804552</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3361,7 +3366,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3371,7 +3376,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3398,7 +3408,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033324</v>
+        <v>131046894</v>
       </c>
       <c r="B27" t="n">
         <v>79244</v>
@@ -3433,10 +3443,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395676</v>
+        <v>395429</v>
       </c>
       <c r="R27" t="n">
-        <v>6804490</v>
+        <v>6804421</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,22 +3473,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3505,7 +3515,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046894</v>
+        <v>131033344</v>
       </c>
       <c r="B28" t="n">
         <v>79244</v>
@@ -3540,10 +3550,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395429</v>
+        <v>395753</v>
       </c>
       <c r="R28" t="n">
-        <v>6804421</v>
+        <v>6804482</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,22 +3580,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3612,10 +3622,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131033294</v>
+        <v>131033302</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79002</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3623,39 +3633,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395714</v>
+        <v>395679</v>
       </c>
       <c r="R29" t="n">
-        <v>6804552</v>
+        <v>6804524</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3687,7 +3692,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3697,12 +3702,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3729,50 +3729,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131047035</v>
+        <v>131046885</v>
       </c>
       <c r="B30" t="n">
-        <v>5177</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395505</v>
+        <v>395486</v>
       </c>
       <c r="R30" t="n">
-        <v>6804295</v>
+        <v>6804289</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3804,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3814,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3841,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046994</v>
+        <v>131046956</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3876,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395484</v>
+        <v>395418</v>
       </c>
       <c r="R31" t="n">
-        <v>6804534</v>
+        <v>6804552</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3911,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3921,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3948,7 +3943,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046885</v>
+        <v>131046892</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3983,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395486</v>
+        <v>395445</v>
       </c>
       <c r="R32" t="n">
-        <v>6804289</v>
+        <v>6804404</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4018,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4028,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4055,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046956</v>
+        <v>131046898</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4090,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395418</v>
+        <v>395393</v>
       </c>
       <c r="R33" t="n">
-        <v>6804552</v>
+        <v>6804503</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4125,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4135,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4162,7 +4157,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046892</v>
+        <v>131046998</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4197,10 +4192,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395445</v>
+        <v>395494</v>
       </c>
       <c r="R34" t="n">
-        <v>6804404</v>
+        <v>6804551</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4232,7 +4227,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4242,7 +4237,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4269,45 +4264,50 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046898</v>
+        <v>131047035</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>5177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395393</v>
+        <v>395505</v>
       </c>
       <c r="R35" t="n">
-        <v>6804503</v>
+        <v>6804295</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4376,7 +4376,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046998</v>
+        <v>131046994</v>
       </c>
       <c r="B36" t="n">
         <v>79244</v>
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395494</v>
+        <v>395484</v>
       </c>
       <c r="R36" t="n">
-        <v>6804551</v>
+        <v>6804534</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046805</v>
+        <v>131033334</v>
       </c>
       <c r="B40" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,21 +4815,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395461</v>
+        <v>395718</v>
       </c>
       <c r="R40" t="n">
-        <v>6804539</v>
+        <v>6804558</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4869,22 +4869,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4911,10 +4911,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046748</v>
+        <v>131046881</v>
       </c>
       <c r="B41" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4922,39 +4922,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395453</v>
+        <v>395494</v>
       </c>
       <c r="R41" t="n">
-        <v>6804322</v>
+        <v>6804395</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4986,7 +4981,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4996,7 +4991,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5023,10 +5018,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131033334</v>
+        <v>131046748</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5034,34 +5029,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395718</v>
+        <v>395453</v>
       </c>
       <c r="R42" t="n">
-        <v>6804558</v>
+        <v>6804322</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5088,22 +5088,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5130,7 +5130,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046881</v>
+        <v>131046999</v>
       </c>
       <c r="B43" t="n">
         <v>79244</v>
@@ -5165,10 +5165,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395494</v>
+        <v>395485</v>
       </c>
       <c r="R43" t="n">
-        <v>6804395</v>
+        <v>6804561</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046999</v>
+        <v>131033346</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395485</v>
+        <v>395744</v>
       </c>
       <c r="R44" t="n">
-        <v>6804561</v>
+        <v>6804417</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5302,22 +5302,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5344,10 +5344,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131033346</v>
+        <v>131046805</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5355,21 +5355,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395744</v>
+        <v>395461</v>
       </c>
       <c r="R45" t="n">
-        <v>6804417</v>
+        <v>6804539</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5409,22 +5409,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131033323</v>
+        <v>131046861</v>
       </c>
       <c r="B48" t="n">
         <v>79244</v>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395680</v>
+        <v>395564</v>
       </c>
       <c r="R48" t="n">
-        <v>6804541</v>
+        <v>6804373</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5740,22 +5740,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046949</v>
+        <v>131046948</v>
       </c>
       <c r="B50" t="n">
         <v>79244</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395463</v>
+        <v>395462</v>
       </c>
       <c r="R50" t="n">
-        <v>6804534</v>
+        <v>6804542</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046880</v>
+        <v>131046866</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395491</v>
+        <v>395542</v>
       </c>
       <c r="R51" t="n">
-        <v>6804393</v>
+        <v>6804432</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6210,10 +6210,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046712</v>
+        <v>131033323</v>
       </c>
       <c r="B53" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6221,21 +6221,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395468</v>
+        <v>395680</v>
       </c>
       <c r="R53" t="n">
-        <v>6804494</v>
+        <v>6804541</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6275,22 +6275,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,10 +6317,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046954</v>
+        <v>131046712</v>
       </c>
       <c r="B54" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6328,21 +6328,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395446</v>
+        <v>395468</v>
       </c>
       <c r="R54" t="n">
-        <v>6804531</v>
+        <v>6804494</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046948</v>
+        <v>131046949</v>
       </c>
       <c r="B55" t="n">
         <v>79244</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395462</v>
+        <v>395463</v>
       </c>
       <c r="R55" t="n">
-        <v>6804542</v>
+        <v>6804534</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,7 +6531,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046997</v>
+        <v>131046880</v>
       </c>
       <c r="B56" t="n">
         <v>79244</v>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395518</v>
+        <v>395491</v>
       </c>
       <c r="R56" t="n">
-        <v>6804527</v>
+        <v>6804393</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046866</v>
+        <v>131046954</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395542</v>
+        <v>395446</v>
       </c>
       <c r="R57" t="n">
-        <v>6804432</v>
+        <v>6804531</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046861</v>
+        <v>131046997</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395564</v>
+        <v>395518</v>
       </c>
       <c r="R58" t="n">
-        <v>6804373</v>
+        <v>6804527</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6852,10 +6852,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046713</v>
+        <v>131046888</v>
       </c>
       <c r="B59" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6863,21 +6863,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395454</v>
+        <v>395436</v>
       </c>
       <c r="R59" t="n">
-        <v>6804501</v>
+        <v>6804373</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,7 +6959,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046888</v>
+        <v>131046879</v>
       </c>
       <c r="B60" t="n">
         <v>79244</v>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395436</v>
+        <v>395482</v>
       </c>
       <c r="R60" t="n">
-        <v>6804373</v>
+        <v>6804421</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046879</v>
+        <v>131046874</v>
       </c>
       <c r="B61" t="n">
         <v>79244</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395482</v>
+        <v>395433</v>
       </c>
       <c r="R61" t="n">
-        <v>6804421</v>
+        <v>6804469</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,10 +7173,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046874</v>
+        <v>131046713</v>
       </c>
       <c r="B62" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7184,21 +7184,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395433</v>
+        <v>395454</v>
       </c>
       <c r="R62" t="n">
-        <v>6804469</v>
+        <v>6804501</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033326</v>
+        <v>131046789</v>
       </c>
       <c r="B63" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7291,34 +7291,39 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395665</v>
+        <v>395495</v>
       </c>
       <c r="R63" t="n">
-        <v>6804439</v>
+        <v>6804385</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7345,22 +7350,27 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,7 +7397,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131033321</v>
+        <v>131033326</v>
       </c>
       <c r="B64" t="n">
         <v>79244</v>
@@ -7422,10 +7432,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395718</v>
+        <v>395665</v>
       </c>
       <c r="R64" t="n">
-        <v>6804573</v>
+        <v>6804439</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7457,7 +7467,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7467,7 +7477,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7494,7 +7504,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046882</v>
+        <v>131033321</v>
       </c>
       <c r="B65" t="n">
         <v>79244</v>
@@ -7529,10 +7539,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395493</v>
+        <v>395718</v>
       </c>
       <c r="R65" t="n">
-        <v>6804376</v>
+        <v>6804573</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7559,22 +7569,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,7 +7611,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131033327</v>
+        <v>131046882</v>
       </c>
       <c r="B66" t="n">
         <v>79244</v>
@@ -7636,10 +7646,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395671</v>
+        <v>395493</v>
       </c>
       <c r="R66" t="n">
-        <v>6804435</v>
+        <v>6804376</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7666,22 +7676,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,7 +7718,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131046996</v>
+        <v>131033327</v>
       </c>
       <c r="B67" t="n">
         <v>79244</v>
@@ -7743,10 +7753,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395485</v>
+        <v>395671</v>
       </c>
       <c r="R67" t="n">
-        <v>6804506</v>
+        <v>6804435</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7773,22 +7783,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7815,10 +7825,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046789</v>
+        <v>131046996</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7826,39 +7836,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395495</v>
+        <v>395485</v>
       </c>
       <c r="R68" t="n">
-        <v>6804385</v>
+        <v>6804506</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7890,7 +7895,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7900,12 +7905,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7932,10 +7932,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131033295</v>
+        <v>131046993</v>
       </c>
       <c r="B69" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7943,39 +7943,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395744</v>
+        <v>395472</v>
       </c>
       <c r="R69" t="n">
-        <v>6804575</v>
+        <v>6804550</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8002,27 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8049,32 +8039,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033299</v>
+        <v>131033353</v>
       </c>
       <c r="B70" t="n">
-        <v>79268</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8084,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395890</v>
+        <v>395859</v>
       </c>
       <c r="R70" t="n">
-        <v>6804464</v>
+        <v>6804312</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8119,7 +8109,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8129,7 +8119,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8156,7 +8146,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131033353</v>
+        <v>131046877</v>
       </c>
       <c r="B71" t="n">
         <v>79244</v>
@@ -8191,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395859</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804312</v>
+        <v>6804442</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8221,22 +8211,22 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8263,32 +8253,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046993</v>
+        <v>131033299</v>
       </c>
       <c r="B72" t="n">
-        <v>79244</v>
+        <v>79268</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8298,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395472</v>
+        <v>395890</v>
       </c>
       <c r="R72" t="n">
-        <v>6804550</v>
+        <v>6804464</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8328,22 +8318,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8477,10 +8467,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046877</v>
+        <v>131033295</v>
       </c>
       <c r="B74" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8488,34 +8478,39 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395464</v>
+        <v>395744</v>
       </c>
       <c r="R74" t="n">
-        <v>6804442</v>
+        <v>6804575</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8542,22 +8537,27 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,7 +8584,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046865</v>
+        <v>131046862</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395546</v>
+        <v>395554</v>
       </c>
       <c r="R75" t="n">
-        <v>6804405</v>
+        <v>6804375</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046862</v>
+        <v>131046865</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395554</v>
+        <v>395546</v>
       </c>
       <c r="R77" t="n">
-        <v>6804375</v>
+        <v>6804405</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9012,7 +9012,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046883</v>
+        <v>131046854</v>
       </c>
       <c r="B79" t="n">
         <v>79244</v>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395494</v>
+        <v>395579</v>
       </c>
       <c r="R79" t="n">
-        <v>6804367</v>
+        <v>6804294</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9119,7 +9119,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046854</v>
+        <v>131033330</v>
       </c>
       <c r="B80" t="n">
         <v>79244</v>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395579</v>
+        <v>395702</v>
       </c>
       <c r="R80" t="n">
-        <v>6804294</v>
+        <v>6804325</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9184,22 +9184,22 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131033330</v>
+        <v>131046883</v>
       </c>
       <c r="B81" t="n">
         <v>79244</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395702</v>
+        <v>395494</v>
       </c>
       <c r="R81" t="n">
-        <v>6804325</v>
+        <v>6804367</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9995,7 +9995,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046902</v>
+        <v>131033333</v>
       </c>
       <c r="B88" t="n">
         <v>79244</v>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395389</v>
+        <v>395717</v>
       </c>
       <c r="R88" t="n">
-        <v>6804555</v>
+        <v>6804542</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10060,22 +10060,22 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10102,7 +10102,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131033333</v>
+        <v>131046902</v>
       </c>
       <c r="B89" t="n">
         <v>79244</v>
@@ -10137,10 +10137,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395717</v>
+        <v>395389</v>
       </c>
       <c r="R89" t="n">
-        <v>6804542</v>
+        <v>6804555</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10167,22 +10167,22 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046870</v>
+        <v>131046950</v>
       </c>
       <c r="B91" t="n">
         <v>79244</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395450</v>
+        <v>395470</v>
       </c>
       <c r="R91" t="n">
-        <v>6804507</v>
+        <v>6804530</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046992</v>
+        <v>131046891</v>
       </c>
       <c r="B92" t="n">
         <v>79244</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395477</v>
+        <v>395453</v>
       </c>
       <c r="R92" t="n">
-        <v>6804563</v>
+        <v>6804400</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046950</v>
+        <v>131033345</v>
       </c>
       <c r="B93" t="n">
         <v>79244</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395470</v>
+        <v>395748</v>
       </c>
       <c r="R93" t="n">
-        <v>6804530</v>
+        <v>6804429</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10595,22 +10595,22 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131033345</v>
+        <v>131046870</v>
       </c>
       <c r="B94" t="n">
         <v>79244</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395748</v>
+        <v>395450</v>
       </c>
       <c r="R94" t="n">
-        <v>6804429</v>
+        <v>6804507</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10702,22 +10702,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046891</v>
+        <v>131046992</v>
       </c>
       <c r="B95" t="n">
         <v>79244</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395453</v>
+        <v>395477</v>
       </c>
       <c r="R95" t="n">
-        <v>6804400</v>
+        <v>6804563</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131033362</v>
+        <v>131033332</v>
       </c>
       <c r="B96" t="n">
-        <v>78910</v>
+        <v>79244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,21 +10862,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10886,10 +10886,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395883</v>
+        <v>395641</v>
       </c>
       <c r="R96" t="n">
-        <v>6804433</v>
+        <v>6804509</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10958,10 +10958,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046895</v>
+        <v>131033362</v>
       </c>
       <c r="B97" t="n">
-        <v>79244</v>
+        <v>78910</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10969,21 +10969,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10993,10 +10993,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395436</v>
+        <v>395883</v>
       </c>
       <c r="R97" t="n">
-        <v>6804436</v>
+        <v>6804433</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11023,22 +11023,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11065,7 +11065,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046887</v>
+        <v>131046895</v>
       </c>
       <c r="B98" t="n">
         <v>79244</v>
@@ -11100,10 +11100,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395449</v>
+        <v>395436</v>
       </c>
       <c r="R98" t="n">
-        <v>6804334</v>
+        <v>6804436</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,10 +11172,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046780</v>
+        <v>131046887</v>
       </c>
       <c r="B99" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11183,39 +11183,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395470</v>
+        <v>395449</v>
       </c>
       <c r="R99" t="n">
-        <v>6804530</v>
+        <v>6804334</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11247,7 +11242,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11257,12 +11252,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11289,7 +11279,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131047019</v>
+        <v>131046780</v>
       </c>
       <c r="B100" t="n">
         <v>57884</v>
@@ -11320,7 +11310,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -11329,10 +11319,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395446</v>
+        <v>395470</v>
       </c>
       <c r="R100" t="n">
-        <v>6804531</v>
+        <v>6804530</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11364,7 +11354,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11374,19 +11364,19 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG100" t="b">
         <v>0</v>
@@ -11406,10 +11396,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131033332</v>
+        <v>131047019</v>
       </c>
       <c r="B101" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11417,34 +11407,39 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395641</v>
+        <v>395446</v>
       </c>
       <c r="R101" t="n">
-        <v>6804509</v>
+        <v>6804531</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,29 +11466,34 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B102" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,34 +11524,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R102" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11593,14 +11598,19 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11620,10 +11630,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046951</v>
+        <v>131046796</v>
       </c>
       <c r="B103" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11631,21 +11641,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11655,10 +11665,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395463</v>
+        <v>395443</v>
       </c>
       <c r="R103" t="n">
-        <v>6804524</v>
+        <v>6804347</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11700,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11710,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11727,7 +11737,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131046876</v>
+        <v>131033349</v>
       </c>
       <c r="B104" t="n">
         <v>79244</v>
@@ -11762,10 +11772,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395457</v>
+        <v>395757</v>
       </c>
       <c r="R104" t="n">
-        <v>6804453</v>
+        <v>6804291</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11792,22 +11802,22 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11834,7 +11844,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131046890</v>
+        <v>131046952</v>
       </c>
       <c r="B105" t="n">
         <v>79244</v>
@@ -11869,10 +11879,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395440</v>
+        <v>395461</v>
       </c>
       <c r="R105" t="n">
-        <v>6804390</v>
+        <v>6804521</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11904,7 +11914,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -11914,7 +11924,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11941,7 +11951,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131033349</v>
+        <v>131046951</v>
       </c>
       <c r="B106" t="n">
         <v>79244</v>
@@ -11976,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395757</v>
+        <v>395463</v>
       </c>
       <c r="R106" t="n">
-        <v>6804291</v>
+        <v>6804524</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12006,22 +12016,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12048,10 +12058,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131047017</v>
+        <v>131046876</v>
       </c>
       <c r="B107" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12059,39 +12069,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395448</v>
+        <v>395457</v>
       </c>
       <c r="R107" t="n">
-        <v>6804508</v>
+        <v>6804453</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12123,7 +12128,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12133,19 +12138,14 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC107" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD107" t="b">
         <v>0</v>
       </c>
       <c r="AE107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG107" t="b">
         <v>0</v>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B108" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R108" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12272,7 +12272,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131033341</v>
+        <v>131046957</v>
       </c>
       <c r="B109" t="n">
         <v>79244</v>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395797</v>
+        <v>395414</v>
       </c>
       <c r="R109" t="n">
-        <v>6804591</v>
+        <v>6804565</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12337,22 +12337,22 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046957</v>
+        <v>131033341</v>
       </c>
       <c r="B110" t="n">
         <v>79244</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395414</v>
+        <v>395797</v>
       </c>
       <c r="R110" t="n">
-        <v>6804565</v>
+        <v>6804591</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD110" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046875</v>
+        <v>131046872</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395444</v>
+        <v>395434</v>
       </c>
       <c r="R2" t="n">
-        <v>6804461</v>
+        <v>6804484</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046896</v>
+        <v>131046947</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395423</v>
+        <v>395461</v>
       </c>
       <c r="R3" t="n">
-        <v>6804458</v>
+        <v>6804551</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046803</v>
+        <v>131046896</v>
       </c>
       <c r="B4" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395450</v>
+        <v>395423</v>
       </c>
       <c r="R4" t="n">
-        <v>6804390</v>
+        <v>6804458</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046747</v>
+        <v>131046873</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,39 +1012,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395480</v>
+        <v>395430</v>
       </c>
       <c r="R5" t="n">
-        <v>6804496</v>
+        <v>6804474</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1076,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1086,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1113,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046947</v>
+        <v>131046995</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1148,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395461</v>
+        <v>395491</v>
       </c>
       <c r="R6" t="n">
-        <v>6804551</v>
+        <v>6804522</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1183,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1193,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1220,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046872</v>
+        <v>131046803</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1255,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395434</v>
+        <v>395450</v>
       </c>
       <c r="R7" t="n">
-        <v>6804484</v>
+        <v>6804390</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046873</v>
+        <v>131046747</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,34 +1333,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395430</v>
+        <v>395480</v>
       </c>
       <c r="R8" t="n">
-        <v>6804474</v>
+        <v>6804496</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,7 +1434,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046995</v>
+        <v>131046875</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395491</v>
+        <v>395444</v>
       </c>
       <c r="R9" t="n">
-        <v>6804522</v>
+        <v>6804461</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1658,32 +1658,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046884</v>
+        <v>131046807</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>83207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395489</v>
+        <v>395510</v>
       </c>
       <c r="R11" t="n">
-        <v>6804292</v>
+        <v>6804530</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,10 +1765,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131033342</v>
+        <v>131046749</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1776,34 +1776,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395753</v>
+        <v>395449</v>
       </c>
       <c r="R12" t="n">
-        <v>6804557</v>
+        <v>6804395</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,22 +1835,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1872,7 +1877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046858</v>
+        <v>131046884</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1907,10 +1912,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395570</v>
+        <v>395489</v>
       </c>
       <c r="R13" t="n">
-        <v>6804341</v>
+        <v>6804292</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,7 +1947,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1952,7 +1957,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1979,32 +1984,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046807</v>
+        <v>131033342</v>
       </c>
       <c r="B14" t="n">
-        <v>83207</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2014,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395510</v>
+        <v>395753</v>
       </c>
       <c r="R14" t="n">
-        <v>6804530</v>
+        <v>6804557</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,22 +2049,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2086,10 +2091,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046749</v>
+        <v>131046858</v>
       </c>
       <c r="B15" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2097,39 +2102,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395449</v>
+        <v>395570</v>
       </c>
       <c r="R15" t="n">
-        <v>6804395</v>
+        <v>6804341</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046955</v>
+        <v>131033283</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79276</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395432</v>
+        <v>395745</v>
       </c>
       <c r="R16" t="n">
-        <v>6804533</v>
+        <v>6804404</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2263,22 +2263,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046878</v>
+        <v>131046901</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395478</v>
+        <v>395395</v>
       </c>
       <c r="R17" t="n">
-        <v>6804426</v>
+        <v>6804547</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046868</v>
+        <v>131046955</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395462</v>
+        <v>395432</v>
       </c>
       <c r="R18" t="n">
-        <v>6804496</v>
+        <v>6804533</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131033348</v>
+        <v>131046878</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395756</v>
+        <v>395478</v>
       </c>
       <c r="R19" t="n">
-        <v>6804343</v>
+        <v>6804426</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,22 +2584,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,10 +2626,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131033283</v>
+        <v>131046868</v>
       </c>
       <c r="B20" t="n">
-        <v>79276</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2637,21 +2637,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395745</v>
+        <v>395462</v>
       </c>
       <c r="R20" t="n">
-        <v>6804404</v>
+        <v>6804496</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131033331</v>
+        <v>131033348</v>
       </c>
       <c r="B21" t="n">
         <v>79244</v>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395707</v>
+        <v>395756</v>
       </c>
       <c r="R21" t="n">
-        <v>6804307</v>
+        <v>6804343</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,7 +2840,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046901</v>
+        <v>131033331</v>
       </c>
       <c r="B22" t="n">
         <v>79244</v>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395395</v>
+        <v>395707</v>
       </c>
       <c r="R22" t="n">
-        <v>6804547</v>
+        <v>6804307</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3184,7 +3184,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033324</v>
+        <v>131046894</v>
       </c>
       <c r="B25" t="n">
         <v>79244</v>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395676</v>
+        <v>395429</v>
       </c>
       <c r="R25" t="n">
-        <v>6804490</v>
+        <v>6804421</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,22 +3249,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033294</v>
+        <v>131033344</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3302,39 +3302,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395714</v>
+        <v>395753</v>
       </c>
       <c r="R26" t="n">
-        <v>6804552</v>
+        <v>6804482</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3366,7 +3361,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3376,12 +3371,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3408,7 +3398,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046894</v>
+        <v>131033324</v>
       </c>
       <c r="B27" t="n">
         <v>79244</v>
@@ -3443,10 +3433,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395429</v>
+        <v>395676</v>
       </c>
       <c r="R27" t="n">
-        <v>6804421</v>
+        <v>6804490</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3473,22 +3463,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3515,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033344</v>
+        <v>131033294</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3526,34 +3516,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395753</v>
+        <v>395714</v>
       </c>
       <c r="R28" t="n">
-        <v>6804482</v>
+        <v>6804552</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3585,7 +3580,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3595,7 +3590,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046885</v>
+        <v>131046994</v>
       </c>
       <c r="B30" t="n">
         <v>79244</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395486</v>
+        <v>395484</v>
       </c>
       <c r="R30" t="n">
-        <v>6804289</v>
+        <v>6804534</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046892</v>
+        <v>131046885</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395445</v>
+        <v>395486</v>
       </c>
       <c r="R32" t="n">
-        <v>6804404</v>
+        <v>6804289</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4050,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046898</v>
+        <v>131046892</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395393</v>
+        <v>395445</v>
       </c>
       <c r="R33" t="n">
-        <v>6804503</v>
+        <v>6804404</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046998</v>
+        <v>131046898</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395494</v>
+        <v>395393</v>
       </c>
       <c r="R34" t="n">
-        <v>6804551</v>
+        <v>6804503</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,50 +4264,45 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131047035</v>
+        <v>131046998</v>
       </c>
       <c r="B35" t="n">
-        <v>5177</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395505</v>
+        <v>395494</v>
       </c>
       <c r="R35" t="n">
-        <v>6804295</v>
+        <v>6804551</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4339,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4349,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4376,45 +4371,50 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046994</v>
+        <v>131047035</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>5177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395484</v>
+        <v>395505</v>
       </c>
       <c r="R36" t="n">
-        <v>6804534</v>
+        <v>6804295</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131033334</v>
+        <v>131046748</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,34 +4815,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395718</v>
+        <v>395453</v>
       </c>
       <c r="R40" t="n">
-        <v>6804558</v>
+        <v>6804322</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4869,22 +4874,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4911,7 +4916,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046881</v>
+        <v>131033334</v>
       </c>
       <c r="B41" t="n">
         <v>79244</v>
@@ -4946,10 +4951,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395494</v>
+        <v>395718</v>
       </c>
       <c r="R41" t="n">
-        <v>6804395</v>
+        <v>6804558</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4976,22 +4981,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5018,10 +5023,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046748</v>
+        <v>131046881</v>
       </c>
       <c r="B42" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5029,39 +5034,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395453</v>
+        <v>395494</v>
       </c>
       <c r="R42" t="n">
-        <v>6804322</v>
+        <v>6804395</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5344,10 +5344,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046805</v>
+        <v>131046859</v>
       </c>
       <c r="B45" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5355,21 +5355,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395461</v>
+        <v>395566</v>
       </c>
       <c r="R45" t="n">
-        <v>6804539</v>
+        <v>6804349</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5451,10 +5451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046859</v>
+        <v>131046805</v>
       </c>
       <c r="B46" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5462,21 +5462,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395566</v>
+        <v>395461</v>
       </c>
       <c r="R46" t="n">
-        <v>6804349</v>
+        <v>6804539</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5675,10 +5675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046861</v>
+        <v>131046712</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5686,21 +5686,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395564</v>
+        <v>395468</v>
       </c>
       <c r="R48" t="n">
-        <v>6804373</v>
+        <v>6804494</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,7 +5782,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131033352</v>
+        <v>131046997</v>
       </c>
       <c r="B49" t="n">
         <v>79244</v>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395857</v>
+        <v>395518</v>
       </c>
       <c r="R49" t="n">
-        <v>6804292</v>
+        <v>6804527</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5847,22 +5847,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046948</v>
+        <v>131046954</v>
       </c>
       <c r="B50" t="n">
         <v>79244</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395462</v>
+        <v>395446</v>
       </c>
       <c r="R50" t="n">
-        <v>6804542</v>
+        <v>6804531</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046866</v>
+        <v>131046861</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395542</v>
+        <v>395564</v>
       </c>
       <c r="R51" t="n">
-        <v>6804432</v>
+        <v>6804373</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046869</v>
+        <v>131033352</v>
       </c>
       <c r="B52" t="n">
         <v>79244</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395456</v>
+        <v>395857</v>
       </c>
       <c r="R52" t="n">
-        <v>6804500</v>
+        <v>6804292</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6168,22 +6168,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,7 +6210,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131033323</v>
+        <v>131046948</v>
       </c>
       <c r="B53" t="n">
         <v>79244</v>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395680</v>
+        <v>395462</v>
       </c>
       <c r="R53" t="n">
-        <v>6804541</v>
+        <v>6804542</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6275,22 +6275,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,10 +6317,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046712</v>
+        <v>131046866</v>
       </c>
       <c r="B54" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6328,21 +6328,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395468</v>
+        <v>395542</v>
       </c>
       <c r="R54" t="n">
-        <v>6804494</v>
+        <v>6804432</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,7 +6424,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046949</v>
+        <v>131046869</v>
       </c>
       <c r="B55" t="n">
         <v>79244</v>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395463</v>
+        <v>395456</v>
       </c>
       <c r="R55" t="n">
-        <v>6804534</v>
+        <v>6804500</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,7 +6531,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046880</v>
+        <v>131033323</v>
       </c>
       <c r="B56" t="n">
         <v>79244</v>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395491</v>
+        <v>395680</v>
       </c>
       <c r="R56" t="n">
-        <v>6804393</v>
+        <v>6804541</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6596,22 +6596,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046954</v>
+        <v>131046949</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395446</v>
+        <v>395463</v>
       </c>
       <c r="R57" t="n">
-        <v>6804531</v>
+        <v>6804534</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046997</v>
+        <v>131046880</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395518</v>
+        <v>395491</v>
       </c>
       <c r="R58" t="n">
-        <v>6804527</v>
+        <v>6804393</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6852,7 +6852,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046888</v>
+        <v>131046879</v>
       </c>
       <c r="B59" t="n">
         <v>79244</v>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395436</v>
+        <v>395482</v>
       </c>
       <c r="R59" t="n">
-        <v>6804373</v>
+        <v>6804421</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,7 +6959,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046879</v>
+        <v>131046874</v>
       </c>
       <c r="B60" t="n">
         <v>79244</v>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395482</v>
+        <v>395433</v>
       </c>
       <c r="R60" t="n">
-        <v>6804421</v>
+        <v>6804469</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046874</v>
+        <v>131046888</v>
       </c>
       <c r="B61" t="n">
         <v>79244</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395433</v>
+        <v>395436</v>
       </c>
       <c r="R61" t="n">
-        <v>6804469</v>
+        <v>6804373</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046789</v>
+        <v>131033326</v>
       </c>
       <c r="B63" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7291,39 +7291,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395495</v>
+        <v>395665</v>
       </c>
       <c r="R63" t="n">
-        <v>6804385</v>
+        <v>6804439</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7350,27 +7345,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7397,10 +7387,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131033326</v>
+        <v>131046789</v>
       </c>
       <c r="B64" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7408,34 +7398,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395665</v>
+        <v>395495</v>
       </c>
       <c r="R64" t="n">
-        <v>6804439</v>
+        <v>6804385</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7462,22 +7457,27 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7932,7 +7932,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046993</v>
+        <v>131046856</v>
       </c>
       <c r="B69" t="n">
         <v>79244</v>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395472</v>
+        <v>395564</v>
       </c>
       <c r="R69" t="n">
-        <v>6804550</v>
+        <v>6804311</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,32 +8039,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033353</v>
+        <v>131033299</v>
       </c>
       <c r="B70" t="n">
-        <v>79244</v>
+        <v>79268</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8074,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395859</v>
+        <v>395890</v>
       </c>
       <c r="R70" t="n">
-        <v>6804312</v>
+        <v>6804464</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8146,10 +8146,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046877</v>
+        <v>131033295</v>
       </c>
       <c r="B71" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8157,34 +8157,39 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395744</v>
       </c>
       <c r="R71" t="n">
-        <v>6804442</v>
+        <v>6804575</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8211,22 +8216,27 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8253,32 +8263,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131033299</v>
+        <v>131046993</v>
       </c>
       <c r="B72" t="n">
-        <v>79268</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8288,10 +8298,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395890</v>
+        <v>395472</v>
       </c>
       <c r="R72" t="n">
-        <v>6804464</v>
+        <v>6804550</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8318,22 +8328,22 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8360,7 +8370,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046856</v>
+        <v>131033353</v>
       </c>
       <c r="B73" t="n">
         <v>79244</v>
@@ -8395,10 +8405,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395564</v>
+        <v>395859</v>
       </c>
       <c r="R73" t="n">
-        <v>6804311</v>
+        <v>6804312</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8425,22 +8435,22 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8467,10 +8477,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131033295</v>
+        <v>131046877</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8478,39 +8488,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395744</v>
+        <v>395464</v>
       </c>
       <c r="R74" t="n">
-        <v>6804575</v>
+        <v>6804442</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8537,27 +8542,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,7 +8584,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046862</v>
+        <v>131046865</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395554</v>
+        <v>395546</v>
       </c>
       <c r="R75" t="n">
-        <v>6804375</v>
+        <v>6804405</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046865</v>
+        <v>131046862</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395546</v>
+        <v>395554</v>
       </c>
       <c r="R77" t="n">
-        <v>6804405</v>
+        <v>6804375</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9119,7 +9119,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131033330</v>
+        <v>131046857</v>
       </c>
       <c r="B80" t="n">
         <v>79244</v>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395702</v>
+        <v>395560</v>
       </c>
       <c r="R80" t="n">
-        <v>6804325</v>
+        <v>6804326</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9184,22 +9184,22 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046883</v>
+        <v>131033330</v>
       </c>
       <c r="B81" t="n">
         <v>79244</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395494</v>
+        <v>395702</v>
       </c>
       <c r="R81" t="n">
-        <v>6804367</v>
+        <v>6804325</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9440,7 +9440,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046889</v>
+        <v>131046883</v>
       </c>
       <c r="B83" t="n">
         <v>79244</v>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395429</v>
+        <v>395494</v>
       </c>
       <c r="R83" t="n">
-        <v>6804384</v>
+        <v>6804367</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9547,7 +9547,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046857</v>
+        <v>131046889</v>
       </c>
       <c r="B84" t="n">
         <v>79244</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395560</v>
+        <v>395429</v>
       </c>
       <c r="R84" t="n">
-        <v>6804326</v>
+        <v>6804384</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9761,10 +9761,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131047018</v>
+        <v>131033333</v>
       </c>
       <c r="B86" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9772,39 +9772,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395509</v>
+        <v>395717</v>
       </c>
       <c r="R86" t="n">
-        <v>6804287</v>
+        <v>6804542</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9831,34 +9826,29 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
       <c r="AE86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG86" t="b">
         <v>0</v>
@@ -9878,10 +9868,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131033293</v>
+        <v>131046902</v>
       </c>
       <c r="B87" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9889,39 +9879,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395668</v>
+        <v>395389</v>
       </c>
       <c r="R87" t="n">
-        <v>6804432</v>
+        <v>6804555</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9948,27 +9933,22 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:22</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9995,7 +9975,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131033333</v>
+        <v>131046860</v>
       </c>
       <c r="B88" t="n">
         <v>79244</v>
@@ -10030,10 +10010,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395717</v>
+        <v>395578</v>
       </c>
       <c r="R88" t="n">
-        <v>6804542</v>
+        <v>6804350</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10060,22 +10040,22 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10102,10 +10082,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046902</v>
+        <v>131047018</v>
       </c>
       <c r="B89" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10113,34 +10093,39 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395389</v>
+        <v>395509</v>
       </c>
       <c r="R89" t="n">
-        <v>6804555</v>
+        <v>6804287</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10172,7 +10157,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10182,14 +10167,19 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG89" t="b">
         <v>0</v>
@@ -10209,10 +10199,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046860</v>
+        <v>131033293</v>
       </c>
       <c r="B90" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10220,34 +10210,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395578</v>
+        <v>395668</v>
       </c>
       <c r="R90" t="n">
-        <v>6804350</v>
+        <v>6804432</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10274,22 +10269,27 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046950</v>
+        <v>131046992</v>
       </c>
       <c r="B91" t="n">
         <v>79244</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395470</v>
+        <v>395477</v>
       </c>
       <c r="R91" t="n">
-        <v>6804530</v>
+        <v>6804563</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046891</v>
+        <v>131046950</v>
       </c>
       <c r="B92" t="n">
         <v>79244</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395453</v>
+        <v>395470</v>
       </c>
       <c r="R92" t="n">
-        <v>6804400</v>
+        <v>6804530</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131033345</v>
+        <v>131046870</v>
       </c>
       <c r="B93" t="n">
         <v>79244</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395748</v>
+        <v>395450</v>
       </c>
       <c r="R93" t="n">
-        <v>6804429</v>
+        <v>6804507</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10595,22 +10595,22 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046870</v>
+        <v>131046891</v>
       </c>
       <c r="B94" t="n">
         <v>79244</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395450</v>
+        <v>395453</v>
       </c>
       <c r="R94" t="n">
-        <v>6804507</v>
+        <v>6804400</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046992</v>
+        <v>131033345</v>
       </c>
       <c r="B95" t="n">
         <v>79244</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395477</v>
+        <v>395748</v>
       </c>
       <c r="R95" t="n">
-        <v>6804563</v>
+        <v>6804429</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,7 +10851,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131033332</v>
+        <v>131046895</v>
       </c>
       <c r="B96" t="n">
         <v>79244</v>
@@ -10886,10 +10886,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395641</v>
+        <v>395436</v>
       </c>
       <c r="R96" t="n">
-        <v>6804509</v>
+        <v>6804436</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10916,22 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10958,10 +10958,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131033362</v>
+        <v>131033332</v>
       </c>
       <c r="B97" t="n">
-        <v>78910</v>
+        <v>79244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10969,21 +10969,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10993,10 +10993,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395883</v>
+        <v>395641</v>
       </c>
       <c r="R97" t="n">
-        <v>6804433</v>
+        <v>6804509</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11065,7 +11065,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046895</v>
+        <v>131046887</v>
       </c>
       <c r="B98" t="n">
         <v>79244</v>
@@ -11100,10 +11100,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395436</v>
+        <v>395449</v>
       </c>
       <c r="R98" t="n">
-        <v>6804436</v>
+        <v>6804334</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,10 +11172,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046887</v>
+        <v>131046780</v>
       </c>
       <c r="B99" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11183,34 +11183,39 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395449</v>
+        <v>395470</v>
       </c>
       <c r="R99" t="n">
-        <v>6804334</v>
+        <v>6804530</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11242,7 +11247,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11252,7 +11257,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11279,7 +11289,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046780</v>
+        <v>131047019</v>
       </c>
       <c r="B100" t="n">
         <v>57884</v>
@@ -11310,7 +11320,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -11319,10 +11329,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395470</v>
+        <v>395446</v>
       </c>
       <c r="R100" t="n">
-        <v>6804530</v>
+        <v>6804531</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11354,7 +11364,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11364,19 +11374,19 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG100" t="b">
         <v>0</v>
@@ -11396,10 +11406,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131047019</v>
+        <v>131033362</v>
       </c>
       <c r="B101" t="n">
-        <v>57884</v>
+        <v>78910</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11407,39 +11417,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395446</v>
+        <v>395883</v>
       </c>
       <c r="R101" t="n">
-        <v>6804531</v>
+        <v>6804433</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11466,34 +11471,29 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131047017</v>
+        <v>131046951</v>
       </c>
       <c r="B102" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,39 +11524,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395448</v>
+        <v>395463</v>
       </c>
       <c r="R102" t="n">
-        <v>6804508</v>
+        <v>6804524</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11588,7 +11583,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11598,19 +11593,14 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11630,10 +11620,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B103" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11641,21 +11631,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11665,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R103" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11700,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11710,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11951,7 +11941,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046951</v>
+        <v>131046876</v>
       </c>
       <c r="B106" t="n">
         <v>79244</v>
@@ -11986,10 +11976,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395463</v>
+        <v>395457</v>
       </c>
       <c r="R106" t="n">
-        <v>6804524</v>
+        <v>6804453</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12021,7 +12011,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12031,7 +12021,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12058,10 +12048,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046876</v>
+        <v>131046796</v>
       </c>
       <c r="B107" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12069,21 +12059,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12093,10 +12083,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395457</v>
+        <v>395443</v>
       </c>
       <c r="R107" t="n">
-        <v>6804453</v>
+        <v>6804347</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12128,7 +12118,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12138,7 +12128,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12165,10 +12155,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046890</v>
+        <v>131047017</v>
       </c>
       <c r="B108" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,34 +12166,39 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395440</v>
+        <v>395448</v>
       </c>
       <c r="R108" t="n">
-        <v>6804390</v>
+        <v>6804508</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12230,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,14 +12240,19 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD108" t="b">
         <v>0</v>
       </c>
       <c r="AE108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG108" t="b">
         <v>0</v>
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131033341</v>
+        <v>131046903</v>
       </c>
       <c r="B110" t="n">
         <v>79244</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395797</v>
+        <v>395384</v>
       </c>
       <c r="R110" t="n">
-        <v>6804591</v>
+        <v>6804564</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131046903</v>
+        <v>131033341</v>
       </c>
       <c r="B111" t="n">
         <v>79244</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395384</v>
+        <v>395797</v>
       </c>
       <c r="R111" t="n">
-        <v>6804564</v>
+        <v>6804591</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12551,22 +12551,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046872</v>
+        <v>131046875</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395434</v>
+        <v>395444</v>
       </c>
       <c r="R2" t="n">
-        <v>6804484</v>
+        <v>6804461</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046947</v>
+        <v>131046790</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,34 +798,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395461</v>
+        <v>395416</v>
       </c>
       <c r="R3" t="n">
-        <v>6804551</v>
+        <v>6804491</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +872,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1001,7 +1011,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046873</v>
+        <v>131046947</v>
       </c>
       <c r="B5" t="n">
         <v>79244</v>
@@ -1036,10 +1046,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395430</v>
+        <v>395461</v>
       </c>
       <c r="R5" t="n">
-        <v>6804474</v>
+        <v>6804551</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1081,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1091,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1118,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046995</v>
+        <v>131046872</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1143,10 +1153,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395491</v>
+        <v>395434</v>
       </c>
       <c r="R6" t="n">
-        <v>6804522</v>
+        <v>6804484</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1188,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1198,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046803</v>
+        <v>131046873</v>
       </c>
       <c r="B7" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,21 +1236,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,10 +1260,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395450</v>
+        <v>395430</v>
       </c>
       <c r="R7" t="n">
-        <v>6804390</v>
+        <v>6804474</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1295,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1305,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046747</v>
+        <v>131046995</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,39 +1343,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395480</v>
+        <v>395491</v>
       </c>
       <c r="R8" t="n">
-        <v>6804496</v>
+        <v>6804522</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1407,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046875</v>
+        <v>131046803</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1445,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1469,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395444</v>
+        <v>395450</v>
       </c>
       <c r="R9" t="n">
-        <v>6804461</v>
+        <v>6804390</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,10 +1546,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046790</v>
+        <v>131046747</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,16 +1557,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1572,7 +1577,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1581,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395416</v>
+        <v>395480</v>
       </c>
       <c r="R10" t="n">
-        <v>6804491</v>
+        <v>6804496</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1616,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1626,12 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,32 +1658,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046807</v>
+        <v>131033342</v>
       </c>
       <c r="B11" t="n">
-        <v>83207</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395510</v>
+        <v>395753</v>
       </c>
       <c r="R11" t="n">
-        <v>6804530</v>
+        <v>6804557</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,22 +1723,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,50 +1765,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046749</v>
+        <v>131046807</v>
       </c>
       <c r="B12" t="n">
-        <v>57881</v>
+        <v>83207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>6439</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395449</v>
+        <v>395510</v>
       </c>
       <c r="R12" t="n">
-        <v>6804395</v>
+        <v>6804530</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1835,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,7 +1845,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,10 +1872,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046884</v>
+        <v>131046749</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1888,34 +1883,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395489</v>
+        <v>395449</v>
       </c>
       <c r="R13" t="n">
-        <v>6804292</v>
+        <v>6804395</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033342</v>
+        <v>131046884</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395753</v>
+        <v>395489</v>
       </c>
       <c r="R14" t="n">
-        <v>6804557</v>
+        <v>6804292</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046901</v>
+        <v>131033331</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395395</v>
+        <v>395707</v>
       </c>
       <c r="R17" t="n">
-        <v>6804547</v>
+        <v>6804307</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046955</v>
+        <v>131046901</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395432</v>
+        <v>395395</v>
       </c>
       <c r="R18" t="n">
-        <v>6804533</v>
+        <v>6804547</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2626,7 +2626,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046868</v>
+        <v>131033348</v>
       </c>
       <c r="B20" t="n">
         <v>79244</v>
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395462</v>
+        <v>395756</v>
       </c>
       <c r="R20" t="n">
-        <v>6804496</v>
+        <v>6804343</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131033348</v>
+        <v>131046955</v>
       </c>
       <c r="B21" t="n">
         <v>79244</v>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395756</v>
+        <v>395432</v>
       </c>
       <c r="R21" t="n">
-        <v>6804343</v>
+        <v>6804533</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,22 +2798,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,7 +2840,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131033331</v>
+        <v>131046868</v>
       </c>
       <c r="B22" t="n">
         <v>79244</v>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395707</v>
+        <v>395462</v>
       </c>
       <c r="R22" t="n">
-        <v>6804307</v>
+        <v>6804496</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3184,7 +3184,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046894</v>
+        <v>131033324</v>
       </c>
       <c r="B25" t="n">
         <v>79244</v>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395429</v>
+        <v>395676</v>
       </c>
       <c r="R25" t="n">
-        <v>6804421</v>
+        <v>6804490</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,22 +3249,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3398,7 +3398,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131033324</v>
+        <v>131046894</v>
       </c>
       <c r="B27" t="n">
         <v>79244</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395676</v>
+        <v>395429</v>
       </c>
       <c r="R27" t="n">
-        <v>6804490</v>
+        <v>6804421</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,22 +3463,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046994</v>
+        <v>131046956</v>
       </c>
       <c r="B30" t="n">
         <v>79244</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395484</v>
+        <v>395418</v>
       </c>
       <c r="R30" t="n">
-        <v>6804534</v>
+        <v>6804552</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046956</v>
+        <v>131046892</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395418</v>
+        <v>395445</v>
       </c>
       <c r="R31" t="n">
-        <v>6804552</v>
+        <v>6804404</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046885</v>
+        <v>131046998</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395486</v>
+        <v>395494</v>
       </c>
       <c r="R32" t="n">
-        <v>6804289</v>
+        <v>6804551</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4050,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046892</v>
+        <v>131046885</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395445</v>
+        <v>395486</v>
       </c>
       <c r="R33" t="n">
-        <v>6804404</v>
+        <v>6804289</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4264,7 +4264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046998</v>
+        <v>131046994</v>
       </c>
       <c r="B35" t="n">
         <v>79244</v>
@@ -4299,10 +4299,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395494</v>
+        <v>395484</v>
       </c>
       <c r="R35" t="n">
-        <v>6804551</v>
+        <v>6804534</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4916,7 +4916,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131033334</v>
+        <v>131046999</v>
       </c>
       <c r="B41" t="n">
         <v>79244</v>
@@ -4951,10 +4951,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395718</v>
+        <v>395485</v>
       </c>
       <c r="R41" t="n">
-        <v>6804558</v>
+        <v>6804561</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4981,22 +4981,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5023,7 +5023,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046881</v>
+        <v>131033346</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -5058,10 +5058,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395494</v>
+        <v>395744</v>
       </c>
       <c r="R42" t="n">
-        <v>6804395</v>
+        <v>6804417</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5088,22 +5088,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5130,7 +5130,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046999</v>
+        <v>131046859</v>
       </c>
       <c r="B43" t="n">
         <v>79244</v>
@@ -5165,10 +5165,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395485</v>
+        <v>395566</v>
       </c>
       <c r="R43" t="n">
-        <v>6804561</v>
+        <v>6804349</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131033346</v>
+        <v>131033334</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395744</v>
+        <v>395718</v>
       </c>
       <c r="R44" t="n">
-        <v>6804417</v>
+        <v>6804558</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5344,10 +5344,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046859</v>
+        <v>131046805</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5355,21 +5355,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395566</v>
+        <v>395461</v>
       </c>
       <c r="R45" t="n">
-        <v>6804349</v>
+        <v>6804539</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5451,10 +5451,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046805</v>
+        <v>131046881</v>
       </c>
       <c r="B46" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5462,21 +5462,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395461</v>
+        <v>395494</v>
       </c>
       <c r="R46" t="n">
-        <v>6804539</v>
+        <v>6804395</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5675,10 +5675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046712</v>
+        <v>131046861</v>
       </c>
       <c r="B48" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5686,21 +5686,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395468</v>
+        <v>395564</v>
       </c>
       <c r="R48" t="n">
-        <v>6804494</v>
+        <v>6804373</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046997</v>
+        <v>131046712</v>
       </c>
       <c r="B49" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5793,21 +5793,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395518</v>
+        <v>395468</v>
       </c>
       <c r="R49" t="n">
-        <v>6804527</v>
+        <v>6804494</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046954</v>
+        <v>131046880</v>
       </c>
       <c r="B50" t="n">
         <v>79244</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395446</v>
+        <v>395491</v>
       </c>
       <c r="R50" t="n">
-        <v>6804531</v>
+        <v>6804393</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046861</v>
+        <v>131033323</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395564</v>
+        <v>395680</v>
       </c>
       <c r="R51" t="n">
-        <v>6804373</v>
+        <v>6804541</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131033352</v>
+        <v>131046949</v>
       </c>
       <c r="B52" t="n">
         <v>79244</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395857</v>
+        <v>395463</v>
       </c>
       <c r="R52" t="n">
-        <v>6804292</v>
+        <v>6804534</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6168,22 +6168,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6531,7 +6531,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131033323</v>
+        <v>131046954</v>
       </c>
       <c r="B56" t="n">
         <v>79244</v>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395680</v>
+        <v>395446</v>
       </c>
       <c r="R56" t="n">
-        <v>6804541</v>
+        <v>6804531</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6596,22 +6596,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046949</v>
+        <v>131046997</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395463</v>
+        <v>395518</v>
       </c>
       <c r="R57" t="n">
-        <v>6804534</v>
+        <v>6804527</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046880</v>
+        <v>131033352</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395491</v>
+        <v>395857</v>
       </c>
       <c r="R58" t="n">
-        <v>6804393</v>
+        <v>6804292</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6810,22 +6810,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6852,7 +6852,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046879</v>
+        <v>131046874</v>
       </c>
       <c r="B59" t="n">
         <v>79244</v>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395482</v>
+        <v>395433</v>
       </c>
       <c r="R59" t="n">
-        <v>6804421</v>
+        <v>6804469</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6959,10 +6959,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046874</v>
+        <v>131046713</v>
       </c>
       <c r="B60" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395433</v>
+        <v>395454</v>
       </c>
       <c r="R60" t="n">
-        <v>6804469</v>
+        <v>6804501</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046888</v>
+        <v>131046879</v>
       </c>
       <c r="B61" t="n">
         <v>79244</v>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395436</v>
+        <v>395482</v>
       </c>
       <c r="R61" t="n">
-        <v>6804373</v>
+        <v>6804421</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,10 +7173,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046713</v>
+        <v>131046888</v>
       </c>
       <c r="B62" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7184,21 +7184,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395454</v>
+        <v>395436</v>
       </c>
       <c r="R62" t="n">
-        <v>6804501</v>
+        <v>6804373</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033326</v>
+        <v>131046882</v>
       </c>
       <c r="B63" t="n">
         <v>79244</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395665</v>
+        <v>395493</v>
       </c>
       <c r="R63" t="n">
-        <v>6804439</v>
+        <v>6804376</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7345,22 +7345,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,10 +7387,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046789</v>
+        <v>131033327</v>
       </c>
       <c r="B64" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7398,39 +7398,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395495</v>
+        <v>395671</v>
       </c>
       <c r="R64" t="n">
-        <v>6804385</v>
+        <v>6804435</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7457,27 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7504,7 +7494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033321</v>
+        <v>131046996</v>
       </c>
       <c r="B65" t="n">
         <v>79244</v>
@@ -7539,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395718</v>
+        <v>395485</v>
       </c>
       <c r="R65" t="n">
-        <v>6804573</v>
+        <v>6804506</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7569,22 +7559,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7611,7 +7601,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046882</v>
+        <v>131033321</v>
       </c>
       <c r="B66" t="n">
         <v>79244</v>
@@ -7646,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395493</v>
+        <v>395718</v>
       </c>
       <c r="R66" t="n">
-        <v>6804376</v>
+        <v>6804573</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7676,22 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7718,10 +7708,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131033327</v>
+        <v>131046789</v>
       </c>
       <c r="B67" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7729,34 +7719,39 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395671</v>
+        <v>395495</v>
       </c>
       <c r="R67" t="n">
-        <v>6804435</v>
+        <v>6804385</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7783,22 +7778,27 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7825,7 +7825,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046996</v>
+        <v>131033326</v>
       </c>
       <c r="B68" t="n">
         <v>79244</v>
@@ -7860,10 +7860,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395485</v>
+        <v>395665</v>
       </c>
       <c r="R68" t="n">
-        <v>6804506</v>
+        <v>6804439</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7890,22 +7890,22 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7932,7 +7932,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046856</v>
+        <v>131033353</v>
       </c>
       <c r="B69" t="n">
         <v>79244</v>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395564</v>
+        <v>395859</v>
       </c>
       <c r="R69" t="n">
-        <v>6804311</v>
+        <v>6804312</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,32 +8039,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033299</v>
+        <v>131046856</v>
       </c>
       <c r="B70" t="n">
-        <v>79268</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8074,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395890</v>
+        <v>395564</v>
       </c>
       <c r="R70" t="n">
-        <v>6804464</v>
+        <v>6804311</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8104,22 +8104,22 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8370,32 +8370,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131033353</v>
+        <v>131033299</v>
       </c>
       <c r="B73" t="n">
-        <v>79244</v>
+        <v>79268</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8405,10 +8405,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395859</v>
+        <v>395890</v>
       </c>
       <c r="R73" t="n">
-        <v>6804312</v>
+        <v>6804464</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8584,10 +8584,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046865</v>
+        <v>131033303</v>
       </c>
       <c r="B75" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8595,21 +8595,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395546</v>
+        <v>395706</v>
       </c>
       <c r="R75" t="n">
-        <v>6804405</v>
+        <v>6804535</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8649,22 +8649,22 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046886</v>
+        <v>131046862</v>
       </c>
       <c r="B76" t="n">
         <v>79244</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395447</v>
+        <v>395554</v>
       </c>
       <c r="R76" t="n">
-        <v>6804315</v>
+        <v>6804375</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046862</v>
+        <v>131046865</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395554</v>
+        <v>395546</v>
       </c>
       <c r="R77" t="n">
-        <v>6804375</v>
+        <v>6804405</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8905,10 +8905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131033303</v>
+        <v>131046886</v>
       </c>
       <c r="B78" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8916,21 +8916,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395706</v>
+        <v>395447</v>
       </c>
       <c r="R78" t="n">
-        <v>6804535</v>
+        <v>6804315</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8970,22 +8970,22 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9119,7 +9119,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046857</v>
+        <v>131033322</v>
       </c>
       <c r="B80" t="n">
         <v>79244</v>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395560</v>
+        <v>395692</v>
       </c>
       <c r="R80" t="n">
-        <v>6804326</v>
+        <v>6804550</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9184,22 +9184,22 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131033330</v>
+        <v>131046889</v>
       </c>
       <c r="B81" t="n">
         <v>79244</v>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395702</v>
+        <v>395429</v>
       </c>
       <c r="R81" t="n">
-        <v>6804325</v>
+        <v>6804384</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9333,7 +9333,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131033322</v>
+        <v>131046857</v>
       </c>
       <c r="B82" t="n">
         <v>79244</v>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395692</v>
+        <v>395560</v>
       </c>
       <c r="R82" t="n">
-        <v>6804550</v>
+        <v>6804326</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9398,22 +9398,22 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9547,7 +9547,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046889</v>
+        <v>131033330</v>
       </c>
       <c r="B84" t="n">
         <v>79244</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395429</v>
+        <v>395702</v>
       </c>
       <c r="R84" t="n">
-        <v>6804384</v>
+        <v>6804325</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9612,22 +9612,22 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9868,7 +9868,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046902</v>
+        <v>131046860</v>
       </c>
       <c r="B87" t="n">
         <v>79244</v>
@@ -9903,10 +9903,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395389</v>
+        <v>395578</v>
       </c>
       <c r="R87" t="n">
-        <v>6804555</v>
+        <v>6804350</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9975,7 +9975,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046860</v>
+        <v>131046902</v>
       </c>
       <c r="B88" t="n">
         <v>79244</v>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395578</v>
+        <v>395389</v>
       </c>
       <c r="R88" t="n">
-        <v>6804350</v>
+        <v>6804555</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046950</v>
+        <v>131046870</v>
       </c>
       <c r="B92" t="n">
         <v>79244</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395470</v>
+        <v>395450</v>
       </c>
       <c r="R92" t="n">
-        <v>6804530</v>
+        <v>6804507</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046870</v>
+        <v>131046891</v>
       </c>
       <c r="B93" t="n">
         <v>79244</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395450</v>
+        <v>395453</v>
       </c>
       <c r="R93" t="n">
-        <v>6804507</v>
+        <v>6804400</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046891</v>
+        <v>131046950</v>
       </c>
       <c r="B94" t="n">
         <v>79244</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395453</v>
+        <v>395470</v>
       </c>
       <c r="R94" t="n">
-        <v>6804400</v>
+        <v>6804530</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11065,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046887</v>
+        <v>131046780</v>
       </c>
       <c r="B98" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11076,34 +11076,39 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395449</v>
+        <v>395470</v>
       </c>
       <c r="R98" t="n">
-        <v>6804334</v>
+        <v>6804530</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11135,7 +11140,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11145,7 +11150,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11172,7 +11182,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046780</v>
+        <v>131047019</v>
       </c>
       <c r="B99" t="n">
         <v>57884</v>
@@ -11203,7 +11213,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -11212,10 +11222,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395470</v>
+        <v>395446</v>
       </c>
       <c r="R99" t="n">
-        <v>6804530</v>
+        <v>6804531</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11247,7 +11257,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11257,19 +11267,19 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG99" t="b">
         <v>0</v>
@@ -11289,10 +11299,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131047019</v>
+        <v>131046887</v>
       </c>
       <c r="B100" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11300,39 +11310,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395446</v>
+        <v>395449</v>
       </c>
       <c r="R100" t="n">
-        <v>6804531</v>
+        <v>6804334</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11364,7 +11369,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11374,19 +11379,14 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG100" t="b">
         <v>0</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046890</v>
+        <v>131046876</v>
       </c>
       <c r="B103" t="n">
         <v>79244</v>
@@ -11655,10 +11655,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395440</v>
+        <v>395457</v>
       </c>
       <c r="R103" t="n">
-        <v>6804390</v>
+        <v>6804453</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11834,10 +11834,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B105" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11845,34 +11845,39 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R105" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11904,7 +11909,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -11914,14 +11919,19 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD105" t="b">
         <v>0</v>
       </c>
       <c r="AE105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG105" t="b">
         <v>0</v>
@@ -11941,10 +11951,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046876</v>
+        <v>131046796</v>
       </c>
       <c r="B106" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11952,21 +11962,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -11976,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395457</v>
+        <v>395443</v>
       </c>
       <c r="R106" t="n">
-        <v>6804453</v>
+        <v>6804347</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12011,7 +12021,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12021,7 +12031,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12048,10 +12058,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B107" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12059,21 +12069,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12083,10 +12093,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R107" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12118,7 +12128,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12128,7 +12138,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12155,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131047017</v>
+        <v>131046952</v>
       </c>
       <c r="B108" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12166,39 +12176,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395448</v>
+        <v>395461</v>
       </c>
       <c r="R108" t="n">
-        <v>6804508</v>
+        <v>6804521</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12230,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12240,19 +12245,14 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD108" t="b">
         <v>0</v>
       </c>
       <c r="AE108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG108" t="b">
         <v>0</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131046957</v>
+        <v>131046903</v>
       </c>
       <c r="B109" t="n">
         <v>79244</v>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395414</v>
+        <v>395384</v>
       </c>
       <c r="R109" t="n">
-        <v>6804565</v>
+        <v>6804564</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046903</v>
+        <v>131033341</v>
       </c>
       <c r="B110" t="n">
         <v>79244</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395384</v>
+        <v>395797</v>
       </c>
       <c r="R110" t="n">
-        <v>6804564</v>
+        <v>6804591</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131033341</v>
+        <v>131046957</v>
       </c>
       <c r="B111" t="n">
         <v>79244</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395797</v>
+        <v>395414</v>
       </c>
       <c r="R111" t="n">
-        <v>6804591</v>
+        <v>6804565</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12551,22 +12551,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD111" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046875</v>
+        <v>131046747</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395444</v>
+        <v>395480</v>
       </c>
       <c r="R2" t="n">
-        <v>6804461</v>
+        <v>6804496</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046896</v>
+        <v>131046873</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -939,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395423</v>
+        <v>395430</v>
       </c>
       <c r="R4" t="n">
-        <v>6804458</v>
+        <v>6804474</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -974,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -984,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1011,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046947</v>
+        <v>131046896</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,10 +1051,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395461</v>
+        <v>395423</v>
       </c>
       <c r="R5" t="n">
-        <v>6804551</v>
+        <v>6804458</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1081,7 +1086,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1091,7 +1096,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1121,7 +1126,7 @@
         <v>131046872</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1225,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046873</v>
+        <v>131046947</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,10 +1265,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395430</v>
+        <v>395461</v>
       </c>
       <c r="R7" t="n">
-        <v>6804474</v>
+        <v>6804551</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1295,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1305,7 +1310,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1335,7 +1340,7 @@
         <v>131046995</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1439,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046803</v>
+        <v>131046875</v>
       </c>
       <c r="B9" t="n">
-        <v>79001</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,21 +1455,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395450</v>
+        <v>395444</v>
       </c>
       <c r="R9" t="n">
-        <v>6804390</v>
+        <v>6804461</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1546,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046747</v>
+        <v>131046803</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>79002</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1557,39 +1562,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395480</v>
+        <v>395450</v>
       </c>
       <c r="R10" t="n">
-        <v>6804496</v>
+        <v>6804390</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131033342</v>
+        <v>131046749</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,34 +1669,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395753</v>
+        <v>395449</v>
       </c>
       <c r="R11" t="n">
-        <v>6804557</v>
+        <v>6804395</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,22 +1728,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,32 +1770,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046807</v>
+        <v>131046884</v>
       </c>
       <c r="B12" t="n">
-        <v>83207</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1800,10 +1805,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395510</v>
+        <v>395489</v>
       </c>
       <c r="R12" t="n">
-        <v>6804530</v>
+        <v>6804292</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1835,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1845,7 +1850,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1872,10 +1877,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046749</v>
+        <v>131033342</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,39 +1888,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395449</v>
+        <v>395753</v>
       </c>
       <c r="R13" t="n">
-        <v>6804395</v>
+        <v>6804557</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,22 +1942,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,10 +1984,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046884</v>
+        <v>131046858</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395489</v>
+        <v>395570</v>
       </c>
       <c r="R14" t="n">
-        <v>6804292</v>
+        <v>6804341</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,32 +2091,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046858</v>
+        <v>131046807</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>83208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2126,10 +2126,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395570</v>
+        <v>395510</v>
       </c>
       <c r="R15" t="n">
-        <v>6804341</v>
+        <v>6804530</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2201,7 +2201,7 @@
         <v>131033283</v>
       </c>
       <c r="B16" t="n">
-        <v>79276</v>
+        <v>79277</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033331</v>
+        <v>131033348</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395707</v>
+        <v>395756</v>
       </c>
       <c r="R17" t="n">
-        <v>6804307</v>
+        <v>6804343</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,10 +2412,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046901</v>
+        <v>131046777</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2423,34 +2423,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395395</v>
+        <v>395435</v>
       </c>
       <c r="R18" t="n">
-        <v>6804547</v>
+        <v>6804481</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2487,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2497,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,10 +2529,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046878</v>
+        <v>131047009</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2530,34 +2540,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395478</v>
+        <v>395494</v>
       </c>
       <c r="R19" t="n">
-        <v>6804426</v>
+        <v>6804551</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2607,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2617,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,10 +2649,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131033348</v>
+        <v>131033331</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2661,10 +2684,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395756</v>
+        <v>395707</v>
       </c>
       <c r="R20" t="n">
-        <v>6804343</v>
+        <v>6804307</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2696,7 +2719,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2706,7 +2729,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,10 +2756,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046955</v>
+        <v>131046901</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2768,10 +2791,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395432</v>
+        <v>395395</v>
       </c>
       <c r="R21" t="n">
-        <v>6804533</v>
+        <v>6804547</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2826,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2836,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,10 +2863,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046868</v>
+        <v>131046955</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2875,10 +2898,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395462</v>
+        <v>395432</v>
       </c>
       <c r="R22" t="n">
-        <v>6804496</v>
+        <v>6804533</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2910,7 +2933,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2920,7 +2943,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2947,10 +2970,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046777</v>
+        <v>131046878</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2958,39 +2981,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395435</v>
+        <v>395478</v>
       </c>
       <c r="R23" t="n">
-        <v>6804481</v>
+        <v>6804426</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3022,7 +3040,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3032,12 +3050,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3064,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131047009</v>
+        <v>131046868</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,42 +3088,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395494</v>
+        <v>395462</v>
       </c>
       <c r="R24" t="n">
-        <v>6804551</v>
+        <v>6804496</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3147,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,12 +3157,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033324</v>
+        <v>131033344</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395676</v>
+        <v>395753</v>
       </c>
       <c r="R25" t="n">
-        <v>6804490</v>
+        <v>6804482</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3291,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131033344</v>
+        <v>131033324</v>
       </c>
       <c r="B26" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395753</v>
+        <v>395676</v>
       </c>
       <c r="R26" t="n">
-        <v>6804482</v>
+        <v>6804490</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3401,7 +3401,7 @@
         <v>131046894</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>131033302</v>
       </c>
       <c r="B29" t="n">
-        <v>79002</v>
+        <v>79003</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046956</v>
+        <v>131046898</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395418</v>
+        <v>395393</v>
       </c>
       <c r="R30" t="n">
-        <v>6804552</v>
+        <v>6804503</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3839,7 +3839,7 @@
         <v>131046892</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046998</v>
+        <v>131046994</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395494</v>
+        <v>395484</v>
       </c>
       <c r="R32" t="n">
-        <v>6804551</v>
+        <v>6804534</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4053,7 +4053,7 @@
         <v>131046885</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4157,45 +4157,50 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046898</v>
+        <v>131047035</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>5177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395393</v>
+        <v>395505</v>
       </c>
       <c r="R34" t="n">
-        <v>6804503</v>
+        <v>6804295</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4227,7 +4232,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4237,7 +4242,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4264,10 +4269,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046994</v>
+        <v>131046956</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4299,10 +4304,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395484</v>
+        <v>395418</v>
       </c>
       <c r="R35" t="n">
-        <v>6804534</v>
+        <v>6804552</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,7 +4339,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4344,7 +4349,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4371,50 +4376,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131047035</v>
+        <v>131046998</v>
       </c>
       <c r="B36" t="n">
-        <v>5177</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395505</v>
+        <v>395494</v>
       </c>
       <c r="R36" t="n">
-        <v>6804295</v>
+        <v>6804551</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4483,10 +4483,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046855</v>
+        <v>131046897</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395570</v>
+        <v>395414</v>
       </c>
       <c r="R37" t="n">
-        <v>6804306</v>
+        <v>6804483</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4590,10 +4590,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046897</v>
+        <v>131046855</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4625,10 +4625,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395414</v>
+        <v>395570</v>
       </c>
       <c r="R38" t="n">
-        <v>6804483</v>
+        <v>6804306</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4700,7 +4700,7 @@
         <v>131033347</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046748</v>
+        <v>131046859</v>
       </c>
       <c r="B40" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,39 +4815,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395453</v>
+        <v>395566</v>
       </c>
       <c r="R40" t="n">
-        <v>6804322</v>
+        <v>6804349</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4879,7 +4874,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4889,7 +4884,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4916,10 +4911,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046999</v>
+        <v>131046881</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4951,10 +4946,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395485</v>
+        <v>395494</v>
       </c>
       <c r="R41" t="n">
-        <v>6804561</v>
+        <v>6804395</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4986,7 +4981,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4996,7 +4991,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5023,10 +5018,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131033346</v>
+        <v>131046999</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5058,10 +5053,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395744</v>
+        <v>395485</v>
       </c>
       <c r="R42" t="n">
-        <v>6804417</v>
+        <v>6804561</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5088,22 +5083,22 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5130,10 +5125,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046859</v>
+        <v>131046805</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5141,21 +5136,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5165,10 +5160,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395566</v>
+        <v>395461</v>
       </c>
       <c r="R43" t="n">
-        <v>6804349</v>
+        <v>6804539</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5200,7 +5195,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5210,7 +5205,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5240,7 +5235,7 @@
         <v>131033334</v>
       </c>
       <c r="B44" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5344,10 +5339,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046805</v>
+        <v>131033346</v>
       </c>
       <c r="B45" t="n">
-        <v>79001</v>
+        <v>79245</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5355,21 +5350,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5379,10 +5374,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395461</v>
+        <v>395744</v>
       </c>
       <c r="R45" t="n">
-        <v>6804539</v>
+        <v>6804417</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5409,22 +5404,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5451,10 +5446,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046881</v>
+        <v>131046748</v>
       </c>
       <c r="B46" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5462,34 +5457,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395494</v>
+        <v>395453</v>
       </c>
       <c r="R46" t="n">
-        <v>6804395</v>
+        <v>6804322</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5675,10 +5675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046861</v>
+        <v>131046948</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395564</v>
+        <v>395462</v>
       </c>
       <c r="R48" t="n">
-        <v>6804373</v>
+        <v>6804542</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046712</v>
+        <v>131046949</v>
       </c>
       <c r="B49" t="n">
-        <v>83224</v>
+        <v>79245</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5793,21 +5793,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395468</v>
+        <v>395463</v>
       </c>
       <c r="R49" t="n">
-        <v>6804494</v>
+        <v>6804534</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5889,10 +5889,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046880</v>
+        <v>131033352</v>
       </c>
       <c r="B50" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395491</v>
+        <v>395857</v>
       </c>
       <c r="R50" t="n">
-        <v>6804393</v>
+        <v>6804292</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5954,22 +5954,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,10 +5996,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131033323</v>
+        <v>131046869</v>
       </c>
       <c r="B51" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395680</v>
+        <v>395456</v>
       </c>
       <c r="R51" t="n">
-        <v>6804541</v>
+        <v>6804500</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,10 +6103,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046949</v>
+        <v>131046880</v>
       </c>
       <c r="B52" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395463</v>
+        <v>395491</v>
       </c>
       <c r="R52" t="n">
-        <v>6804534</v>
+        <v>6804393</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6210,10 +6210,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046948</v>
+        <v>131046954</v>
       </c>
       <c r="B53" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395462</v>
+        <v>395446</v>
       </c>
       <c r="R53" t="n">
-        <v>6804542</v>
+        <v>6804531</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6317,10 +6317,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046866</v>
+        <v>131046997</v>
       </c>
       <c r="B54" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395542</v>
+        <v>395518</v>
       </c>
       <c r="R54" t="n">
-        <v>6804432</v>
+        <v>6804527</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6424,10 +6424,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046869</v>
+        <v>131046861</v>
       </c>
       <c r="B55" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395456</v>
+        <v>395564</v>
       </c>
       <c r="R55" t="n">
-        <v>6804500</v>
+        <v>6804373</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6531,10 +6531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046954</v>
+        <v>131033323</v>
       </c>
       <c r="B56" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395446</v>
+        <v>395680</v>
       </c>
       <c r="R56" t="n">
-        <v>6804531</v>
+        <v>6804541</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6596,22 +6596,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,10 +6638,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046997</v>
+        <v>131046866</v>
       </c>
       <c r="B57" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395518</v>
+        <v>395542</v>
       </c>
       <c r="R57" t="n">
-        <v>6804527</v>
+        <v>6804432</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,10 +6745,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131033352</v>
+        <v>131046712</v>
       </c>
       <c r="B58" t="n">
-        <v>79244</v>
+        <v>83225</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6756,21 +6756,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395857</v>
+        <v>395468</v>
       </c>
       <c r="R58" t="n">
-        <v>6804292</v>
+        <v>6804494</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6810,22 +6810,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6855,7 +6855,7 @@
         <v>131046874</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046713</v>
+        <v>131046879</v>
       </c>
       <c r="B60" t="n">
-        <v>83224</v>
+        <v>79245</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395454</v>
+        <v>395482</v>
       </c>
       <c r="R60" t="n">
-        <v>6804501</v>
+        <v>6804421</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,10 +7066,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046879</v>
+        <v>131046888</v>
       </c>
       <c r="B61" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395482</v>
+        <v>395436</v>
       </c>
       <c r="R61" t="n">
-        <v>6804421</v>
+        <v>6804373</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,10 +7173,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046888</v>
+        <v>131046713</v>
       </c>
       <c r="B62" t="n">
-        <v>79244</v>
+        <v>83225</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7184,21 +7184,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395436</v>
+        <v>395454</v>
       </c>
       <c r="R62" t="n">
-        <v>6804373</v>
+        <v>6804501</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046882</v>
+        <v>131033321</v>
       </c>
       <c r="B63" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395493</v>
+        <v>395718</v>
       </c>
       <c r="R63" t="n">
-        <v>6804376</v>
+        <v>6804573</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7345,22 +7345,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,10 +7387,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131033327</v>
+        <v>131046996</v>
       </c>
       <c r="B64" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7422,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395671</v>
+        <v>395485</v>
       </c>
       <c r="R64" t="n">
-        <v>6804435</v>
+        <v>6804506</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7452,22 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7494,10 +7494,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046996</v>
+        <v>131033327</v>
       </c>
       <c r="B65" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395485</v>
+        <v>395671</v>
       </c>
       <c r="R65" t="n">
-        <v>6804506</v>
+        <v>6804435</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7559,22 +7559,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,10 +7601,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131033321</v>
+        <v>131046882</v>
       </c>
       <c r="B66" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395718</v>
+        <v>395493</v>
       </c>
       <c r="R66" t="n">
-        <v>6804573</v>
+        <v>6804376</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7666,22 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,10 +7708,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131046789</v>
+        <v>131033326</v>
       </c>
       <c r="B67" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7719,39 +7719,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395495</v>
+        <v>395665</v>
       </c>
       <c r="R67" t="n">
-        <v>6804385</v>
+        <v>6804439</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7778,27 +7773,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7825,10 +7815,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131033326</v>
+        <v>131046789</v>
       </c>
       <c r="B68" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7836,34 +7826,39 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395665</v>
+        <v>395495</v>
       </c>
       <c r="R68" t="n">
-        <v>6804439</v>
+        <v>6804385</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7890,22 +7885,27 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7932,10 +7932,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131033353</v>
+        <v>131046993</v>
       </c>
       <c r="B69" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395859</v>
+        <v>395472</v>
       </c>
       <c r="R69" t="n">
-        <v>6804312</v>
+        <v>6804550</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,10 +8039,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046856</v>
+        <v>131033353</v>
       </c>
       <c r="B70" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8074,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395564</v>
+        <v>395859</v>
       </c>
       <c r="R70" t="n">
-        <v>6804311</v>
+        <v>6804312</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8104,22 +8104,22 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8146,10 +8146,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131033295</v>
+        <v>131046856</v>
       </c>
       <c r="B71" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8157,39 +8157,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395744</v>
+        <v>395564</v>
       </c>
       <c r="R71" t="n">
-        <v>6804575</v>
+        <v>6804311</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8216,27 +8211,22 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8263,10 +8253,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046993</v>
+        <v>131046877</v>
       </c>
       <c r="B72" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8298,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395472</v>
+        <v>395464</v>
       </c>
       <c r="R72" t="n">
-        <v>6804550</v>
+        <v>6804442</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8333,7 +8323,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8343,7 +8333,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8370,45 +8360,50 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131033299</v>
+        <v>131033295</v>
       </c>
       <c r="B73" t="n">
-        <v>79268</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6434</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395890</v>
+        <v>395744</v>
       </c>
       <c r="R73" t="n">
-        <v>6804464</v>
+        <v>6804575</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8440,7 +8435,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8450,7 +8445,12 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8477,32 +8477,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046877</v>
+        <v>131033299</v>
       </c>
       <c r="B74" t="n">
-        <v>79244</v>
+        <v>79269</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8512,10 +8512,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395464</v>
+        <v>395890</v>
       </c>
       <c r="R74" t="n">
-        <v>6804442</v>
+        <v>6804464</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8542,22 +8542,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8587,7 +8587,7 @@
         <v>131033303</v>
       </c>
       <c r="B75" t="n">
-        <v>79002</v>
+        <v>79003</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>131046862</v>
       </c>
       <c r="B76" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>131046865</v>
       </c>
       <c r="B77" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>131046886</v>
       </c>
       <c r="B78" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>131046854</v>
       </c>
       <c r="B79" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131033322</v>
+        <v>131033330</v>
       </c>
       <c r="B80" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9154,10 +9154,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395692</v>
+        <v>395702</v>
       </c>
       <c r="R80" t="n">
-        <v>6804550</v>
+        <v>6804325</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9226,10 +9226,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046889</v>
+        <v>131033322</v>
       </c>
       <c r="B81" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9261,10 +9261,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395429</v>
+        <v>395692</v>
       </c>
       <c r="R81" t="n">
-        <v>6804384</v>
+        <v>6804550</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9291,22 +9291,22 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9333,10 +9333,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046857</v>
+        <v>131046883</v>
       </c>
       <c r="B82" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395560</v>
+        <v>395494</v>
       </c>
       <c r="R82" t="n">
-        <v>6804326</v>
+        <v>6804367</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9440,10 +9440,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046883</v>
+        <v>131046889</v>
       </c>
       <c r="B83" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395494</v>
+        <v>395429</v>
       </c>
       <c r="R83" t="n">
-        <v>6804367</v>
+        <v>6804384</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9547,10 +9547,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131033330</v>
+        <v>131046857</v>
       </c>
       <c r="B84" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395702</v>
+        <v>395560</v>
       </c>
       <c r="R84" t="n">
-        <v>6804325</v>
+        <v>6804326</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9612,22 +9612,22 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9657,7 +9657,7 @@
         <v>131046893</v>
       </c>
       <c r="B85" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>131033333</v>
       </c>
       <c r="B86" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9868,10 +9868,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046860</v>
+        <v>131046902</v>
       </c>
       <c r="B87" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9903,10 +9903,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395578</v>
+        <v>395389</v>
       </c>
       <c r="R87" t="n">
-        <v>6804350</v>
+        <v>6804555</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9975,10 +9975,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046902</v>
+        <v>131046860</v>
       </c>
       <c r="B88" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395389</v>
+        <v>395578</v>
       </c>
       <c r="R88" t="n">
-        <v>6804555</v>
+        <v>6804350</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10319,7 +10319,7 @@
         <v>131046992</v>
       </c>
       <c r="B91" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046870</v>
+        <v>131046950</v>
       </c>
       <c r="B92" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395450</v>
+        <v>395470</v>
       </c>
       <c r="R92" t="n">
-        <v>6804507</v>
+        <v>6804530</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,10 +10530,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046891</v>
+        <v>131046870</v>
       </c>
       <c r="B93" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395453</v>
+        <v>395450</v>
       </c>
       <c r="R93" t="n">
-        <v>6804400</v>
+        <v>6804507</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,10 +10637,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046950</v>
+        <v>131046891</v>
       </c>
       <c r="B94" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395470</v>
+        <v>395453</v>
       </c>
       <c r="R94" t="n">
-        <v>6804530</v>
+        <v>6804400</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10747,7 +10747,7 @@
         <v>131033345</v>
       </c>
       <c r="B95" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046895</v>
+        <v>131046780</v>
       </c>
       <c r="B96" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,34 +10862,39 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395436</v>
+        <v>395470</v>
       </c>
       <c r="R96" t="n">
-        <v>6804436</v>
+        <v>6804530</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10921,7 +10926,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10931,7 +10936,12 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10958,10 +10968,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131033332</v>
+        <v>131047019</v>
       </c>
       <c r="B97" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10969,34 +10979,39 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395641</v>
+        <v>395446</v>
       </c>
       <c r="R97" t="n">
-        <v>6804509</v>
+        <v>6804531</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11023,29 +11038,34 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD97" t="b">
         <v>0</v>
       </c>
       <c r="AE97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG97" t="b">
         <v>0</v>
@@ -11065,10 +11085,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046780</v>
+        <v>131033362</v>
       </c>
       <c r="B98" t="n">
-        <v>57884</v>
+        <v>78911</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11076,39 +11096,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395470</v>
+        <v>395883</v>
       </c>
       <c r="R98" t="n">
-        <v>6804530</v>
+        <v>6804433</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11135,27 +11150,22 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11182,10 +11192,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131047019</v>
+        <v>131046895</v>
       </c>
       <c r="B99" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11193,39 +11203,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395446</v>
+        <v>395436</v>
       </c>
       <c r="R99" t="n">
-        <v>6804531</v>
+        <v>6804436</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11257,7 +11262,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11267,19 +11272,14 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG99" t="b">
         <v>0</v>
@@ -11299,10 +11299,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046887</v>
+        <v>131033332</v>
       </c>
       <c r="B100" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11334,10 +11334,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395449</v>
+        <v>395641</v>
       </c>
       <c r="R100" t="n">
-        <v>6804334</v>
+        <v>6804509</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11364,22 +11364,22 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11406,10 +11406,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131033362</v>
+        <v>131046887</v>
       </c>
       <c r="B101" t="n">
-        <v>78910</v>
+        <v>79245</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11417,21 +11417,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11441,10 +11441,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395883</v>
+        <v>395449</v>
       </c>
       <c r="R101" t="n">
-        <v>6804433</v>
+        <v>6804334</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11471,22 +11471,22 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046951</v>
+        <v>131046952</v>
       </c>
       <c r="B102" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11548,10 +11548,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395463</v>
+        <v>395461</v>
       </c>
       <c r="R102" t="n">
-        <v>6804524</v>
+        <v>6804521</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11623,7 +11623,7 @@
         <v>131046876</v>
       </c>
       <c r="B103" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>131033349</v>
       </c>
       <c r="B104" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046796</v>
+        <v>131046890</v>
       </c>
       <c r="B106" t="n">
-        <v>79002</v>
+        <v>79245</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11962,21 +11962,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395443</v>
+        <v>395440</v>
       </c>
       <c r="R106" t="n">
-        <v>6804347</v>
+        <v>6804390</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12058,10 +12058,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046890</v>
+        <v>131046951</v>
       </c>
       <c r="B107" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12093,10 +12093,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395440</v>
+        <v>395463</v>
       </c>
       <c r="R107" t="n">
-        <v>6804390</v>
+        <v>6804524</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12165,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046952</v>
+        <v>131046796</v>
       </c>
       <c r="B108" t="n">
-        <v>79244</v>
+        <v>79003</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,21 +12176,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395461</v>
+        <v>395443</v>
       </c>
       <c r="R108" t="n">
-        <v>6804521</v>
+        <v>6804347</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12272,10 +12272,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>131046903</v>
+        <v>131033341</v>
       </c>
       <c r="B109" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12307,10 +12307,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>395384</v>
+        <v>395797</v>
       </c>
       <c r="R109" t="n">
-        <v>6804564</v>
+        <v>6804591</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12337,22 +12337,22 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12379,10 +12379,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131033341</v>
+        <v>131046903</v>
       </c>
       <c r="B110" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395797</v>
+        <v>395384</v>
       </c>
       <c r="R110" t="n">
-        <v>6804591</v>
+        <v>6804564</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12444,22 +12444,22 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12489,7 +12489,7 @@
         <v>131046957</v>
       </c>
       <c r="B111" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046749</v>
+        <v>131046884</v>
       </c>
       <c r="B11" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,39 +1669,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395449</v>
+        <v>395489</v>
       </c>
       <c r="R11" t="n">
-        <v>6804395</v>
+        <v>6804292</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,32 +1765,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046884</v>
+        <v>131046807</v>
       </c>
       <c r="B12" t="n">
-        <v>79245</v>
+        <v>83208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1805,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395489</v>
+        <v>395510</v>
       </c>
       <c r="R12" t="n">
-        <v>6804292</v>
+        <v>6804530</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1835,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,7 +1845,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,10 +1872,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033342</v>
+        <v>131046749</v>
       </c>
       <c r="B13" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1888,34 +1883,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395753</v>
+        <v>395449</v>
       </c>
       <c r="R13" t="n">
-        <v>6804557</v>
+        <v>6804395</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,22 +1942,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046858</v>
+        <v>131033342</v>
       </c>
       <c r="B14" t="n">
         <v>79245</v>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395570</v>
+        <v>395753</v>
       </c>
       <c r="R14" t="n">
-        <v>6804341</v>
+        <v>6804557</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,32 +2091,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046807</v>
+        <v>131046858</v>
       </c>
       <c r="B15" t="n">
-        <v>83208</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2126,10 +2126,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395510</v>
+        <v>395570</v>
       </c>
       <c r="R15" t="n">
-        <v>6804530</v>
+        <v>6804341</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -4157,50 +4157,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131047035</v>
+        <v>131046956</v>
       </c>
       <c r="B34" t="n">
-        <v>5177</v>
+        <v>79245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395505</v>
+        <v>395418</v>
       </c>
       <c r="R34" t="n">
-        <v>6804295</v>
+        <v>6804552</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4232,7 +4227,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4242,7 +4237,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4269,7 +4264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046956</v>
+        <v>131046998</v>
       </c>
       <c r="B35" t="n">
         <v>79245</v>
@@ -4304,10 +4299,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395418</v>
+        <v>395494</v>
       </c>
       <c r="R35" t="n">
-        <v>6804552</v>
+        <v>6804551</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4339,7 +4334,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4349,7 +4344,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4376,45 +4371,50 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046998</v>
+        <v>131047035</v>
       </c>
       <c r="B36" t="n">
-        <v>79245</v>
+        <v>5177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395494</v>
+        <v>395505</v>
       </c>
       <c r="R36" t="n">
-        <v>6804551</v>
+        <v>6804295</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131033321</v>
+        <v>131046882</v>
       </c>
       <c r="B63" t="n">
         <v>79245</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395718</v>
+        <v>395493</v>
       </c>
       <c r="R63" t="n">
-        <v>6804573</v>
+        <v>6804376</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7345,22 +7345,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046996</v>
+        <v>131033326</v>
       </c>
       <c r="B64" t="n">
         <v>79245</v>
@@ -7422,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395485</v>
+        <v>395665</v>
       </c>
       <c r="R64" t="n">
-        <v>6804506</v>
+        <v>6804439</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7452,22 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046882</v>
+        <v>131033321</v>
       </c>
       <c r="B66" t="n">
         <v>79245</v>
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395493</v>
+        <v>395718</v>
       </c>
       <c r="R66" t="n">
-        <v>6804376</v>
+        <v>6804573</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7666,22 +7666,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,7 +7708,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131033326</v>
+        <v>131046996</v>
       </c>
       <c r="B67" t="n">
         <v>79245</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395665</v>
+        <v>395485</v>
       </c>
       <c r="R67" t="n">
-        <v>6804439</v>
+        <v>6804506</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7773,22 +7773,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046780</v>
+        <v>131033362</v>
       </c>
       <c r="B96" t="n">
-        <v>57884</v>
+        <v>78911</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,39 +10862,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395470</v>
+        <v>395883</v>
       </c>
       <c r="R96" t="n">
-        <v>6804530</v>
+        <v>6804433</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10921,27 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10968,7 +10958,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131047019</v>
+        <v>131046780</v>
       </c>
       <c r="B97" t="n">
         <v>57884</v>
@@ -10999,7 +10989,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -11008,10 +10998,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395446</v>
+        <v>395470</v>
       </c>
       <c r="R97" t="n">
-        <v>6804531</v>
+        <v>6804530</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11043,7 +11033,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11053,19 +11043,19 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD97" t="b">
         <v>0</v>
       </c>
       <c r="AE97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG97" t="b">
         <v>0</v>
@@ -11085,10 +11075,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131033362</v>
+        <v>131047019</v>
       </c>
       <c r="B98" t="n">
-        <v>78911</v>
+        <v>57884</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11096,34 +11086,39 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>353</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395883</v>
+        <v>395446</v>
       </c>
       <c r="R98" t="n">
-        <v>6804433</v>
+        <v>6804531</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11150,29 +11145,34 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD98" t="b">
         <v>0</v>
       </c>
       <c r="AE98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG98" t="b">
         <v>0</v>
@@ -11834,10 +11834,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>131047017</v>
+        <v>131046890</v>
       </c>
       <c r="B105" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11845,39 +11845,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>395448</v>
+        <v>395440</v>
       </c>
       <c r="R105" t="n">
-        <v>6804508</v>
+        <v>6804390</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11909,7 +11904,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -11919,19 +11914,14 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD105" t="b">
         <v>0</v>
       </c>
       <c r="AE105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG105" t="b">
         <v>0</v>
@@ -11951,7 +11941,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046890</v>
+        <v>131046951</v>
       </c>
       <c r="B106" t="n">
         <v>79245</v>
@@ -11986,10 +11976,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395440</v>
+        <v>395463</v>
       </c>
       <c r="R106" t="n">
-        <v>6804390</v>
+        <v>6804524</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12021,7 +12011,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12031,7 +12021,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12058,10 +12048,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046951</v>
+        <v>131046796</v>
       </c>
       <c r="B107" t="n">
-        <v>79245</v>
+        <v>79003</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12069,21 +12059,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12093,10 +12083,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395463</v>
+        <v>395443</v>
       </c>
       <c r="R107" t="n">
-        <v>6804524</v>
+        <v>6804347</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12128,7 +12118,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12138,7 +12128,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12165,10 +12155,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131046796</v>
+        <v>131047017</v>
       </c>
       <c r="B108" t="n">
-        <v>79003</v>
+        <v>57884</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12176,34 +12166,39 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395443</v>
+        <v>395448</v>
       </c>
       <c r="R108" t="n">
-        <v>6804347</v>
+        <v>6804508</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12235,7 +12230,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12245,14 +12240,19 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD108" t="b">
         <v>0</v>
       </c>
       <c r="AE108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG108" t="b">
         <v>0</v>

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046884</v>
+        <v>131046749</v>
       </c>
       <c r="B11" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1669,34 +1669,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395489</v>
+        <v>395449</v>
       </c>
       <c r="R11" t="n">
-        <v>6804292</v>
+        <v>6804395</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1743,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,32 +1770,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046807</v>
+        <v>131046884</v>
       </c>
       <c r="B12" t="n">
-        <v>83208</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1800,10 +1805,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395510</v>
+        <v>395489</v>
       </c>
       <c r="R12" t="n">
-        <v>6804530</v>
+        <v>6804292</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1835,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1845,7 +1850,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1872,10 +1877,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046749</v>
+        <v>131033342</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,39 +1888,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395449</v>
+        <v>395753</v>
       </c>
       <c r="R13" t="n">
-        <v>6804395</v>
+        <v>6804557</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,22 +1942,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131033342</v>
+        <v>131046858</v>
       </c>
       <c r="B14" t="n">
         <v>79245</v>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395753</v>
+        <v>395570</v>
       </c>
       <c r="R14" t="n">
-        <v>6804557</v>
+        <v>6804341</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,32 +2091,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046858</v>
+        <v>131046807</v>
       </c>
       <c r="B15" t="n">
-        <v>79245</v>
+        <v>83208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2126,10 +2126,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395570</v>
+        <v>395510</v>
       </c>
       <c r="R15" t="n">
-        <v>6804341</v>
+        <v>6804530</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033283</v>
+        <v>131033348</v>
       </c>
       <c r="B16" t="n">
-        <v>79277</v>
+        <v>79245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,21 +2209,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395745</v>
+        <v>395756</v>
       </c>
       <c r="R16" t="n">
-        <v>6804404</v>
+        <v>6804343</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033348</v>
+        <v>131033331</v>
       </c>
       <c r="B17" t="n">
         <v>79245</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395756</v>
+        <v>395707</v>
       </c>
       <c r="R17" t="n">
-        <v>6804343</v>
+        <v>6804307</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,10 +2412,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046777</v>
+        <v>131046901</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2423,39 +2423,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395435</v>
+        <v>395395</v>
       </c>
       <c r="R18" t="n">
-        <v>6804481</v>
+        <v>6804547</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2487,7 +2482,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2497,12 +2492,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2529,10 +2519,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131047009</v>
+        <v>131046955</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2540,42 +2530,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395494</v>
+        <v>395432</v>
       </c>
       <c r="R19" t="n">
-        <v>6804551</v>
+        <v>6804533</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2607,7 +2589,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2617,12 +2599,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2649,7 +2626,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131033331</v>
+        <v>131046878</v>
       </c>
       <c r="B20" t="n">
         <v>79245</v>
@@ -2684,10 +2661,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395707</v>
+        <v>395478</v>
       </c>
       <c r="R20" t="n">
-        <v>6804307</v>
+        <v>6804426</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2714,22 +2691,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2756,7 +2733,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046901</v>
+        <v>131046868</v>
       </c>
       <c r="B21" t="n">
         <v>79245</v>
@@ -2791,10 +2768,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395395</v>
+        <v>395462</v>
       </c>
       <c r="R21" t="n">
-        <v>6804547</v>
+        <v>6804496</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2826,7 +2803,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2836,7 +2813,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2863,10 +2840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046955</v>
+        <v>131046777</v>
       </c>
       <c r="B22" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2874,34 +2851,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395432</v>
+        <v>395435</v>
       </c>
       <c r="R22" t="n">
-        <v>6804533</v>
+        <v>6804481</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2933,7 +2915,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2943,7 +2925,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2970,10 +2957,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046878</v>
+        <v>131047009</v>
       </c>
       <c r="B23" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2981,34 +2968,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395478</v>
+        <v>395494</v>
       </c>
       <c r="R23" t="n">
-        <v>6804426</v>
+        <v>6804551</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3040,7 +3035,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3050,7 +3045,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3077,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046868</v>
+        <v>131033283</v>
       </c>
       <c r="B24" t="n">
-        <v>79245</v>
+        <v>79277</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,21 +3088,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395462</v>
+        <v>395745</v>
       </c>
       <c r="R24" t="n">
-        <v>6804496</v>
+        <v>6804404</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,22 +3142,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -8584,10 +8584,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131033303</v>
+        <v>131046862</v>
       </c>
       <c r="B75" t="n">
-        <v>79003</v>
+        <v>79245</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8595,21 +8595,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395706</v>
+        <v>395554</v>
       </c>
       <c r="R75" t="n">
-        <v>6804535</v>
+        <v>6804375</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8649,22 +8649,22 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046862</v>
+        <v>131046865</v>
       </c>
       <c r="B76" t="n">
         <v>79245</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395554</v>
+        <v>395546</v>
       </c>
       <c r="R76" t="n">
-        <v>6804375</v>
+        <v>6804405</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046865</v>
+        <v>131046886</v>
       </c>
       <c r="B77" t="n">
         <v>79245</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395546</v>
+        <v>395447</v>
       </c>
       <c r="R77" t="n">
-        <v>6804405</v>
+        <v>6804315</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8905,10 +8905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046886</v>
+        <v>131033303</v>
       </c>
       <c r="B78" t="n">
-        <v>79245</v>
+        <v>79003</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8916,21 +8916,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395447</v>
+        <v>395706</v>
       </c>
       <c r="R78" t="n">
-        <v>6804315</v>
+        <v>6804535</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8970,22 +8970,22 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 28856-2025 artfynd.xlsx
+++ b/artfynd/A 28856-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046747</v>
+        <v>131046803</v>
       </c>
       <c r="B2" t="n">
-        <v>57881</v>
+        <v>79002</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395480</v>
+        <v>395450</v>
       </c>
       <c r="R2" t="n">
-        <v>6804496</v>
+        <v>6804390</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046790</v>
+        <v>131046875</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,39 +798,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395416</v>
+        <v>395444</v>
       </c>
       <c r="R3" t="n">
-        <v>6804491</v>
+        <v>6804461</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,12 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046873</v>
+        <v>131046947</v>
       </c>
       <c r="B4" t="n">
         <v>79245</v>
@@ -944,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395430</v>
+        <v>395461</v>
       </c>
       <c r="R4" t="n">
-        <v>6804474</v>
+        <v>6804551</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -979,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046896</v>
+        <v>131046872</v>
       </c>
       <c r="B5" t="n">
         <v>79245</v>
@@ -1051,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395423</v>
+        <v>395434</v>
       </c>
       <c r="R5" t="n">
-        <v>6804458</v>
+        <v>6804484</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1096,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1123,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046872</v>
+        <v>131046873</v>
       </c>
       <c r="B6" t="n">
         <v>79245</v>
@@ -1158,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395434</v>
+        <v>395430</v>
       </c>
       <c r="R6" t="n">
-        <v>6804484</v>
+        <v>6804474</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1203,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1230,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046947</v>
+        <v>131046995</v>
       </c>
       <c r="B7" t="n">
         <v>79245</v>
@@ -1265,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395461</v>
+        <v>395491</v>
       </c>
       <c r="R7" t="n">
-        <v>6804551</v>
+        <v>6804522</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1337,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046995</v>
+        <v>131046896</v>
       </c>
       <c r="B8" t="n">
         <v>79245</v>
@@ -1372,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395491</v>
+        <v>395423</v>
       </c>
       <c r="R8" t="n">
-        <v>6804522</v>
+        <v>6804458</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046875</v>
+        <v>131046747</v>
       </c>
       <c r="B9" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,34 +1440,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395444</v>
+        <v>395480</v>
       </c>
       <c r="R9" t="n">
-        <v>6804461</v>
+        <v>6804496</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046803</v>
+        <v>131046790</v>
       </c>
       <c r="B10" t="n">
-        <v>79002</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,34 +1552,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395450</v>
+        <v>395416</v>
       </c>
       <c r="R10" t="n">
-        <v>6804390</v>
+        <v>6804491</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1616,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1626,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1770,7 +1770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046884</v>
+        <v>131033342</v>
       </c>
       <c r="B12" t="n">
         <v>79245</v>
@@ -1805,10 +1805,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395489</v>
+        <v>395753</v>
       </c>
       <c r="R12" t="n">
-        <v>6804292</v>
+        <v>6804557</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1835,22 +1835,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131033342</v>
+        <v>131046884</v>
       </c>
       <c r="B13" t="n">
         <v>79245</v>
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395753</v>
+        <v>395489</v>
       </c>
       <c r="R13" t="n">
-        <v>6804557</v>
+        <v>6804292</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1942,22 +1942,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2198,10 +2198,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131033348</v>
+        <v>131047009</v>
       </c>
       <c r="B16" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2209,34 +2209,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395756</v>
+        <v>395494</v>
       </c>
       <c r="R16" t="n">
-        <v>6804343</v>
+        <v>6804551</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2263,22 +2271,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Nästan helt avbarkad klen gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,10 +2318,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131033331</v>
+        <v>131033283</v>
       </c>
       <c r="B17" t="n">
-        <v>79245</v>
+        <v>79277</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2316,21 +2329,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2340,10 +2353,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395707</v>
+        <v>395745</v>
       </c>
       <c r="R17" t="n">
-        <v>6804307</v>
+        <v>6804404</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2388,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2398,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2425,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046901</v>
+        <v>131033331</v>
       </c>
       <c r="B18" t="n">
         <v>79245</v>
@@ -2447,10 +2460,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395395</v>
+        <v>395707</v>
       </c>
       <c r="R18" t="n">
-        <v>6804547</v>
+        <v>6804307</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2477,22 +2490,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2532,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046955</v>
+        <v>131046901</v>
       </c>
       <c r="B19" t="n">
         <v>79245</v>
@@ -2554,10 +2567,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395432</v>
+        <v>395395</v>
       </c>
       <c r="R19" t="n">
-        <v>6804533</v>
+        <v>6804547</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2602,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2612,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,7 +2639,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046878</v>
+        <v>131046955</v>
       </c>
       <c r="B20" t="n">
         <v>79245</v>
@@ -2661,10 +2674,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395478</v>
+        <v>395432</v>
       </c>
       <c r="R20" t="n">
-        <v>6804426</v>
+        <v>6804533</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2696,7 +2709,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2706,7 +2719,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,7 +2746,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046868</v>
+        <v>131046878</v>
       </c>
       <c r="B21" t="n">
         <v>79245</v>
@@ -2768,10 +2781,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395462</v>
+        <v>395478</v>
       </c>
       <c r="R21" t="n">
-        <v>6804496</v>
+        <v>6804426</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2816,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2826,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2840,10 +2853,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046777</v>
+        <v>131046868</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2851,39 +2864,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395435</v>
+        <v>395462</v>
       </c>
       <c r="R22" t="n">
-        <v>6804481</v>
+        <v>6804496</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2915,7 +2923,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2925,12 +2933,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:46</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2957,10 +2960,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047009</v>
+        <v>131033348</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2968,42 +2971,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395494</v>
+        <v>395756</v>
       </c>
       <c r="R23" t="n">
-        <v>6804551</v>
+        <v>6804343</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3030,27 +3025,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Nästan helt avbarkad klen gran</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3077,10 +3067,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131033283</v>
+        <v>131046777</v>
       </c>
       <c r="B24" t="n">
-        <v>79277</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3078,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395745</v>
+        <v>395435</v>
       </c>
       <c r="R24" t="n">
-        <v>6804404</v>
+        <v>6804481</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,22 +3137,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>09:46</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>09:46</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3184,10 +3184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131033344</v>
+        <v>131033294</v>
       </c>
       <c r="B25" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,34 +3195,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395753</v>
+        <v>395714</v>
       </c>
       <c r="R25" t="n">
-        <v>6804482</v>
+        <v>6804552</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3254,7 +3259,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3264,7 +3269,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3505,10 +3515,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131033294</v>
+        <v>131033344</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3516,39 +3526,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395714</v>
+        <v>395753</v>
       </c>
       <c r="R28" t="n">
-        <v>6804552</v>
+        <v>6804482</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3580,7 +3585,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3590,12 +3595,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:06</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046898</v>
+        <v>131046885</v>
       </c>
       <c r="B30" t="n">
         <v>79245</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395393</v>
+        <v>395486</v>
       </c>
       <c r="R30" t="n">
-        <v>6804503</v>
+        <v>6804289</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046994</v>
+        <v>131046898</v>
       </c>
       <c r="B32" t="n">
         <v>79245</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395484</v>
+        <v>395393</v>
       </c>
       <c r="R32" t="n">
-        <v>6804534</v>
+        <v>6804503</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4050,7 +4050,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046885</v>
+        <v>131046994</v>
       </c>
       <c r="B33" t="n">
         <v>79245</v>
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395486</v>
+        <v>395484</v>
       </c>
       <c r="R33" t="n">
-        <v>6804289</v>
+        <v>6804534</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4483,7 +4483,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046897</v>
+        <v>131046855</v>
       </c>
       <c r="B37" t="n">
         <v>79245</v>
@@ -4518,10 +4518,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395414</v>
+        <v>395570</v>
       </c>
       <c r="R37" t="n">
-        <v>6804483</v>
+        <v>6804306</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4590,7 +4590,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046855</v>
+        <v>131046897</v>
       </c>
       <c r="B38" t="n">
         <v>79245</v>
@@ -4625,10 +4625,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395570</v>
+        <v>395414</v>
       </c>
       <c r="R38" t="n">
-        <v>6804306</v>
+        <v>6804483</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046859</v>
+        <v>131046805</v>
       </c>
       <c r="B40" t="n">
-        <v>79245</v>
+        <v>79002</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4815,21 +4815,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395566</v>
+        <v>395461</v>
       </c>
       <c r="R40" t="n">
-        <v>6804349</v>
+        <v>6804539</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4911,7 +4911,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046881</v>
+        <v>131033334</v>
       </c>
       <c r="B41" t="n">
         <v>79245</v>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395494</v>
+        <v>395718</v>
       </c>
       <c r="R41" t="n">
-        <v>6804395</v>
+        <v>6804558</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4976,22 +4976,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5018,7 +5018,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046999</v>
+        <v>131046881</v>
       </c>
       <c r="B42" t="n">
         <v>79245</v>
@@ -5053,10 +5053,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395485</v>
+        <v>395494</v>
       </c>
       <c r="R42" t="n">
-        <v>6804561</v>
+        <v>6804395</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5125,10 +5125,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046805</v>
+        <v>131046999</v>
       </c>
       <c r="B43" t="n">
-        <v>79002</v>
+        <v>79245</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5136,21 +5136,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5160,10 +5160,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395461</v>
+        <v>395485</v>
       </c>
       <c r="R43" t="n">
-        <v>6804539</v>
+        <v>6804561</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5232,7 +5232,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131033334</v>
+        <v>131033346</v>
       </c>
       <c r="B44" t="n">
         <v>79245</v>
@@ -5267,10 +5267,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395718</v>
+        <v>395744</v>
       </c>
       <c r="R44" t="n">
-        <v>6804558</v>
+        <v>6804417</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5339,7 +5339,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131033346</v>
+        <v>131046859</v>
       </c>
       <c r="B45" t="n">
         <v>79245</v>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395744</v>
+        <v>395566</v>
       </c>
       <c r="R45" t="n">
-        <v>6804417</v>
+        <v>6804349</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5404,22 +5404,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046948</v>
+        <v>131033323</v>
       </c>
       <c r="B48" t="n">
         <v>79245</v>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395462</v>
+        <v>395680</v>
       </c>
       <c r="R48" t="n">
-        <v>6804542</v>
+        <v>6804541</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5740,22 +5740,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131033352</v>
+        <v>131046866</v>
       </c>
       <c r="B50" t="n">
         <v>79245</v>
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395857</v>
+        <v>395542</v>
       </c>
       <c r="R50" t="n">
-        <v>6804292</v>
+        <v>6804432</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5954,22 +5954,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046869</v>
+        <v>131046880</v>
       </c>
       <c r="B51" t="n">
         <v>79245</v>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395456</v>
+        <v>395491</v>
       </c>
       <c r="R51" t="n">
-        <v>6804500</v>
+        <v>6804393</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6103,7 +6103,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046880</v>
+        <v>131046869</v>
       </c>
       <c r="B52" t="n">
         <v>79245</v>
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395491</v>
+        <v>395456</v>
       </c>
       <c r="R52" t="n">
-        <v>6804393</v>
+        <v>6804500</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6531,10 +6531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131033323</v>
+        <v>131046712</v>
       </c>
       <c r="B56" t="n">
-        <v>79245</v>
+        <v>83225</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6542,21 +6542,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395680</v>
+        <v>395468</v>
       </c>
       <c r="R56" t="n">
-        <v>6804541</v>
+        <v>6804494</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6596,22 +6596,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046866</v>
+        <v>131033352</v>
       </c>
       <c r="B57" t="n">
         <v>79245</v>
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395542</v>
+        <v>395857</v>
       </c>
       <c r="R57" t="n">
-        <v>6804432</v>
+        <v>6804292</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6703,22 +6703,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6745,10 +6745,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046712</v>
+        <v>131046948</v>
       </c>
       <c r="B58" t="n">
-        <v>83225</v>
+        <v>79245</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6756,21 +6756,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395468</v>
+        <v>395462</v>
       </c>
       <c r="R58" t="n">
-        <v>6804494</v>
+        <v>6804542</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6959,7 +6959,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046879</v>
+        <v>131046888</v>
       </c>
       <c r="B60" t="n">
         <v>79245</v>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395482</v>
+        <v>395436</v>
       </c>
       <c r="R60" t="n">
-        <v>6804421</v>
+        <v>6804373</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7066,10 +7066,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046888</v>
+        <v>131046713</v>
       </c>
       <c r="B61" t="n">
-        <v>79245</v>
+        <v>83225</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7077,21 +7077,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7101,10 +7101,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395436</v>
+        <v>395454</v>
       </c>
       <c r="R61" t="n">
-        <v>6804373</v>
+        <v>6804501</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7173,10 +7173,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046713</v>
+        <v>131046879</v>
       </c>
       <c r="B62" t="n">
-        <v>83225</v>
+        <v>79245</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7184,21 +7184,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395454</v>
+        <v>395482</v>
       </c>
       <c r="R62" t="n">
-        <v>6804501</v>
+        <v>6804421</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7280,7 +7280,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046882</v>
+        <v>131033321</v>
       </c>
       <c r="B63" t="n">
         <v>79245</v>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395493</v>
+        <v>395718</v>
       </c>
       <c r="R63" t="n">
-        <v>6804376</v>
+        <v>6804573</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7345,22 +7345,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131033326</v>
+        <v>131046882</v>
       </c>
       <c r="B64" t="n">
         <v>79245</v>
@@ -7422,10 +7422,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395665</v>
+        <v>395493</v>
       </c>
       <c r="R64" t="n">
-        <v>6804439</v>
+        <v>6804376</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7452,22 +7452,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7494,7 +7494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131033327</v>
+        <v>131046996</v>
       </c>
       <c r="B65" t="n">
         <v>79245</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395671</v>
+        <v>395485</v>
       </c>
       <c r="R65" t="n">
-        <v>6804435</v>
+        <v>6804506</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7559,22 +7559,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131033321</v>
+        <v>131033327</v>
       </c>
       <c r="B66" t="n">
         <v>79245</v>
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395718</v>
+        <v>395671</v>
       </c>
       <c r="R66" t="n">
-        <v>6804573</v>
+        <v>6804435</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7708,7 +7708,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131046996</v>
+        <v>131033326</v>
       </c>
       <c r="B67" t="n">
         <v>79245</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>395485</v>
+        <v>395665</v>
       </c>
       <c r="R67" t="n">
-        <v>6804506</v>
+        <v>6804439</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7773,22 +7773,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7932,7 +7932,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046993</v>
+        <v>131033353</v>
       </c>
       <c r="B69" t="n">
         <v>79245</v>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395472</v>
+        <v>395859</v>
       </c>
       <c r="R69" t="n">
-        <v>6804550</v>
+        <v>6804312</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7997,22 +7997,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8039,32 +8039,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131033353</v>
+        <v>131033299</v>
       </c>
       <c r="B70" t="n">
-        <v>79245</v>
+        <v>79269</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8074,10 +8074,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395859</v>
+        <v>395890</v>
       </c>
       <c r="R70" t="n">
-        <v>6804312</v>
+        <v>6804464</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8146,7 +8146,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046856</v>
+        <v>131046993</v>
       </c>
       <c r="B71" t="n">
         <v>79245</v>
@@ -8181,10 +8181,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395564</v>
+        <v>395472</v>
       </c>
       <c r="R71" t="n">
-        <v>6804311</v>
+        <v>6804550</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8253,7 +8253,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046877</v>
+        <v>131046856</v>
       </c>
       <c r="B72" t="n">
         <v>79245</v>
@@ -8288,10 +8288,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395464</v>
+        <v>395564</v>
       </c>
       <c r="R72" t="n">
-        <v>6804442</v>
+        <v>6804311</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8360,10 +8360,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131033295</v>
+        <v>131046877</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8371,39 +8371,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395744</v>
+        <v>395464</v>
       </c>
       <c r="R73" t="n">
-        <v>6804575</v>
+        <v>6804442</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8430,27 +8425,22 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>13:09</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8477,45 +8467,50 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131033299</v>
+        <v>131033295</v>
       </c>
       <c r="B74" t="n">
-        <v>79269</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6434</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395890</v>
+        <v>395744</v>
       </c>
       <c r="R74" t="n">
-        <v>6804464</v>
+        <v>6804575</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8547,7 +8542,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8557,7 +8552,12 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8584,7 +8584,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046862</v>
+        <v>131046865</v>
       </c>
       <c r="B75" t="n">
         <v>79245</v>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395554</v>
+        <v>395546</v>
       </c>
       <c r="R75" t="n">
-        <v>6804375</v>
+        <v>6804405</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:37</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046865</v>
+        <v>131046886</v>
       </c>
       <c r="B76" t="n">
         <v>79245</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395546</v>
+        <v>395447</v>
       </c>
       <c r="R76" t="n">
-        <v>6804405</v>
+        <v>6804315</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046886</v>
+        <v>131046862</v>
       </c>
       <c r="B77" t="n">
         <v>79245</v>
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395447</v>
+        <v>395554</v>
       </c>
       <c r="R77" t="n">
-        <v>6804315</v>
+        <v>6804375</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9440,7 +9440,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046889</v>
+        <v>131046857</v>
       </c>
       <c r="B83" t="n">
         <v>79245</v>
@@ -9475,10 +9475,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395429</v>
+        <v>395560</v>
       </c>
       <c r="R83" t="n">
-        <v>6804384</v>
+        <v>6804326</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9547,7 +9547,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046857</v>
+        <v>131046889</v>
       </c>
       <c r="B84" t="n">
         <v>79245</v>
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395560</v>
+        <v>395429</v>
       </c>
       <c r="R84" t="n">
-        <v>6804326</v>
+        <v>6804384</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9761,10 +9761,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131033333</v>
+        <v>131047018</v>
       </c>
       <c r="B86" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9772,34 +9772,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395717</v>
+        <v>395509</v>
       </c>
       <c r="R86" t="n">
-        <v>6804542</v>
+        <v>6804287</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9826,29 +9831,34 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
       <c r="AE86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86" t="b">
         <v>0</v>
@@ -9868,10 +9878,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046902</v>
+        <v>131033293</v>
       </c>
       <c r="B87" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9879,34 +9889,39 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395389</v>
+        <v>395668</v>
       </c>
       <c r="R87" t="n">
-        <v>6804555</v>
+        <v>6804432</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9933,22 +9948,27 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9975,7 +9995,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046860</v>
+        <v>131033333</v>
       </c>
       <c r="B88" t="n">
         <v>79245</v>
@@ -10010,10 +10030,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395578</v>
+        <v>395717</v>
       </c>
       <c r="R88" t="n">
-        <v>6804350</v>
+        <v>6804542</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10040,22 +10060,22 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10082,10 +10102,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131047018</v>
+        <v>131046902</v>
       </c>
       <c r="B89" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10093,39 +10113,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395509</v>
+        <v>395389</v>
       </c>
       <c r="R89" t="n">
-        <v>6804287</v>
+        <v>6804555</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10157,7 +10172,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10167,19 +10182,14 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="b">
         <v>0</v>
@@ -10199,10 +10209,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131033293</v>
+        <v>131046860</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10210,39 +10220,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395668</v>
+        <v>395578</v>
       </c>
       <c r="R90" t="n">
-        <v>6804432</v>
+        <v>6804350</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10269,27 +10274,22 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>12:22</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046992</v>
+        <v>131046950</v>
       </c>
       <c r="B91" t="n">
         <v>79245</v>
@@ -10351,10 +10351,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395477</v>
+        <v>395470</v>
       </c>
       <c r="R91" t="n">
-        <v>6804563</v>
+        <v>6804530</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046950</v>
+        <v>131046870</v>
       </c>
       <c r="B92" t="n">
         <v>79245</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395470</v>
+        <v>395450</v>
       </c>
       <c r="R92" t="n">
-        <v>6804530</v>
+        <v>6804507</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10530,7 +10530,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046870</v>
+        <v>131046891</v>
       </c>
       <c r="B93" t="n">
         <v>79245</v>
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395450</v>
+        <v>395453</v>
       </c>
       <c r="R93" t="n">
-        <v>6804507</v>
+        <v>6804400</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046891</v>
+        <v>131033345</v>
       </c>
       <c r="B94" t="n">
         <v>79245</v>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395453</v>
+        <v>395748</v>
       </c>
       <c r="R94" t="n">
-        <v>6804400</v>
+        <v>6804429</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10702,22 +10702,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131033345</v>
+        <v>131046992</v>
       </c>
       <c r="B95" t="n">
         <v>79245</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395748</v>
+        <v>395477</v>
       </c>
       <c r="R95" t="n">
-        <v>6804429</v>
+        <v>6804563</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10809,22 +10809,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10851,10 +10851,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131033362</v>
+        <v>131046887</v>
       </c>
       <c r="B96" t="n">
-        <v>78911</v>
+        <v>79245</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10862,21 +10862,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10886,10 +10886,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395883</v>
+        <v>395449</v>
       </c>
       <c r="R96" t="n">
-        <v>6804433</v>
+        <v>6804334</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10916,22 +10916,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10958,10 +10958,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046780</v>
+        <v>131033362</v>
       </c>
       <c r="B97" t="n">
-        <v>57884</v>
+        <v>78911</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10969,39 +10969,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P97" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395470</v>
+        <v>395883</v>
       </c>
       <c r="R97" t="n">
-        <v>6804530</v>
+        <v>6804433</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11028,27 +11023,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11075,10 +11065,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131047019</v>
+        <v>131046895</v>
       </c>
       <c r="B98" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11086,39 +11076,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395446</v>
+        <v>395436</v>
       </c>
       <c r="R98" t="n">
-        <v>6804531</v>
+        <v>6804436</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11150,7 +11135,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11160,19 +11145,14 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD98" t="b">
         <v>0</v>
       </c>
       <c r="AE98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG98" t="b">
         <v>0</v>
@@ -11192,7 +11172,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046895</v>
+        <v>131033332</v>
       </c>
       <c r="B99" t="n">
         <v>79245</v>
@@ -11227,10 +11207,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395436</v>
+        <v>395641</v>
       </c>
       <c r="R99" t="n">
-        <v>6804436</v>
+        <v>6804509</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11257,22 +11237,22 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11299,10 +11279,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131033332</v>
+        <v>131046780</v>
       </c>
       <c r="B100" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11310,34 +11290,39 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395641</v>
+        <v>395470</v>
       </c>
       <c r="R100" t="n">
-        <v>6804509</v>
+        <v>6804530</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11364,22 +11349,27 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11406,10 +11396,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046887</v>
+        <v>131047019</v>
       </c>
       <c r="B101" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11417,34 +11407,39 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395449</v>
+        <v>395446</v>
       </c>
       <c r="R101" t="n">
-        <v>6804334</v>
+        <v>6804531</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11476,7 +11471,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11486,14 +11481,19 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046952</v>
+        <v>131047017</v>
       </c>
       <c r="B102" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11524,34 +11524,39 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395461</v>
+        <v>395448</v>
       </c>
       <c r="R102" t="n">
-        <v>6804521</v>
+        <v>6804508</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11593,14 +11598,19 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG102" t="b">
         <v>0</v>
@@ -11620,10 +11630,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046876</v>
+        <v>131046796</v>
       </c>
       <c r="B103" t="n">
-        <v>79245</v>
+        <v>79003</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11631,21 +11641,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11655,10 +11665,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395457</v>
+        <v>395443</v>
       </c>
       <c r="R103" t="n">
-        <v>6804453</v>
+        <v>6804347</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11690,7 +11700,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11700,7 +11710,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>09:48</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11727,7 +11737,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>131033349</v>
+        <v>131046876</v>
       </c>
       <c r="B104" t="n">
         <v>79245</v>
@@ -11762,10 +11772,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>395757</v>
+        <v>395457</v>
       </c>
       <c r="R104" t="n">
-        <v>6804291</v>
+        <v>6804453</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11792,22 +11802,22 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11941,7 +11951,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131046951</v>
+        <v>131033349</v>
       </c>
       <c r="B106" t="n">
         <v>79245</v>
@@ -11976,10 +11986,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>395463</v>
+        <v>395757</v>
       </c>
       <c r="R106" t="n">
-        <v>6804524</v>
+        <v>6804291</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -12006,22 +12016,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12048,10 +12058,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>131046796</v>
+        <v>131046952</v>
       </c>
       <c r="B107" t="n">
-        <v>79003</v>
+        <v>79245</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12059,21 +12069,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12083,10 +12093,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>395443</v>
+        <v>395461</v>
       </c>
       <c r="R107" t="n">
-        <v>6804347</v>
+        <v>6804521</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -12118,7 +12128,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12128,7 +12138,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12155,10 +12165,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>131047017</v>
+        <v>131046951</v>
       </c>
       <c r="B108" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12166,39 +12176,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>395448</v>
+        <v>395463</v>
       </c>
       <c r="R108" t="n">
-        <v>6804508</v>
+        <v>6804524</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12230,7 +12235,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -12240,19 +12245,14 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD108" t="b">
         <v>0</v>
       </c>
       <c r="AE108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG108" t="b">
         <v>0</v>
@@ -12379,7 +12379,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>131046903</v>
+        <v>131046957</v>
       </c>
       <c r="B110" t="n">
         <v>79245</v>
@@ -12414,10 +12414,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>395384</v>
+        <v>395414</v>
       </c>
       <c r="R110" t="n">
-        <v>6804564</v>
+        <v>6804565</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>131046957</v>
+        <v>131046903</v>
       </c>
       <c r="B111" t="n">
         <v>79245</v>
@@ -12521,10 +12521,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>395414</v>
+        <v>395384</v>
       </c>
       <c r="R111" t="n">
-        <v>6804565</v>
+        <v>6804564</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD111" t="b">
